--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -486,20 +486,14 @@
         <v>37835</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>38140</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -527,20 +521,14 @@
         <v>37830.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>38130</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -568,20 +556,14 @@
         <v>37819.33333333334</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>37900</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -609,20 +591,14 @@
         <v>37808.66666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>37830</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -650,20 +626,14 @@
         <v>37801.33333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>38250</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -691,20 +661,14 @@
         <v>37810.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>38270</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -732,20 +696,14 @@
         <v>37819.83333333334</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>38280</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -773,20 +731,14 @@
         <v>37834.33333333334</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>38320</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -814,20 +766,14 @@
         <v>37845.66666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>38450</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -855,20 +801,14 @@
         <v>37853.33333333334</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>38460</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -903,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -942,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -981,11 +913,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1020,11 +948,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1059,11 +983,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1098,12 +1018,10 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1166,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1236,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -2423,13 +2341,17 @@
         <v>38447.5</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>37810</v>
+      </c>
+      <c r="K56" t="n">
+        <v>37810</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2458,14 +2380,22 @@
         <v>38438.33333333334</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>37830</v>
+      </c>
+      <c r="K57" t="n">
+        <v>37810</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2499,12 +2429,16 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>37850</v>
+        <v>37840</v>
       </c>
       <c r="K58" t="n">
-        <v>37850</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
+        <v>37810</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2538,16 +2472,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>38490</v>
+        <v>37850</v>
       </c>
       <c r="K59" t="n">
         <v>37850</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2624,8 +2554,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>37850</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2688,14 +2624,20 @@
         <v>38440.16666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>38330</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2723,14 +2665,20 @@
         <v>38447.66666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>38230</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2713,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2800,7 +2752,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2835,7 +2791,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2870,7 +2830,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2905,7 +2869,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2940,7 +2908,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2975,7 +2947,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3010,7 +2986,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3045,7 +3025,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3080,7 +3064,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3115,7 +3103,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3150,7 +3142,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3185,7 +3181,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3220,7 +3220,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3255,7 +3259,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3290,7 +3298,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3325,7 +3337,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3360,7 +3376,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3395,7 +3415,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3430,7 +3454,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3465,7 +3493,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3500,7 +3532,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3535,7 +3571,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3570,7 +3610,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3605,7 +3649,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3640,7 +3688,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3675,7 +3727,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3710,7 +3766,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3745,7 +3805,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3780,7 +3844,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3815,7 +3883,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3850,7 +3922,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3885,7 +3961,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4000,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3955,7 +4039,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3990,7 +4078,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4025,7 +4117,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4060,7 +4156,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4095,7 +4195,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4130,7 +4234,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4165,7 +4273,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4200,7 +4312,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4235,7 +4351,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4270,7 +4390,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4305,7 +4429,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4340,7 +4468,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4375,7 +4507,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4410,7 +4546,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4445,7 +4585,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4480,7 +4624,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4515,7 +4663,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4550,7 +4702,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4585,7 +4741,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4620,7 +4780,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4655,7 +4819,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4690,7 +4858,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4725,7 +4897,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4760,7 +4936,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,16 +445,16 @@
         <v>38130</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2147</v>
+        <v>0.0248</v>
       </c>
       <c r="G2" t="n">
-        <v>37835</v>
+        <v>37838.66666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38140</v>
+        <v>38130</v>
       </c>
       <c r="C3" t="n">
         <v>38130</v>
       </c>
       <c r="D3" t="n">
-        <v>38140</v>
+        <v>38130</v>
       </c>
       <c r="E3" t="n">
         <v>38130</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0987</v>
+        <v>1.2147</v>
       </c>
       <c r="G3" t="n">
         <v>37835</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38130</v>
+        <v>38140</v>
       </c>
       <c r="C4" t="n">
         <v>38130</v>
       </c>
       <c r="D4" t="n">
-        <v>38130</v>
+        <v>38140</v>
       </c>
       <c r="E4" t="n">
         <v>38130</v>
       </c>
       <c r="F4" t="n">
-        <v>0.066</v>
+        <v>3.0987</v>
       </c>
       <c r="G4" t="n">
-        <v>37830.5</v>
+        <v>37835</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37900</v>
+        <v>38130</v>
       </c>
       <c r="C5" t="n">
-        <v>37730</v>
+        <v>38130</v>
       </c>
       <c r="D5" t="n">
-        <v>37900</v>
+        <v>38130</v>
       </c>
       <c r="E5" t="n">
-        <v>37730</v>
+        <v>38130</v>
       </c>
       <c r="F5" t="n">
-        <v>8.056699999999999</v>
+        <v>0.066</v>
       </c>
       <c r="G5" t="n">
-        <v>37819.33333333334</v>
+        <v>37830.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37830</v>
+        <v>37900</v>
       </c>
       <c r="C6" t="n">
-        <v>37820</v>
+        <v>37730</v>
       </c>
       <c r="D6" t="n">
-        <v>37830</v>
+        <v>37900</v>
       </c>
       <c r="E6" t="n">
-        <v>37820</v>
+        <v>37730</v>
       </c>
       <c r="F6" t="n">
-        <v>21.1464</v>
+        <v>8.056699999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>37808.66666666666</v>
+        <v>37819.33333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38250</v>
+        <v>37830</v>
       </c>
       <c r="C7" t="n">
-        <v>38270</v>
+        <v>37820</v>
       </c>
       <c r="D7" t="n">
-        <v>38270</v>
+        <v>37830</v>
       </c>
       <c r="E7" t="n">
-        <v>38250</v>
+        <v>37820</v>
       </c>
       <c r="F7" t="n">
-        <v>2.3</v>
+        <v>21.1464</v>
       </c>
       <c r="G7" t="n">
-        <v>37801.33333333334</v>
+        <v>37808.66666666666</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>38250</v>
+      </c>
+      <c r="C8" t="n">
         <v>38270</v>
       </c>
-      <c r="C8" t="n">
-        <v>38280</v>
-      </c>
       <c r="D8" t="n">
-        <v>38280</v>
+        <v>38270</v>
       </c>
       <c r="E8" t="n">
-        <v>38270</v>
+        <v>38250</v>
       </c>
       <c r="F8" t="n">
-        <v>10.12</v>
+        <v>2.3</v>
       </c>
       <c r="G8" t="n">
-        <v>37810.5</v>
+        <v>37801.33333333334</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>38270</v>
+      </c>
+      <c r="C9" t="n">
         <v>38280</v>
       </c>
-      <c r="C9" t="n">
-        <v>38290</v>
-      </c>
       <c r="D9" t="n">
-        <v>38290</v>
+        <v>38280</v>
       </c>
       <c r="E9" t="n">
-        <v>38280</v>
+        <v>38270</v>
       </c>
       <c r="F9" t="n">
-        <v>22.2113</v>
+        <v>10.12</v>
       </c>
       <c r="G9" t="n">
-        <v>37819.83333333334</v>
+        <v>37810.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38320</v>
+        <v>38280</v>
       </c>
       <c r="C10" t="n">
-        <v>38330</v>
+        <v>38290</v>
       </c>
       <c r="D10" t="n">
-        <v>38330</v>
+        <v>38290</v>
       </c>
       <c r="E10" t="n">
-        <v>38320</v>
+        <v>38280</v>
       </c>
       <c r="F10" t="n">
-        <v>39.6495</v>
+        <v>22.2113</v>
       </c>
       <c r="G10" t="n">
-        <v>37834.33333333334</v>
+        <v>37819.83333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>38450</v>
+        <v>38320</v>
       </c>
       <c r="C11" t="n">
-        <v>38450</v>
+        <v>38330</v>
       </c>
       <c r="D11" t="n">
-        <v>38450</v>
+        <v>38330</v>
       </c>
       <c r="E11" t="n">
-        <v>38450</v>
+        <v>38320</v>
       </c>
       <c r="F11" t="n">
-        <v>10.5804</v>
+        <v>39.6495</v>
       </c>
       <c r="G11" t="n">
-        <v>37845.66666666666</v>
+        <v>37834.33333333334</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38460</v>
+        <v>38450</v>
       </c>
       <c r="C12" t="n">
-        <v>38470</v>
+        <v>38450</v>
       </c>
       <c r="D12" t="n">
-        <v>38470</v>
+        <v>38450</v>
       </c>
       <c r="E12" t="n">
-        <v>38460</v>
+        <v>38450</v>
       </c>
       <c r="F12" t="n">
-        <v>31.7317</v>
+        <v>10.5804</v>
       </c>
       <c r="G12" t="n">
-        <v>37853.33333333334</v>
+        <v>37845.66666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>38460</v>
+      </c>
+      <c r="C13" t="n">
         <v>38470</v>
       </c>
-      <c r="C13" t="n">
-        <v>38680</v>
-      </c>
       <c r="D13" t="n">
-        <v>38680</v>
+        <v>38470</v>
       </c>
       <c r="E13" t="n">
-        <v>38470</v>
+        <v>38460</v>
       </c>
       <c r="F13" t="n">
-        <v>43.9256</v>
+        <v>31.7317</v>
       </c>
       <c r="G13" t="n">
-        <v>37865.16666666666</v>
+        <v>37853.33333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38670</v>
+        <v>38470</v>
       </c>
       <c r="C14" t="n">
-        <v>38690</v>
+        <v>38680</v>
       </c>
       <c r="D14" t="n">
-        <v>38690</v>
+        <v>38680</v>
       </c>
       <c r="E14" t="n">
-        <v>38670</v>
+        <v>38470</v>
       </c>
       <c r="F14" t="n">
-        <v>3.3189</v>
+        <v>43.9256</v>
       </c>
       <c r="G14" t="n">
-        <v>37886</v>
+        <v>37865.16666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38730</v>
+        <v>38670</v>
       </c>
       <c r="C15" t="n">
-        <v>38920</v>
+        <v>38690</v>
       </c>
       <c r="D15" t="n">
-        <v>38920</v>
+        <v>38690</v>
       </c>
       <c r="E15" t="n">
-        <v>38730</v>
+        <v>38670</v>
       </c>
       <c r="F15" t="n">
-        <v>3.75624845</v>
+        <v>3.3189</v>
       </c>
       <c r="G15" t="n">
-        <v>37911</v>
+        <v>37886</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38930</v>
+        <v>38730</v>
       </c>
       <c r="C16" t="n">
-        <v>39500</v>
+        <v>38920</v>
       </c>
       <c r="D16" t="n">
-        <v>39500</v>
+        <v>38920</v>
       </c>
       <c r="E16" t="n">
-        <v>38930</v>
+        <v>38730</v>
       </c>
       <c r="F16" t="n">
-        <v>69.06189999999999</v>
+        <v>3.75624845</v>
       </c>
       <c r="G16" t="n">
-        <v>37946</v>
+        <v>37911</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39090</v>
+        <v>38930</v>
       </c>
       <c r="C17" t="n">
-        <v>39240</v>
+        <v>39500</v>
       </c>
       <c r="D17" t="n">
         <v>39500</v>
       </c>
       <c r="E17" t="n">
-        <v>38520</v>
+        <v>38930</v>
       </c>
       <c r="F17" t="n">
-        <v>34.9852</v>
+        <v>69.06189999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>37971</v>
+        <v>37946</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,28 +993,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39050</v>
+        <v>39090</v>
       </c>
       <c r="C18" t="n">
-        <v>39040</v>
+        <v>39240</v>
       </c>
       <c r="D18" t="n">
-        <v>39050</v>
+        <v>39500</v>
       </c>
       <c r="E18" t="n">
-        <v>39040</v>
+        <v>38520</v>
       </c>
       <c r="F18" t="n">
-        <v>4.2231</v>
+        <v>34.9852</v>
       </c>
       <c r="G18" t="n">
-        <v>37986</v>
+        <v>37971</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1028,28 +1028,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39220</v>
+        <v>39050</v>
       </c>
       <c r="C19" t="n">
-        <v>39220</v>
+        <v>39040</v>
       </c>
       <c r="D19" t="n">
-        <v>39220</v>
+        <v>39050</v>
       </c>
       <c r="E19" t="n">
-        <v>39220</v>
+        <v>39040</v>
       </c>
       <c r="F19" t="n">
-        <v>3.323</v>
+        <v>4.2231</v>
       </c>
       <c r="G19" t="n">
-        <v>38009.33333333334</v>
+        <v>37986</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>38570</v>
+        <v>39220</v>
       </c>
       <c r="C20" t="n">
-        <v>38570</v>
+        <v>39220</v>
       </c>
       <c r="D20" t="n">
-        <v>38570</v>
+        <v>39220</v>
       </c>
       <c r="E20" t="n">
-        <v>38570</v>
+        <v>39220</v>
       </c>
       <c r="F20" t="n">
-        <v>3.7563</v>
+        <v>3.323</v>
       </c>
       <c r="G20" t="n">
-        <v>38032.16666666666</v>
+        <v>38009.33333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38890</v>
+        <v>38570</v>
       </c>
       <c r="C21" t="n">
-        <v>38700</v>
+        <v>38570</v>
       </c>
       <c r="D21" t="n">
-        <v>38890</v>
+        <v>38570</v>
       </c>
       <c r="E21" t="n">
-        <v>38700</v>
+        <v>38570</v>
       </c>
       <c r="F21" t="n">
-        <v>3.323</v>
+        <v>3.7563</v>
       </c>
       <c r="G21" t="n">
-        <v>38057</v>
+        <v>38032.16666666666</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38630</v>
+        <v>38890</v>
       </c>
       <c r="C22" t="n">
-        <v>38800</v>
+        <v>38700</v>
       </c>
       <c r="D22" t="n">
-        <v>38800</v>
+        <v>38890</v>
       </c>
       <c r="E22" t="n">
-        <v>38630</v>
+        <v>38700</v>
       </c>
       <c r="F22" t="n">
-        <v>15.5</v>
+        <v>3.323</v>
       </c>
       <c r="G22" t="n">
-        <v>38078.33333333334</v>
+        <v>38057</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38900</v>
+        <v>38630</v>
       </c>
       <c r="C23" t="n">
-        <v>38930</v>
+        <v>38800</v>
       </c>
       <c r="D23" t="n">
-        <v>38930</v>
+        <v>38800</v>
       </c>
       <c r="E23" t="n">
-        <v>38900</v>
+        <v>38630</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="G23" t="n">
-        <v>38106.83333333334</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38550</v>
+        <v>38900</v>
       </c>
       <c r="C24" t="n">
-        <v>38550</v>
+        <v>38930</v>
       </c>
       <c r="D24" t="n">
-        <v>38550</v>
+        <v>38930</v>
       </c>
       <c r="E24" t="n">
-        <v>38550</v>
+        <v>38900</v>
       </c>
       <c r="F24" t="n">
-        <v>1.3471</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>38126.83333333334</v>
+        <v>38106.83333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>38550</v>
       </c>
       <c r="F25" t="n">
-        <v>2.4189</v>
+        <v>1.3471</v>
       </c>
       <c r="G25" t="n">
-        <v>38146.83333333334</v>
+        <v>38126.83333333334</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>38550</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0234</v>
+        <v>2.4189</v>
       </c>
       <c r="G26" t="n">
-        <v>38158</v>
+        <v>38146.83333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38520</v>
+        <v>38550</v>
       </c>
       <c r="C27" t="n">
-        <v>38510</v>
+        <v>38550</v>
       </c>
       <c r="D27" t="n">
-        <v>38520</v>
+        <v>38550</v>
       </c>
       <c r="E27" t="n">
-        <v>38510</v>
+        <v>38550</v>
       </c>
       <c r="F27" t="n">
-        <v>69.425</v>
+        <v>0.0234</v>
       </c>
       <c r="G27" t="n">
-        <v>38163.83333333334</v>
+        <v>38158</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38610</v>
+        <v>38520</v>
       </c>
       <c r="C28" t="n">
-        <v>38610</v>
+        <v>38510</v>
       </c>
       <c r="D28" t="n">
-        <v>38610</v>
+        <v>38520</v>
       </c>
       <c r="E28" t="n">
-        <v>38610</v>
+        <v>38510</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7473</v>
+        <v>69.425</v>
       </c>
       <c r="G28" t="n">
-        <v>38171.33333333334</v>
+        <v>38163.83333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,31 +1378,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38630</v>
+        <v>38610</v>
       </c>
       <c r="C29" t="n">
-        <v>38630</v>
+        <v>38610</v>
       </c>
       <c r="D29" t="n">
-        <v>38630</v>
+        <v>38610</v>
       </c>
       <c r="E29" t="n">
-        <v>38630</v>
+        <v>38610</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8837</v>
+        <v>0.7473</v>
       </c>
       <c r="G29" t="n">
-        <v>38183.5</v>
+        <v>38171.33333333334</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>38510</v>
+      </c>
+      <c r="K29" t="n">
+        <v>38510</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1413,32 +1417,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38820</v>
+        <v>38630</v>
       </c>
       <c r="C30" t="n">
-        <v>38830</v>
+        <v>38630</v>
       </c>
       <c r="D30" t="n">
-        <v>38830</v>
+        <v>38630</v>
       </c>
       <c r="E30" t="n">
-        <v>38820</v>
+        <v>38630</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7976</v>
+        <v>0.8837</v>
       </c>
       <c r="G30" t="n">
-        <v>38203</v>
+        <v>38183.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>38610</v>
+      </c>
+      <c r="K30" t="n">
+        <v>38510</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38830</v>
+        <v>38820</v>
       </c>
       <c r="C31" t="n">
         <v>38830</v>
@@ -1457,13 +1469,13 @@
         <v>38830</v>
       </c>
       <c r="E31" t="n">
-        <v>38830</v>
+        <v>38820</v>
       </c>
       <c r="F31" t="n">
-        <v>5</v>
+        <v>0.7976</v>
       </c>
       <c r="G31" t="n">
-        <v>38221.83333333334</v>
+        <v>38203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,8 +1484,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>38510</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39290</v>
+        <v>38830</v>
       </c>
       <c r="C32" t="n">
-        <v>39290</v>
+        <v>38830</v>
       </c>
       <c r="D32" t="n">
-        <v>39290</v>
+        <v>38830</v>
       </c>
       <c r="E32" t="n">
-        <v>39290</v>
+        <v>38830</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>38248.33333333334</v>
+        <v>38221.83333333334</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38710</v>
+        <v>39290</v>
       </c>
       <c r="C33" t="n">
-        <v>38710</v>
+        <v>39290</v>
       </c>
       <c r="D33" t="n">
-        <v>38710</v>
+        <v>39290</v>
       </c>
       <c r="E33" t="n">
-        <v>38710</v>
+        <v>39290</v>
       </c>
       <c r="F33" t="n">
-        <v>0.286</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>38263</v>
+        <v>38248.33333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1571,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38510</v>
+        <v>38710</v>
       </c>
       <c r="C34" t="n">
-        <v>38410</v>
+        <v>38710</v>
       </c>
       <c r="D34" t="n">
-        <v>38510</v>
+        <v>38710</v>
       </c>
       <c r="E34" t="n">
-        <v>38410</v>
+        <v>38710</v>
       </c>
       <c r="F34" t="n">
-        <v>8.392899999999999</v>
+        <v>0.286</v>
       </c>
       <c r="G34" t="n">
-        <v>38272.66666666666</v>
+        <v>38263</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1606,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38470</v>
+        <v>38510</v>
       </c>
       <c r="C35" t="n">
-        <v>38470</v>
+        <v>38410</v>
       </c>
       <c r="D35" t="n">
-        <v>38470</v>
+        <v>38510</v>
       </c>
       <c r="E35" t="n">
-        <v>38470</v>
+        <v>38410</v>
       </c>
       <c r="F35" t="n">
-        <v>4.4598</v>
+        <v>8.392899999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>38285.33333333334</v>
+        <v>38272.66666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1653,10 @@
         <v>38470</v>
       </c>
       <c r="F36" t="n">
-        <v>5.5402</v>
+        <v>4.4598</v>
       </c>
       <c r="G36" t="n">
-        <v>38298.16666666666</v>
+        <v>38285.33333333334</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1676,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38400</v>
+        <v>38470</v>
       </c>
       <c r="C37" t="n">
-        <v>38400</v>
+        <v>38470</v>
       </c>
       <c r="D37" t="n">
-        <v>38400</v>
+        <v>38470</v>
       </c>
       <c r="E37" t="n">
-        <v>38400</v>
+        <v>38470</v>
       </c>
       <c r="F37" t="n">
-        <v>16.9852</v>
+        <v>5.5402</v>
       </c>
       <c r="G37" t="n">
-        <v>38319.83333333334</v>
+        <v>38298.16666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1711,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38310</v>
+        <v>38400</v>
       </c>
       <c r="C38" t="n">
-        <v>38310</v>
+        <v>38400</v>
       </c>
       <c r="D38" t="n">
-        <v>38310</v>
+        <v>38400</v>
       </c>
       <c r="E38" t="n">
-        <v>38310</v>
+        <v>38400</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1211</v>
+        <v>16.9852</v>
       </c>
       <c r="G38" t="n">
-        <v>38328</v>
+        <v>38319.83333333334</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>38320</v>
+        <v>38310</v>
       </c>
       <c r="C39" t="n">
         <v>38310</v>
       </c>
       <c r="D39" t="n">
-        <v>38320</v>
+        <v>38310</v>
       </c>
       <c r="E39" t="n">
         <v>38310</v>
       </c>
       <c r="F39" t="n">
-        <v>1.591</v>
+        <v>0.1211</v>
       </c>
       <c r="G39" t="n">
-        <v>38334.33333333334</v>
+        <v>38328</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38380</v>
+        <v>38320</v>
       </c>
       <c r="C40" t="n">
-        <v>38380</v>
+        <v>38310</v>
       </c>
       <c r="D40" t="n">
-        <v>38380</v>
+        <v>38320</v>
       </c>
       <c r="E40" t="n">
-        <v>38380</v>
+        <v>38310</v>
       </c>
       <c r="F40" t="n">
-        <v>4.3122</v>
+        <v>1.591</v>
       </c>
       <c r="G40" t="n">
-        <v>38345.66666666666</v>
+        <v>38334.33333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1828,10 @@
         <v>38380</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7381</v>
+        <v>4.3122</v>
       </c>
       <c r="G41" t="n">
-        <v>38357</v>
+        <v>38345.66666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1836,28 +1854,32 @@
         <v>38380</v>
       </c>
       <c r="C42" t="n">
-        <v>38410</v>
+        <v>38380</v>
       </c>
       <c r="D42" t="n">
-        <v>38410</v>
+        <v>38380</v>
       </c>
       <c r="E42" t="n">
         <v>38380</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3397</v>
+        <v>0.7381</v>
       </c>
       <c r="G42" t="n">
-        <v>38371.33333333334</v>
+        <v>38357</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>38380</v>
+      </c>
+      <c r="K42" t="n">
+        <v>38380</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
@@ -1868,7 +1890,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>38410</v>
+        <v>38380</v>
       </c>
       <c r="C43" t="n">
         <v>38410</v>
@@ -1877,23 +1899,31 @@
         <v>38410</v>
       </c>
       <c r="E43" t="n">
-        <v>38410</v>
+        <v>38380</v>
       </c>
       <c r="F43" t="n">
-        <v>2.4051</v>
+        <v>0.3397</v>
       </c>
       <c r="G43" t="n">
-        <v>38385.66666666666</v>
+        <v>38371.33333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>38380</v>
+      </c>
+      <c r="K43" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +1945,10 @@
         <v>38410</v>
       </c>
       <c r="F44" t="n">
-        <v>2.6656</v>
+        <v>2.4051</v>
       </c>
       <c r="G44" t="n">
-        <v>38398.66666666666</v>
+        <v>38385.66666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,8 +1957,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1950,10 +1986,10 @@
         <v>38410</v>
       </c>
       <c r="F45" t="n">
-        <v>21.7711</v>
+        <v>2.6656</v>
       </c>
       <c r="G45" t="n">
-        <v>38409.33333333334</v>
+        <v>38398.66666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,8 +1998,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2027,10 @@
         <v>38410</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5789</v>
+        <v>21.7711</v>
       </c>
       <c r="G46" t="n">
-        <v>38419.16666666666</v>
+        <v>38409.33333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,8 +2039,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2068,10 @@
         <v>38410</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0165</v>
+        <v>0.5789</v>
       </c>
       <c r="G47" t="n">
-        <v>38427.33333333334</v>
+        <v>38419.16666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,8 +2080,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2097,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>38500</v>
+        <v>38410</v>
       </c>
       <c r="C48" t="n">
-        <v>38500</v>
+        <v>38410</v>
       </c>
       <c r="D48" t="n">
-        <v>38500</v>
+        <v>38410</v>
       </c>
       <c r="E48" t="n">
-        <v>38500</v>
+        <v>38410</v>
       </c>
       <c r="F48" t="n">
-        <v>0.03</v>
+        <v>0.0165</v>
       </c>
       <c r="G48" t="n">
-        <v>38442.16666666666</v>
+        <v>38427.33333333334</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,8 +2121,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2138,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>38280</v>
+        <v>38500</v>
       </c>
       <c r="C49" t="n">
-        <v>38280</v>
+        <v>38500</v>
       </c>
       <c r="D49" t="n">
-        <v>38280</v>
+        <v>38500</v>
       </c>
       <c r="E49" t="n">
-        <v>38280</v>
+        <v>38500</v>
       </c>
       <c r="F49" t="n">
-        <v>5</v>
+        <v>0.03</v>
       </c>
       <c r="G49" t="n">
-        <v>38453.33333333334</v>
+        <v>38442.16666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,8 +2162,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2179,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38100</v>
+        <v>38280</v>
       </c>
       <c r="C50" t="n">
-        <v>38100</v>
+        <v>38280</v>
       </c>
       <c r="D50" t="n">
-        <v>38100</v>
+        <v>38280</v>
       </c>
       <c r="E50" t="n">
-        <v>38100</v>
+        <v>38280</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2725</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>38461.5</v>
+        <v>38453.33333333334</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,8 +2203,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2220,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="C51" t="n">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="D51" t="n">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="E51" t="n">
-        <v>37900</v>
+        <v>38100</v>
       </c>
       <c r="F51" t="n">
-        <v>2.473</v>
+        <v>0.2725</v>
       </c>
       <c r="G51" t="n">
-        <v>38466.33333333334</v>
+        <v>38461.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,8 +2244,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2261,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>37940</v>
+        <v>37900</v>
       </c>
       <c r="C52" t="n">
-        <v>37940</v>
+        <v>37900</v>
       </c>
       <c r="D52" t="n">
-        <v>37940</v>
+        <v>37900</v>
       </c>
       <c r="E52" t="n">
-        <v>37940</v>
+        <v>37900</v>
       </c>
       <c r="F52" t="n">
-        <v>0.85</v>
+        <v>2.473</v>
       </c>
       <c r="G52" t="n">
-        <v>38467.5</v>
+        <v>38466.33333333334</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2302,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>37710</v>
+        <v>37940</v>
       </c>
       <c r="C53" t="n">
-        <v>37710</v>
+        <v>37940</v>
       </c>
       <c r="D53" t="n">
-        <v>37710</v>
+        <v>37940</v>
       </c>
       <c r="E53" t="n">
-        <v>37710</v>
+        <v>37940</v>
       </c>
       <c r="F53" t="n">
-        <v>2.663</v>
+        <v>0.85</v>
       </c>
       <c r="G53" t="n">
-        <v>38464.66666666666</v>
+        <v>38467.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2343,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>37790</v>
+        <v>37710</v>
       </c>
       <c r="C54" t="n">
-        <v>37790</v>
+        <v>37710</v>
       </c>
       <c r="D54" t="n">
-        <v>37790</v>
+        <v>37710</v>
       </c>
       <c r="E54" t="n">
-        <v>37790</v>
+        <v>37710</v>
       </c>
       <c r="F54" t="n">
-        <v>13.1443</v>
+        <v>2.663</v>
       </c>
       <c r="G54" t="n">
-        <v>38459</v>
+        <v>38464.66666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2384,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>37810</v>
+        <v>37790</v>
       </c>
       <c r="C55" t="n">
-        <v>37810</v>
+        <v>37790</v>
       </c>
       <c r="D55" t="n">
-        <v>37810</v>
+        <v>37790</v>
       </c>
       <c r="E55" t="n">
-        <v>37810</v>
+        <v>37790</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2511</v>
+        <v>13.1443</v>
       </c>
       <c r="G55" t="n">
-        <v>38453.16666666666</v>
+        <v>38459</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2408,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,36 +2425,38 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>37820</v>
+        <v>37810</v>
       </c>
       <c r="C56" t="n">
-        <v>37830</v>
+        <v>37810</v>
       </c>
       <c r="D56" t="n">
-        <v>37830</v>
+        <v>37810</v>
       </c>
       <c r="E56" t="n">
-        <v>37820</v>
+        <v>37810</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5415</v>
+        <v>0.2511</v>
       </c>
       <c r="G56" t="n">
-        <v>38447.5</v>
+        <v>38453.16666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>37810</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>37810</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
+        <v>38380</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2362,38 +2466,36 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>37840</v>
+        <v>37820</v>
       </c>
       <c r="C57" t="n">
-        <v>37840</v>
+        <v>37830</v>
       </c>
       <c r="D57" t="n">
-        <v>37840</v>
+        <v>37830</v>
       </c>
       <c r="E57" t="n">
-        <v>37840</v>
+        <v>37820</v>
       </c>
       <c r="F57" t="n">
-        <v>0.106</v>
+        <v>0.5415</v>
       </c>
       <c r="G57" t="n">
-        <v>38438.33333333334</v>
+        <v>38447.5</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>37830</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>37810</v>
+        <v>38380</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
@@ -2405,38 +2507,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>37850</v>
+        <v>37840</v>
       </c>
       <c r="C58" t="n">
-        <v>37850</v>
+        <v>37840</v>
       </c>
       <c r="D58" t="n">
-        <v>37850</v>
+        <v>37840</v>
       </c>
       <c r="E58" t="n">
-        <v>37850</v>
+        <v>37840</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2725</v>
+        <v>0.106</v>
       </c>
       <c r="G58" t="n">
-        <v>38422.83333333334</v>
+        <v>38438.33333333334</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>37840</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>37810</v>
+        <v>38380</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
@@ -2448,36 +2548,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38490</v>
+        <v>37850</v>
       </c>
       <c r="C59" t="n">
-        <v>38490</v>
+        <v>37850</v>
       </c>
       <c r="D59" t="n">
-        <v>38500</v>
+        <v>37850</v>
       </c>
       <c r="E59" t="n">
-        <v>38490</v>
+        <v>37850</v>
       </c>
       <c r="F59" t="n">
-        <v>3.1818</v>
+        <v>0.2725</v>
       </c>
       <c r="G59" t="n">
-        <v>38421.66666666666</v>
+        <v>38422.83333333334</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>37850</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>37850</v>
-      </c>
-      <c r="L59" t="inlineStr"/>
+        <v>38380</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2490,7 +2592,7 @@
         <v>38490</v>
       </c>
       <c r="C60" t="n">
-        <v>38500</v>
+        <v>38490</v>
       </c>
       <c r="D60" t="n">
         <v>38500</v>
@@ -2499,26 +2601,24 @@
         <v>38490</v>
       </c>
       <c r="F60" t="n">
-        <v>22.4493</v>
+        <v>3.1818</v>
       </c>
       <c r="G60" t="n">
-        <v>38427.33333333334</v>
+        <v>38421.66666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>38490</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>37850</v>
+        <v>38380</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2530,22 +2630,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38600</v>
+        <v>38490</v>
       </c>
       <c r="C61" t="n">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="D61" t="n">
-        <v>38600</v>
+        <v>38500</v>
       </c>
       <c r="E61" t="n">
-        <v>38600</v>
+        <v>38490</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8264</v>
+        <v>22.4493</v>
       </c>
       <c r="G61" t="n">
-        <v>38435.16666666666</v>
+        <v>38427.33333333334</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2555,11 +2655,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>37850</v>
+        <v>38380</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2571,22 +2671,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>38330</v>
+        <v>38600</v>
       </c>
       <c r="C62" t="n">
-        <v>38330</v>
+        <v>38600</v>
       </c>
       <c r="D62" t="n">
-        <v>38330</v>
+        <v>38600</v>
       </c>
       <c r="E62" t="n">
-        <v>38330</v>
+        <v>38600</v>
       </c>
       <c r="F62" t="n">
-        <v>3.1506</v>
+        <v>0.8264</v>
       </c>
       <c r="G62" t="n">
-        <v>38438.5</v>
+        <v>38435.16666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2595,8 +2695,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2606,36 +2712,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38240</v>
+        <v>38330</v>
       </c>
       <c r="C63" t="n">
-        <v>38230</v>
+        <v>38330</v>
       </c>
       <c r="D63" t="n">
-        <v>38240</v>
+        <v>38330</v>
       </c>
       <c r="E63" t="n">
-        <v>38230</v>
+        <v>38330</v>
       </c>
       <c r="F63" t="n">
-        <v>2.5519</v>
+        <v>3.1506</v>
       </c>
       <c r="G63" t="n">
-        <v>38440.16666666666</v>
+        <v>38438.5</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>38330</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>38380</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2647,33 +2753,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>38580</v>
+        <v>38240</v>
       </c>
       <c r="C64" t="n">
-        <v>38580</v>
+        <v>38230</v>
       </c>
       <c r="D64" t="n">
-        <v>38580</v>
+        <v>38240</v>
       </c>
       <c r="E64" t="n">
-        <v>38580</v>
+        <v>38230</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>2.5519</v>
       </c>
       <c r="G64" t="n">
-        <v>38447.66666666666</v>
+        <v>38440.16666666666</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>38230</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>38380</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2700,10 +2806,10 @@
         <v>38580</v>
       </c>
       <c r="F65" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>38461.83333333334</v>
+        <v>38447.66666666666</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2712,7 +2818,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>38380</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2727,22 +2835,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>38600</v>
+        <v>38580</v>
       </c>
       <c r="C66" t="n">
-        <v>38600</v>
+        <v>38580</v>
       </c>
       <c r="D66" t="n">
-        <v>38600</v>
+        <v>38580</v>
       </c>
       <c r="E66" t="n">
-        <v>38600</v>
+        <v>38580</v>
       </c>
       <c r="F66" t="n">
-        <v>2.8591</v>
+        <v>8</v>
       </c>
       <c r="G66" t="n">
-        <v>38474.83333333334</v>
+        <v>38461.83333333334</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2751,7 +2859,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>38380</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2766,22 +2876,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38740</v>
+        <v>38600</v>
       </c>
       <c r="C67" t="n">
-        <v>38740</v>
+        <v>38600</v>
       </c>
       <c r="D67" t="n">
-        <v>38740</v>
+        <v>38600</v>
       </c>
       <c r="E67" t="n">
-        <v>38740</v>
+        <v>38600</v>
       </c>
       <c r="F67" t="n">
-        <v>7.1681</v>
+        <v>2.8591</v>
       </c>
       <c r="G67" t="n">
-        <v>38482.66666666666</v>
+        <v>38474.83333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2790,7 +2900,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>38380</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2817,10 +2929,10 @@
         <v>38740</v>
       </c>
       <c r="F68" t="n">
-        <v>41.6164</v>
+        <v>7.1681</v>
       </c>
       <c r="G68" t="n">
-        <v>38490.33333333334</v>
+        <v>38482.66666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2829,7 +2941,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>38380</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2856,10 +2970,10 @@
         <v>38740</v>
       </c>
       <c r="F69" t="n">
-        <v>8.3849</v>
+        <v>41.6164</v>
       </c>
       <c r="G69" t="n">
-        <v>38497.83333333334</v>
+        <v>38490.33333333334</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2868,7 +2982,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>38380</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,10 +3011,10 @@
         <v>38740</v>
       </c>
       <c r="F70" t="n">
-        <v>1.1212</v>
+        <v>8.3849</v>
       </c>
       <c r="G70" t="n">
-        <v>38504.66666666666</v>
+        <v>38497.83333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2907,7 +3023,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>38380</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2922,22 +3040,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>38750</v>
+        <v>38740</v>
       </c>
       <c r="C71" t="n">
-        <v>38750</v>
+        <v>38740</v>
       </c>
       <c r="D71" t="n">
-        <v>38750</v>
+        <v>38740</v>
       </c>
       <c r="E71" t="n">
-        <v>38750</v>
+        <v>38740</v>
       </c>
       <c r="F71" t="n">
-        <v>1.7</v>
+        <v>1.1212</v>
       </c>
       <c r="G71" t="n">
-        <v>38509.66666666666</v>
+        <v>38504.66666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2946,7 +3064,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>38380</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2961,22 +3081,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>38770</v>
+        <v>38750</v>
       </c>
       <c r="C72" t="n">
-        <v>38770</v>
+        <v>38750</v>
       </c>
       <c r="D72" t="n">
-        <v>38770</v>
+        <v>38750</v>
       </c>
       <c r="E72" t="n">
-        <v>38770</v>
+        <v>38750</v>
       </c>
       <c r="F72" t="n">
-        <v>12.04</v>
+        <v>1.7</v>
       </c>
       <c r="G72" t="n">
-        <v>38514.66666666666</v>
+        <v>38509.66666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2985,7 +3105,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>38380</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3003,19 +3125,19 @@
         <v>38770</v>
       </c>
       <c r="C73" t="n">
-        <v>39000</v>
+        <v>38770</v>
       </c>
       <c r="D73" t="n">
-        <v>39000</v>
+        <v>38770</v>
       </c>
       <c r="E73" t="n">
         <v>38770</v>
       </c>
       <c r="F73" t="n">
-        <v>12.1</v>
+        <v>12.04</v>
       </c>
       <c r="G73" t="n">
-        <v>38520</v>
+        <v>38514.66666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3024,7 +3146,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>38380</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3039,7 +3163,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39000</v>
+        <v>38770</v>
       </c>
       <c r="C74" t="n">
         <v>39000</v>
@@ -3048,13 +3172,13 @@
         <v>39000</v>
       </c>
       <c r="E74" t="n">
-        <v>39000</v>
+        <v>38770</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1</v>
+        <v>12.1</v>
       </c>
       <c r="G74" t="n">
-        <v>38525.16666666666</v>
+        <v>38520</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3063,7 +3187,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>38380</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3090,10 +3216,10 @@
         <v>39000</v>
       </c>
       <c r="F75" t="n">
-        <v>70.2805</v>
+        <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>38526.5</v>
+        <v>38525.16666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,7 +3228,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>38380</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3117,22 +3245,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39060</v>
+        <v>39000</v>
       </c>
       <c r="C76" t="n">
-        <v>39060</v>
+        <v>39000</v>
       </c>
       <c r="D76" t="n">
-        <v>39060</v>
+        <v>39000</v>
       </c>
       <c r="E76" t="n">
-        <v>39060</v>
+        <v>39000</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1</v>
+        <v>70.2805</v>
       </c>
       <c r="G76" t="n">
-        <v>38519.16666666666</v>
+        <v>38526.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3141,7 +3269,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>38380</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,22 +3286,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>38780</v>
+        <v>39060</v>
       </c>
       <c r="C77" t="n">
-        <v>38580</v>
+        <v>39060</v>
       </c>
       <c r="D77" t="n">
-        <v>38780</v>
+        <v>39060</v>
       </c>
       <c r="E77" t="n">
-        <v>38580</v>
+        <v>39060</v>
       </c>
       <c r="F77" t="n">
-        <v>4.8822</v>
+        <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>38508.16666666666</v>
+        <v>38519.16666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3180,7 +3310,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>38380</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,22 +3327,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>38370</v>
+        <v>38780</v>
       </c>
       <c r="C78" t="n">
-        <v>38370</v>
+        <v>38580</v>
       </c>
       <c r="D78" t="n">
-        <v>38370</v>
+        <v>38780</v>
       </c>
       <c r="E78" t="n">
-        <v>38370</v>
+        <v>38580</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6205000000000001</v>
+        <v>4.8822</v>
       </c>
       <c r="G78" t="n">
-        <v>38497</v>
+        <v>38508.16666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3219,7 +3351,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>38380</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,22 +3368,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38260</v>
+        <v>38370</v>
       </c>
       <c r="C79" t="n">
-        <v>38250</v>
+        <v>38370</v>
       </c>
       <c r="D79" t="n">
-        <v>38260</v>
+        <v>38370</v>
       </c>
       <c r="E79" t="n">
-        <v>38250</v>
+        <v>38370</v>
       </c>
       <c r="F79" t="n">
-        <v>1.9906</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>38480.83333333334</v>
+        <v>38497</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3258,7 +3392,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>38380</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,22 +3409,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>38250</v>
+        <v>38260</v>
       </c>
       <c r="C80" t="n">
         <v>38250</v>
       </c>
       <c r="D80" t="n">
-        <v>38250</v>
+        <v>38260</v>
       </c>
       <c r="E80" t="n">
         <v>38250</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1103</v>
+        <v>1.9906</v>
       </c>
       <c r="G80" t="n">
-        <v>38475.5</v>
+        <v>38480.83333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3297,7 +3433,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>38380</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3324,10 +3462,10 @@
         <v>38250</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0223</v>
+        <v>0.1103</v>
       </c>
       <c r="G81" t="n">
-        <v>38468</v>
+        <v>38475.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3336,7 +3474,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>38380</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,22 +3491,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>38060</v>
+        <v>38250</v>
       </c>
       <c r="C82" t="n">
-        <v>38050</v>
+        <v>38250</v>
       </c>
       <c r="D82" t="n">
-        <v>38060</v>
+        <v>38250</v>
       </c>
       <c r="E82" t="n">
-        <v>38050</v>
+        <v>38250</v>
       </c>
       <c r="F82" t="n">
-        <v>2.561</v>
+        <v>0.0223</v>
       </c>
       <c r="G82" t="n">
-        <v>38455.5</v>
+        <v>38468</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3375,7 +3515,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>38380</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3390,22 +3532,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38040</v>
+        <v>38060</v>
       </c>
       <c r="C83" t="n">
-        <v>38040</v>
+        <v>38050</v>
       </c>
       <c r="D83" t="n">
-        <v>38040</v>
+        <v>38060</v>
       </c>
       <c r="E83" t="n">
-        <v>38040</v>
+        <v>38050</v>
       </c>
       <c r="F83" t="n">
-        <v>4.6122</v>
+        <v>2.561</v>
       </c>
       <c r="G83" t="n">
-        <v>38440.66666666666</v>
+        <v>38455.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3414,7 +3556,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>38380</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3429,22 +3573,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>38010</v>
+        <v>38040</v>
       </c>
       <c r="C84" t="n">
-        <v>38010</v>
+        <v>38040</v>
       </c>
       <c r="D84" t="n">
-        <v>38010</v>
+        <v>38040</v>
       </c>
       <c r="E84" t="n">
-        <v>38010</v>
+        <v>38040</v>
       </c>
       <c r="F84" t="n">
-        <v>70.2805</v>
+        <v>4.6122</v>
       </c>
       <c r="G84" t="n">
-        <v>38431.66666666666</v>
+        <v>38440.66666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3453,7 +3597,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>38380</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3468,22 +3614,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>38020</v>
+        <v>38010</v>
       </c>
       <c r="C85" t="n">
-        <v>38020</v>
+        <v>38010</v>
       </c>
       <c r="D85" t="n">
-        <v>38020</v>
+        <v>38010</v>
       </c>
       <c r="E85" t="n">
-        <v>38020</v>
+        <v>38010</v>
       </c>
       <c r="F85" t="n">
-        <v>22.2154</v>
+        <v>70.2805</v>
       </c>
       <c r="G85" t="n">
-        <v>38422.83333333334</v>
+        <v>38431.66666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3492,7 +3638,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>38380</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3507,22 +3655,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38010</v>
+        <v>38020</v>
       </c>
       <c r="C86" t="n">
-        <v>38010</v>
+        <v>38020</v>
       </c>
       <c r="D86" t="n">
-        <v>38010</v>
+        <v>38020</v>
       </c>
       <c r="E86" t="n">
-        <v>38010</v>
+        <v>38020</v>
       </c>
       <c r="F86" t="n">
-        <v>10.8684</v>
+        <v>22.2154</v>
       </c>
       <c r="G86" t="n">
-        <v>38413.83333333334</v>
+        <v>38422.83333333334</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3531,7 +3679,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>38380</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3546,22 +3696,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38080</v>
+        <v>38010</v>
       </c>
       <c r="C87" t="n">
-        <v>38080</v>
+        <v>38010</v>
       </c>
       <c r="D87" t="n">
-        <v>38080</v>
+        <v>38010</v>
       </c>
       <c r="E87" t="n">
-        <v>38080</v>
+        <v>38010</v>
       </c>
       <c r="F87" t="n">
-        <v>8.4946</v>
+        <v>10.8684</v>
       </c>
       <c r="G87" t="n">
-        <v>38406.66666666666</v>
+        <v>38413.83333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3570,7 +3720,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>38380</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3588,19 +3740,19 @@
         <v>38080</v>
       </c>
       <c r="C88" t="n">
-        <v>38020</v>
+        <v>38080</v>
       </c>
       <c r="D88" t="n">
         <v>38080</v>
       </c>
       <c r="E88" t="n">
-        <v>38020</v>
+        <v>38080</v>
       </c>
       <c r="F88" t="n">
-        <v>27.612</v>
+        <v>8.4946</v>
       </c>
       <c r="G88" t="n">
-        <v>38396.83333333334</v>
+        <v>38406.66666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3609,7 +3761,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>38380</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,22 +3778,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38010</v>
+        <v>38080</v>
       </c>
       <c r="C89" t="n">
-        <v>38010</v>
+        <v>38020</v>
       </c>
       <c r="D89" t="n">
-        <v>38010</v>
+        <v>38080</v>
       </c>
       <c r="E89" t="n">
-        <v>38010</v>
+        <v>38020</v>
       </c>
       <c r="F89" t="n">
-        <v>1.6646</v>
+        <v>27.612</v>
       </c>
       <c r="G89" t="n">
-        <v>38386.5</v>
+        <v>38396.83333333334</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3648,7 +3802,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>38380</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,19 +3822,19 @@
         <v>38010</v>
       </c>
       <c r="C90" t="n">
-        <v>38060</v>
+        <v>38010</v>
       </c>
       <c r="D90" t="n">
-        <v>38060</v>
+        <v>38010</v>
       </c>
       <c r="E90" t="n">
-        <v>37710</v>
+        <v>38010</v>
       </c>
       <c r="F90" t="n">
-        <v>206.1457</v>
+        <v>1.6646</v>
       </c>
       <c r="G90" t="n">
-        <v>38373.66666666666</v>
+        <v>38386.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3687,7 +3843,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>38380</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,22 +3860,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>38110</v>
+        <v>38010</v>
       </c>
       <c r="C91" t="n">
-        <v>38110</v>
+        <v>38060</v>
       </c>
       <c r="D91" t="n">
-        <v>38110</v>
+        <v>38060</v>
       </c>
       <c r="E91" t="n">
-        <v>38110</v>
+        <v>37710</v>
       </c>
       <c r="F91" t="n">
-        <v>5.5361</v>
+        <v>206.1457</v>
       </c>
       <c r="G91" t="n">
-        <v>38361.66666666666</v>
+        <v>38373.66666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3726,7 +3884,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>38380</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3741,22 +3901,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38250</v>
+        <v>38110</v>
       </c>
       <c r="C92" t="n">
-        <v>38250</v>
+        <v>38110</v>
       </c>
       <c r="D92" t="n">
-        <v>38250</v>
+        <v>38110</v>
       </c>
       <c r="E92" t="n">
-        <v>38250</v>
+        <v>38110</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6805</v>
+        <v>5.5361</v>
       </c>
       <c r="G92" t="n">
-        <v>38344.33333333334</v>
+        <v>38361.66666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3765,7 +3925,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>38380</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,22 +3942,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>38110</v>
+        <v>38250</v>
       </c>
       <c r="C93" t="n">
-        <v>38060</v>
+        <v>38250</v>
       </c>
       <c r="D93" t="n">
-        <v>38110</v>
+        <v>38250</v>
       </c>
       <c r="E93" t="n">
-        <v>38060</v>
+        <v>38250</v>
       </c>
       <c r="F93" t="n">
-        <v>7.6654</v>
+        <v>0.6805</v>
       </c>
       <c r="G93" t="n">
-        <v>38333.5</v>
+        <v>38344.33333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3804,7 +3966,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>38380</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3819,22 +3983,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>38050</v>
+        <v>38110</v>
       </c>
       <c r="C94" t="n">
-        <v>38050</v>
+        <v>38060</v>
       </c>
       <c r="D94" t="n">
-        <v>38050</v>
+        <v>38110</v>
       </c>
       <c r="E94" t="n">
-        <v>38050</v>
+        <v>38060</v>
       </c>
       <c r="F94" t="n">
-        <v>6.0019</v>
+        <v>7.6654</v>
       </c>
       <c r="G94" t="n">
-        <v>38327.5</v>
+        <v>38333.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3843,7 +4007,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>38380</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,10 +4036,10 @@
         <v>38050</v>
       </c>
       <c r="F95" t="n">
-        <v>1.6173</v>
+        <v>6.0019</v>
       </c>
       <c r="G95" t="n">
-        <v>38320.5</v>
+        <v>38327.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3882,7 +4048,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>38380</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,22 +4065,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>38230</v>
+        <v>38050</v>
       </c>
       <c r="C96" t="n">
-        <v>38540</v>
+        <v>38050</v>
       </c>
       <c r="D96" t="n">
-        <v>38540</v>
+        <v>38050</v>
       </c>
       <c r="E96" t="n">
-        <v>38230</v>
+        <v>38050</v>
       </c>
       <c r="F96" t="n">
-        <v>33.5</v>
+        <v>1.6173</v>
       </c>
       <c r="G96" t="n">
-        <v>38321.66666666666</v>
+        <v>38320.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3921,7 +4089,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>38380</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3936,22 +4106,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>38360</v>
+        <v>38230</v>
       </c>
       <c r="C97" t="n">
-        <v>38730</v>
+        <v>38540</v>
       </c>
       <c r="D97" t="n">
-        <v>38730</v>
+        <v>38540</v>
       </c>
       <c r="E97" t="n">
-        <v>38360</v>
+        <v>38230</v>
       </c>
       <c r="F97" t="n">
-        <v>3.5789</v>
+        <v>33.5</v>
       </c>
       <c r="G97" t="n">
-        <v>38327.16666666666</v>
+        <v>38321.66666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3960,7 +4130,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>38380</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3975,19 +4147,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>38320</v>
+        <v>38360</v>
       </c>
       <c r="C98" t="n">
-        <v>38310</v>
+        <v>38730</v>
       </c>
       <c r="D98" t="n">
-        <v>38320</v>
+        <v>38730</v>
       </c>
       <c r="E98" t="n">
-        <v>38310</v>
+        <v>38360</v>
       </c>
       <c r="F98" t="n">
-        <v>4.5538</v>
+        <v>3.5789</v>
       </c>
       <c r="G98" t="n">
         <v>38327.16666666666</v>
@@ -3999,7 +4171,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>38380</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4014,22 +4188,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>38200</v>
+        <v>38320</v>
       </c>
       <c r="C99" t="n">
-        <v>38200</v>
+        <v>38310</v>
       </c>
       <c r="D99" t="n">
-        <v>38200</v>
+        <v>38320</v>
       </c>
       <c r="E99" t="n">
-        <v>38200</v>
+        <v>38310</v>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>4.5538</v>
       </c>
       <c r="G99" t="n">
-        <v>38325.33333333334</v>
+        <v>38327.16666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4038,7 +4212,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>38380</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4053,22 +4229,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>38480</v>
+        <v>38200</v>
       </c>
       <c r="C100" t="n">
-        <v>38190</v>
+        <v>38200</v>
       </c>
       <c r="D100" t="n">
-        <v>38490</v>
+        <v>38200</v>
       </c>
       <c r="E100" t="n">
-        <v>38190</v>
+        <v>38200</v>
       </c>
       <c r="F100" t="n">
-        <v>8.451000000000001</v>
+        <v>20</v>
       </c>
       <c r="G100" t="n">
-        <v>38322.16666666666</v>
+        <v>38325.33333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4077,7 +4253,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>38380</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4092,22 +4270,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38510</v>
+        <v>38480</v>
       </c>
       <c r="C101" t="n">
-        <v>38250</v>
+        <v>38190</v>
       </c>
       <c r="D101" t="n">
-        <v>38720</v>
+        <v>38490</v>
       </c>
       <c r="E101" t="n">
-        <v>38250</v>
+        <v>38190</v>
       </c>
       <c r="F101" t="n">
-        <v>400.0205</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>38320</v>
+        <v>38322.16666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4116,7 +4294,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>38380</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4131,22 +4311,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38460</v>
+        <v>38510</v>
       </c>
       <c r="C102" t="n">
-        <v>38450</v>
+        <v>38250</v>
       </c>
       <c r="D102" t="n">
-        <v>38460</v>
+        <v>38720</v>
       </c>
       <c r="E102" t="n">
-        <v>38450</v>
+        <v>38250</v>
       </c>
       <c r="F102" t="n">
-        <v>34.0016</v>
+        <v>400.0205</v>
       </c>
       <c r="G102" t="n">
-        <v>38320.66666666666</v>
+        <v>38320</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4155,7 +4335,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>38380</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,19 +4355,19 @@
         <v>38460</v>
       </c>
       <c r="C103" t="n">
-        <v>38460</v>
+        <v>38450</v>
       </c>
       <c r="D103" t="n">
         <v>38460</v>
       </c>
       <c r="E103" t="n">
-        <v>38460</v>
+        <v>38450</v>
       </c>
       <c r="F103" t="n">
-        <v>9.459</v>
+        <v>34.0016</v>
       </c>
       <c r="G103" t="n">
-        <v>38321.5</v>
+        <v>38320.66666666666</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4194,7 +4376,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>38380</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,22 +4393,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>38710</v>
+        <v>38460</v>
       </c>
       <c r="C104" t="n">
-        <v>38710</v>
+        <v>38460</v>
       </c>
       <c r="D104" t="n">
-        <v>38710</v>
+        <v>38460</v>
       </c>
       <c r="E104" t="n">
-        <v>38710</v>
+        <v>38460</v>
       </c>
       <c r="F104" t="n">
-        <v>1.03</v>
+        <v>9.459</v>
       </c>
       <c r="G104" t="n">
-        <v>38326.5</v>
+        <v>38321.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4233,7 +4417,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>38380</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4248,22 +4434,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>38720</v>
+        <v>38710</v>
       </c>
       <c r="C105" t="n">
-        <v>38510</v>
+        <v>38710</v>
       </c>
       <c r="D105" t="n">
-        <v>38720</v>
+        <v>38710</v>
       </c>
       <c r="E105" t="n">
-        <v>38510</v>
+        <v>38710</v>
       </c>
       <c r="F105" t="n">
-        <v>28.7112</v>
+        <v>1.03</v>
       </c>
       <c r="G105" t="n">
-        <v>38328.16666666666</v>
+        <v>38326.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4272,7 +4458,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>38380</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,22 +4475,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>38520</v>
+        <v>38720</v>
       </c>
       <c r="C106" t="n">
         <v>38510</v>
       </c>
       <c r="D106" t="n">
-        <v>38520</v>
+        <v>38720</v>
       </c>
       <c r="E106" t="n">
         <v>38510</v>
       </c>
       <c r="F106" t="n">
-        <v>8.0769</v>
+        <v>28.7112</v>
       </c>
       <c r="G106" t="n">
-        <v>38329.83333333334</v>
+        <v>38328.16666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4311,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>38380</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4326,22 +4516,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38530</v>
+        <v>38520</v>
       </c>
       <c r="C107" t="n">
-        <v>38530</v>
+        <v>38510</v>
       </c>
       <c r="D107" t="n">
-        <v>38530</v>
+        <v>38520</v>
       </c>
       <c r="E107" t="n">
-        <v>38530</v>
+        <v>38510</v>
       </c>
       <c r="F107" t="n">
-        <v>6</v>
+        <v>8.0769</v>
       </c>
       <c r="G107" t="n">
-        <v>38331.83333333334</v>
+        <v>38329.83333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4350,7 +4540,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>38380</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4368,19 +4560,19 @@
         <v>38530</v>
       </c>
       <c r="C108" t="n">
-        <v>38790</v>
+        <v>38530</v>
       </c>
       <c r="D108" t="n">
-        <v>38790</v>
+        <v>38530</v>
       </c>
       <c r="E108" t="n">
         <v>38530</v>
       </c>
       <c r="F108" t="n">
-        <v>19.6999</v>
+        <v>6</v>
       </c>
       <c r="G108" t="n">
-        <v>38336.66666666666</v>
+        <v>38331.83333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4389,7 +4581,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>38380</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,22 +4598,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>39000</v>
+        <v>38530</v>
       </c>
       <c r="C109" t="n">
-        <v>39000</v>
+        <v>38790</v>
       </c>
       <c r="D109" t="n">
-        <v>39000</v>
+        <v>38790</v>
       </c>
       <c r="E109" t="n">
-        <v>39000</v>
+        <v>38530</v>
       </c>
       <c r="F109" t="n">
-        <v>2.2968</v>
+        <v>19.6999</v>
       </c>
       <c r="G109" t="n">
-        <v>38348.66666666666</v>
+        <v>38336.66666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4428,7 +4622,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>38380</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4455,10 +4651,10 @@
         <v>39000</v>
       </c>
       <c r="F110" t="n">
-        <v>8.4421</v>
+        <v>2.2968</v>
       </c>
       <c r="G110" t="n">
-        <v>38363.66666666666</v>
+        <v>38348.66666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4467,7 +4663,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>38380</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4482,22 +4680,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39080</v>
+        <v>39000</v>
       </c>
       <c r="C111" t="n">
-        <v>38830</v>
+        <v>39000</v>
       </c>
       <c r="D111" t="n">
-        <v>39080</v>
+        <v>39000</v>
       </c>
       <c r="E111" t="n">
-        <v>38830</v>
+        <v>39000</v>
       </c>
       <c r="F111" t="n">
-        <v>65.3665</v>
+        <v>8.4421</v>
       </c>
       <c r="G111" t="n">
-        <v>38379.16666666666</v>
+        <v>38363.66666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4506,7 +4704,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>38380</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,22 +4721,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38560</v>
+        <v>39080</v>
       </c>
       <c r="C112" t="n">
-        <v>38560</v>
+        <v>38830</v>
       </c>
       <c r="D112" t="n">
-        <v>38560</v>
+        <v>39080</v>
       </c>
       <c r="E112" t="n">
-        <v>38560</v>
+        <v>38830</v>
       </c>
       <c r="F112" t="n">
-        <v>21.6144</v>
+        <v>65.3665</v>
       </c>
       <c r="G112" t="n">
-        <v>38389.5</v>
+        <v>38379.16666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4545,7 +4745,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>38380</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,19 +4765,19 @@
         <v>38560</v>
       </c>
       <c r="C113" t="n">
-        <v>38530</v>
+        <v>38560</v>
       </c>
       <c r="D113" t="n">
         <v>38560</v>
       </c>
       <c r="E113" t="n">
-        <v>38510</v>
+        <v>38560</v>
       </c>
       <c r="F113" t="n">
-        <v>8.8058</v>
+        <v>21.6144</v>
       </c>
       <c r="G113" t="n">
-        <v>38403.16666666666</v>
+        <v>38389.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4584,7 +4786,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>38380</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,22 +4803,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38520</v>
+        <v>38560</v>
       </c>
       <c r="C114" t="n">
-        <v>38790</v>
+        <v>38530</v>
       </c>
       <c r="D114" t="n">
-        <v>38790</v>
+        <v>38560</v>
       </c>
       <c r="E114" t="n">
-        <v>38500</v>
+        <v>38510</v>
       </c>
       <c r="F114" t="n">
-        <v>36.6405</v>
+        <v>8.8058</v>
       </c>
       <c r="G114" t="n">
-        <v>38419.83333333334</v>
+        <v>38403.16666666666</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4623,7 +4827,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>38380</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,22 +4844,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>38600</v>
+        <v>38520</v>
       </c>
       <c r="C115" t="n">
-        <v>38510</v>
+        <v>38790</v>
       </c>
       <c r="D115" t="n">
-        <v>38600</v>
+        <v>38790</v>
       </c>
       <c r="E115" t="n">
-        <v>38510</v>
+        <v>38500</v>
       </c>
       <c r="F115" t="n">
-        <v>11.4326</v>
+        <v>36.6405</v>
       </c>
       <c r="G115" t="n">
-        <v>38431.5</v>
+        <v>38419.83333333334</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4662,7 +4868,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>38380</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4677,22 +4885,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>38600</v>
+      </c>
+      <c r="C116" t="n">
         <v>38510</v>
       </c>
-      <c r="C116" t="n">
-        <v>38300</v>
-      </c>
       <c r="D116" t="n">
+        <v>38600</v>
+      </c>
+      <c r="E116" t="n">
         <v>38510</v>
       </c>
-      <c r="E116" t="n">
-        <v>38300</v>
-      </c>
       <c r="F116" t="n">
-        <v>10.7768</v>
+        <v>11.4326</v>
       </c>
       <c r="G116" t="n">
-        <v>38439.33333333334</v>
+        <v>38431.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4701,7 +4909,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>38380</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4716,22 +4926,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38330</v>
+        <v>38510</v>
       </c>
       <c r="C117" t="n">
-        <v>38290</v>
+        <v>38300</v>
       </c>
       <c r="D117" t="n">
-        <v>38330</v>
+        <v>38510</v>
       </c>
       <c r="E117" t="n">
-        <v>38290</v>
+        <v>38300</v>
       </c>
       <c r="F117" t="n">
-        <v>51.0359</v>
+        <v>10.7768</v>
       </c>
       <c r="G117" t="n">
-        <v>38446.83333333334</v>
+        <v>38439.33333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4740,7 +4950,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>38380</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,22 +4967,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>38240</v>
+        <v>38330</v>
       </c>
       <c r="C118" t="n">
-        <v>38230</v>
+        <v>38290</v>
       </c>
       <c r="D118" t="n">
-        <v>38240</v>
+        <v>38330</v>
       </c>
       <c r="E118" t="n">
-        <v>38230</v>
+        <v>38290</v>
       </c>
       <c r="F118" t="n">
-        <v>21.5193</v>
+        <v>51.0359</v>
       </c>
       <c r="G118" t="n">
-        <v>38453.16666666666</v>
+        <v>38446.83333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4779,7 +4991,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>38380</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,22 +5008,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38330</v>
+        <v>38240</v>
       </c>
       <c r="C119" t="n">
-        <v>38280</v>
+        <v>38230</v>
       </c>
       <c r="D119" t="n">
-        <v>38330</v>
+        <v>38240</v>
       </c>
       <c r="E119" t="n">
-        <v>38280</v>
+        <v>38230</v>
       </c>
       <c r="F119" t="n">
-        <v>6.5536</v>
+        <v>21.5193</v>
       </c>
       <c r="G119" t="n">
-        <v>38449.66666666666</v>
+        <v>38453.16666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4818,7 +5032,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>38380</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4833,22 +5049,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>38570</v>
+        <v>38330</v>
       </c>
       <c r="C120" t="n">
-        <v>38590</v>
+        <v>38280</v>
       </c>
       <c r="D120" t="n">
-        <v>38590</v>
+        <v>38330</v>
       </c>
       <c r="E120" t="n">
-        <v>38570</v>
+        <v>38280</v>
       </c>
       <c r="F120" t="n">
-        <v>11.9188</v>
+        <v>6.5536</v>
       </c>
       <c r="G120" t="n">
-        <v>38451.16666666666</v>
+        <v>38449.66666666666</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4857,7 +5073,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>38380</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4872,22 +5090,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>38420</v>
+        <v>38570</v>
       </c>
       <c r="C121" t="n">
-        <v>38420</v>
+        <v>38590</v>
       </c>
       <c r="D121" t="n">
-        <v>38420</v>
+        <v>38590</v>
       </c>
       <c r="E121" t="n">
-        <v>38410</v>
+        <v>38570</v>
       </c>
       <c r="F121" t="n">
-        <v>2.4304</v>
+        <v>11.9188</v>
       </c>
       <c r="G121" t="n">
-        <v>38448.16666666666</v>
+        <v>38451.16666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4896,7 +5114,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>38380</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,28 +5140,71 @@
         <v>38420</v>
       </c>
       <c r="E122" t="n">
+        <v>38410</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.4304</v>
+      </c>
+      <c r="G122" t="n">
+        <v>38448.16666666666</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
         <v>38420</v>
       </c>
-      <c r="F122" t="n">
+      <c r="C123" t="n">
+        <v>38420</v>
+      </c>
+      <c r="D123" t="n">
+        <v>38420</v>
+      </c>
+      <c r="E123" t="n">
+        <v>38420</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.3773</v>
       </c>
-      <c r="G122" t="n">
+      <c r="G123" t="n">
         <v>38449.66666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>38380</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>0.0248</v>
       </c>
       <c r="G2" t="n">
+        <v>38039.33333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>37838.66666666666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1.2147</v>
       </c>
       <c r="G3" t="n">
+        <v>38053.33333333334</v>
+      </c>
+      <c r="H3" t="n">
         <v>37835</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>3.0987</v>
       </c>
       <c r="G4" t="n">
+        <v>38088</v>
+      </c>
+      <c r="H4" t="n">
         <v>37835</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>0.066</v>
       </c>
       <c r="G5" t="n">
+        <v>38122.66666666666</v>
+      </c>
+      <c r="H5" t="n">
         <v>37830.5</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,27 @@
         <v>8.056699999999999</v>
       </c>
       <c r="G6" t="n">
+        <v>38130.66666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>37819.33333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>38130</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +649,27 @@
         <v>21.1464</v>
       </c>
       <c r="G7" t="n">
+        <v>38144.66666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>37808.66666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>37730</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +693,27 @@
         <v>2.3</v>
       </c>
       <c r="G8" t="n">
+        <v>38171.33333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>37801.33333333334</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>37820</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,25 @@
         <v>10.12</v>
       </c>
       <c r="G9" t="n">
+        <v>38198</v>
+      </c>
+      <c r="H9" t="n">
         <v>37810.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +779,25 @@
         <v>22.2113</v>
       </c>
       <c r="G10" t="n">
+        <v>38208.66666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>37819.83333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +821,25 @@
         <v>39.6495</v>
       </c>
       <c r="G11" t="n">
+        <v>38220</v>
+      </c>
+      <c r="H11" t="n">
         <v>37834.33333333334</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +863,25 @@
         <v>10.5804</v>
       </c>
       <c r="G12" t="n">
+        <v>38238.66666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>37845.66666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +905,25 @@
         <v>31.7317</v>
       </c>
       <c r="G13" t="n">
+        <v>38244</v>
+      </c>
+      <c r="H13" t="n">
         <v>37853.33333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +947,25 @@
         <v>43.9256</v>
       </c>
       <c r="G14" t="n">
+        <v>38237.33333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>37865.16666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +989,25 @@
         <v>3.3189</v>
       </c>
       <c r="G15" t="n">
+        <v>38246</v>
+      </c>
+      <c r="H15" t="n">
         <v>37886</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1031,25 @@
         <v>3.75624845</v>
       </c>
       <c r="G16" t="n">
+        <v>38296.66666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>37911</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1073,25 @@
         <v>69.06189999999999</v>
       </c>
       <c r="G17" t="n">
+        <v>38388</v>
+      </c>
+      <c r="H17" t="n">
         <v>37946</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1115,25 @@
         <v>34.9852</v>
       </c>
       <c r="G18" t="n">
+        <v>38462</v>
+      </c>
+      <c r="H18" t="n">
         <v>37971</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1157,25 @@
         <v>4.2231</v>
       </c>
       <c r="G19" t="n">
+        <v>38522.66666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>37986</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1199,25 @@
         <v>3.323</v>
       </c>
       <c r="G20" t="n">
+        <v>38595.33333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>38009.33333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1241,25 @@
         <v>3.7563</v>
       </c>
       <c r="G21" t="n">
+        <v>38651.33333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>38032.16666666666</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1283,25 @@
         <v>3.323</v>
       </c>
       <c r="G22" t="n">
+        <v>38710</v>
+      </c>
+      <c r="H22" t="n">
         <v>38057</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1325,25 @@
         <v>15.5</v>
       </c>
       <c r="G23" t="n">
+        <v>38745.33333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>38078.33333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1367,25 @@
         <v>7</v>
       </c>
       <c r="G24" t="n">
+        <v>38788.66666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>38106.83333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1409,25 @@
         <v>1.3471</v>
       </c>
       <c r="G25" t="n">
+        <v>38806</v>
+      </c>
+      <c r="H25" t="n">
         <v>38126.83333333334</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1451,25 @@
         <v>2.4189</v>
       </c>
       <c r="G26" t="n">
+        <v>38820.66666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>38146.83333333334</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1493,25 @@
         <v>0.0234</v>
       </c>
       <c r="G27" t="n">
+        <v>38827.33333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>38158</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1535,25 @@
         <v>69.425</v>
       </c>
       <c r="G28" t="n">
+        <v>38830</v>
+      </c>
+      <c r="H28" t="n">
         <v>38163.83333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,22 +1577,25 @@
         <v>0.7473</v>
       </c>
       <c r="G29" t="n">
+        <v>38825.33333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>38171.33333333334</v>
       </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>38510</v>
-      </c>
-      <c r="K29" t="n">
-        <v>38510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1432,26 +1619,25 @@
         <v>0.8837</v>
       </c>
       <c r="G30" t="n">
+        <v>38821.33333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>38183.5</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>38610</v>
-      </c>
-      <c r="K30" t="n">
-        <v>38510</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1475,24 +1661,25 @@
         <v>0.7976</v>
       </c>
       <c r="G31" t="n">
+        <v>38815.33333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>38203</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>38510</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1703,25 @@
         <v>5</v>
       </c>
       <c r="G32" t="n">
+        <v>38770.66666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>38221.83333333334</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1745,25 @@
         <v>0.1</v>
       </c>
       <c r="G33" t="n">
+        <v>38774</v>
+      </c>
+      <c r="H33" t="n">
         <v>38248.33333333334</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,20 +1787,25 @@
         <v>0.286</v>
       </c>
       <c r="G34" t="n">
+        <v>38752</v>
+      </c>
+      <c r="H34" t="n">
         <v>38263</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1621,18 +1827,21 @@
         <v>8.392899999999999</v>
       </c>
       <c r="G35" t="n">
+        <v>38698</v>
+      </c>
+      <c r="H35" t="n">
         <v>38272.66666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1865,21 @@
         <v>4.4598</v>
       </c>
       <c r="G36" t="n">
+        <v>38691.33333333334</v>
+      </c>
+      <c r="H36" t="n">
         <v>38285.33333333334</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1903,21 @@
         <v>5.5402</v>
       </c>
       <c r="G37" t="n">
+        <v>38676</v>
+      </c>
+      <c r="H37" t="n">
         <v>38298.16666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1941,21 @@
         <v>16.9852</v>
       </c>
       <c r="G38" t="n">
+        <v>38649.33333333334</v>
+      </c>
+      <c r="H38" t="n">
         <v>38319.83333333334</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1979,21 @@
         <v>0.1211</v>
       </c>
       <c r="G39" t="n">
+        <v>38608</v>
+      </c>
+      <c r="H39" t="n">
         <v>38328</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +2017,21 @@
         <v>1.591</v>
       </c>
       <c r="G40" t="n">
+        <v>38592</v>
+      </c>
+      <c r="H40" t="n">
         <v>38334.33333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2055,21 @@
         <v>4.3122</v>
       </c>
       <c r="G41" t="n">
+        <v>38580.66666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>38345.66666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,22 +2093,21 @@
         <v>0.7381</v>
       </c>
       <c r="G42" t="n">
+        <v>38569.33333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>38357</v>
       </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>38380</v>
-      </c>
-      <c r="K42" t="n">
-        <v>38380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1905,26 +2131,21 @@
         <v>0.3397</v>
       </c>
       <c r="G43" t="n">
+        <v>38562.66666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>38371.33333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>38380</v>
-      </c>
-      <c r="K43" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1948,24 +2169,21 @@
         <v>2.4051</v>
       </c>
       <c r="G44" t="n">
+        <v>38549.33333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>38385.66666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,24 +2207,21 @@
         <v>2.6656</v>
       </c>
       <c r="G45" t="n">
+        <v>38534.66666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>38398.66666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2030,24 +2245,21 @@
         <v>21.7711</v>
       </c>
       <c r="G46" t="n">
+        <v>38506.66666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>38409.33333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2071,24 +2283,21 @@
         <v>0.5789</v>
       </c>
       <c r="G47" t="n">
+        <v>38478.66666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>38419.16666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2112,24 +2321,21 @@
         <v>0.0165</v>
       </c>
       <c r="G48" t="n">
+        <v>38420</v>
+      </c>
+      <c r="H48" t="n">
         <v>38427.33333333334</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2153,24 +2359,21 @@
         <v>0.03</v>
       </c>
       <c r="G49" t="n">
+        <v>38406</v>
+      </c>
+      <c r="H49" t="n">
         <v>38442.16666666666</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,24 +2397,21 @@
         <v>5</v>
       </c>
       <c r="G50" t="n">
+        <v>38397.33333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>38453.33333333334</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,24 +2435,21 @@
         <v>0.2725</v>
       </c>
       <c r="G51" t="n">
+        <v>38372.66666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>38461.5</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,24 +2473,21 @@
         <v>2.473</v>
       </c>
       <c r="G52" t="n">
+        <v>38334.66666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>38466.33333333334</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2317,24 +2511,21 @@
         <v>0.85</v>
       </c>
       <c r="G53" t="n">
+        <v>38304</v>
+      </c>
+      <c r="H53" t="n">
         <v>38467.5</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,24 +2549,21 @@
         <v>2.663</v>
       </c>
       <c r="G54" t="n">
+        <v>38264</v>
+      </c>
+      <c r="H54" t="n">
         <v>38464.66666666666</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,24 +2587,21 @@
         <v>13.1443</v>
       </c>
       <c r="G55" t="n">
+        <v>38229.33333333334</v>
+      </c>
+      <c r="H55" t="n">
         <v>38459</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2440,24 +2625,21 @@
         <v>0.2511</v>
       </c>
       <c r="G56" t="n">
+        <v>38191.33333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>38453.16666666666</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2481,24 +2663,21 @@
         <v>0.5415</v>
       </c>
       <c r="G57" t="n">
+        <v>38154.66666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>38447.5</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2522,24 +2701,21 @@
         <v>0.106</v>
       </c>
       <c r="G58" t="n">
+        <v>38116.66666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>38438.33333333334</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2563,24 +2739,21 @@
         <v>0.2725</v>
       </c>
       <c r="G59" t="n">
+        <v>38079.33333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>38422.83333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,24 +2777,21 @@
         <v>3.1818</v>
       </c>
       <c r="G60" t="n">
+        <v>38084.66666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>38421.66666666666</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,24 +2815,21 @@
         <v>22.4493</v>
       </c>
       <c r="G61" t="n">
+        <v>38090.66666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>38427.33333333334</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2686,24 +2853,21 @@
         <v>0.8264</v>
       </c>
       <c r="G62" t="n">
+        <v>38103.33333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>38435.16666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2727,24 +2891,21 @@
         <v>3.1506</v>
       </c>
       <c r="G63" t="n">
+        <v>38098</v>
+      </c>
+      <c r="H63" t="n">
         <v>38438.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2768,24 +2929,21 @@
         <v>2.5519</v>
       </c>
       <c r="G64" t="n">
+        <v>38080</v>
+      </c>
+      <c r="H64" t="n">
         <v>38440.16666666666</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,24 +2967,21 @@
         <v>2</v>
       </c>
       <c r="G65" t="n">
+        <v>38100</v>
+      </c>
+      <c r="H65" t="n">
         <v>38447.66666666666</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2850,24 +3005,21 @@
         <v>8</v>
       </c>
       <c r="G66" t="n">
+        <v>38132</v>
+      </c>
+      <c r="H66" t="n">
         <v>38461.83333333334</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2891,24 +3043,21 @@
         <v>2.8591</v>
       </c>
       <c r="G67" t="n">
+        <v>38178.66666666666</v>
+      </c>
+      <c r="H67" t="n">
         <v>38474.83333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,24 +3081,21 @@
         <v>7.1681</v>
       </c>
       <c r="G68" t="n">
+        <v>38232</v>
+      </c>
+      <c r="H68" t="n">
         <v>38482.66666666666</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2973,24 +3119,21 @@
         <v>41.6164</v>
       </c>
       <c r="G69" t="n">
+        <v>38300.66666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>38490.33333333334</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3014,24 +3157,21 @@
         <v>8.3849</v>
       </c>
       <c r="G70" t="n">
+        <v>38364</v>
+      </c>
+      <c r="H70" t="n">
         <v>38497.83333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,24 +3195,21 @@
         <v>1.1212</v>
       </c>
       <c r="G71" t="n">
+        <v>38426</v>
+      </c>
+      <c r="H71" t="n">
         <v>38504.66666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,24 +3233,21 @@
         <v>1.7</v>
       </c>
       <c r="G72" t="n">
+        <v>38487.33333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>38509.66666666666</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3137,24 +3271,21 @@
         <v>12.04</v>
       </c>
       <c r="G73" t="n">
+        <v>38549.33333333334</v>
+      </c>
+      <c r="H73" t="n">
         <v>38514.66666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,24 +3309,21 @@
         <v>12.1</v>
       </c>
       <c r="G74" t="n">
+        <v>38626</v>
+      </c>
+      <c r="H74" t="n">
         <v>38520</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3219,24 +3347,21 @@
         <v>0.1</v>
       </c>
       <c r="G75" t="n">
+        <v>38660</v>
+      </c>
+      <c r="H75" t="n">
         <v>38525.16666666666</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,24 +3385,21 @@
         <v>70.2805</v>
       </c>
       <c r="G76" t="n">
+        <v>38693.33333333334</v>
+      </c>
+      <c r="H76" t="n">
         <v>38526.5</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,24 +3423,21 @@
         <v>0.1</v>
       </c>
       <c r="G77" t="n">
+        <v>38724</v>
+      </c>
+      <c r="H77" t="n">
         <v>38519.16666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,24 +3461,21 @@
         <v>4.8822</v>
       </c>
       <c r="G78" t="n">
+        <v>38740.66666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>38508.16666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3383,24 +3499,21 @@
         <v>0.6205000000000001</v>
       </c>
       <c r="G79" t="n">
+        <v>38750</v>
+      </c>
+      <c r="H79" t="n">
         <v>38497</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,24 +3537,21 @@
         <v>1.9906</v>
       </c>
       <c r="G80" t="n">
+        <v>38728</v>
+      </c>
+      <c r="H80" t="n">
         <v>38480.83333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3465,24 +3575,21 @@
         <v>0.1103</v>
       </c>
       <c r="G81" t="n">
+        <v>38706</v>
+      </c>
+      <c r="H81" t="n">
         <v>38475.5</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,24 +3613,21 @@
         <v>0.0223</v>
       </c>
       <c r="G82" t="n">
+        <v>38682.66666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>38468</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,24 +3651,27 @@
         <v>2.561</v>
       </c>
       <c r="G83" t="n">
+        <v>38636.66666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>38455.5</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+        <v>38250</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3588,24 +3695,27 @@
         <v>4.6122</v>
       </c>
       <c r="G84" t="n">
+        <v>38590</v>
+      </c>
+      <c r="H84" t="n">
         <v>38440.66666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+        <v>38050</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3629,24 +3739,27 @@
         <v>70.2805</v>
       </c>
       <c r="G85" t="n">
+        <v>38541.33333333334</v>
+      </c>
+      <c r="H85" t="n">
         <v>38431.66666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
+        <v>38040</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,24 +3783,27 @@
         <v>22.2154</v>
       </c>
       <c r="G86" t="n">
+        <v>38493.33333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>38422.83333333334</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
+        <v>38010</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3711,24 +3827,27 @@
         <v>10.8684</v>
       </c>
       <c r="G87" t="n">
+        <v>38444</v>
+      </c>
+      <c r="H87" t="n">
         <v>38413.83333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+        <v>38020</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3752,24 +3871,27 @@
         <v>8.4946</v>
       </c>
       <c r="G88" t="n">
+        <v>38398</v>
+      </c>
+      <c r="H88" t="n">
         <v>38406.66666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+        <v>38010</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,24 +3915,27 @@
         <v>27.612</v>
       </c>
       <c r="G89" t="n">
+        <v>38332.66666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>38396.83333333334</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
+        <v>38080</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,24 +3959,27 @@
         <v>1.6646</v>
       </c>
       <c r="G90" t="n">
+        <v>38266.66666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>38386.5</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
+        <v>38020</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3875,24 +4003,27 @@
         <v>206.1457</v>
       </c>
       <c r="G91" t="n">
+        <v>38204</v>
+      </c>
+      <c r="H91" t="n">
         <v>38373.66666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
+        <v>38010</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,24 +4047,25 @@
         <v>5.5361</v>
       </c>
       <c r="G92" t="n">
+        <v>38140.66666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>38361.66666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3957,24 +4089,25 @@
         <v>0.6805</v>
       </c>
       <c r="G93" t="n">
+        <v>38118.66666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>38344.33333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,24 +4131,25 @@
         <v>7.6654</v>
       </c>
       <c r="G94" t="n">
+        <v>38098</v>
+      </c>
+      <c r="H94" t="n">
         <v>38333.5</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4039,24 +4173,27 @@
         <v>6.0019</v>
       </c>
       <c r="G95" t="n">
+        <v>38084.66666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>38327.5</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+        <v>38060</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4080,24 +4217,27 @@
         <v>1.6173</v>
       </c>
       <c r="G96" t="n">
+        <v>38071.33333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>38320.5</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
+        <v>38050</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4121,24 +4261,27 @@
         <v>33.5</v>
       </c>
       <c r="G97" t="n">
+        <v>38090.66666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>38321.66666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
+        <v>38050</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,24 +4305,25 @@
         <v>3.5789</v>
       </c>
       <c r="G98" t="n">
+        <v>38136</v>
+      </c>
+      <c r="H98" t="n">
         <v>38327.16666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4203,24 +4347,25 @@
         <v>4.5538</v>
       </c>
       <c r="G99" t="n">
+        <v>38154</v>
+      </c>
+      <c r="H99" t="n">
         <v>38327.16666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,24 +4389,25 @@
         <v>20</v>
       </c>
       <c r="G100" t="n">
+        <v>38166.66666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>38325.33333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,24 +4431,25 @@
         <v>8.451000000000001</v>
       </c>
       <c r="G101" t="n">
+        <v>38178</v>
+      </c>
+      <c r="H101" t="n">
         <v>38322.16666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4326,24 +4473,25 @@
         <v>400.0205</v>
       </c>
       <c r="G102" t="n">
+        <v>38194</v>
+      </c>
+      <c r="H102" t="n">
         <v>38320</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,24 +4515,25 @@
         <v>34.0016</v>
       </c>
       <c r="G103" t="n">
+        <v>38218.66666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>38320.66666666666</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4408,24 +4557,25 @@
         <v>9.459</v>
       </c>
       <c r="G104" t="n">
+        <v>38248</v>
+      </c>
+      <c r="H104" t="n">
         <v>38321.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4449,24 +4599,25 @@
         <v>1.03</v>
       </c>
       <c r="G105" t="n">
+        <v>38294.66666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>38326.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4490,24 +4641,25 @@
         <v>28.7112</v>
       </c>
       <c r="G106" t="n">
+        <v>38324.66666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>38328.16666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4531,24 +4683,25 @@
         <v>8.0769</v>
       </c>
       <c r="G107" t="n">
+        <v>38351.33333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>38329.83333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4572,24 +4725,25 @@
         <v>6</v>
       </c>
       <c r="G108" t="n">
+        <v>38370</v>
+      </c>
+      <c r="H108" t="n">
         <v>38331.83333333334</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,24 +4767,25 @@
         <v>19.6999</v>
       </c>
       <c r="G109" t="n">
+        <v>38418.66666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>38336.66666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,24 +4809,25 @@
         <v>2.2968</v>
       </c>
       <c r="G110" t="n">
+        <v>38482</v>
+      </c>
+      <c r="H110" t="n">
         <v>38348.66666666666</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4695,24 +4851,25 @@
         <v>8.4421</v>
       </c>
       <c r="G111" t="n">
+        <v>38545.33333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>38363.66666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,24 +4893,25 @@
         <v>65.3665</v>
       </c>
       <c r="G112" t="n">
+        <v>38564.66666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>38379.16666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4777,24 +4935,25 @@
         <v>21.6144</v>
       </c>
       <c r="G113" t="n">
+        <v>38553.33333333334</v>
+      </c>
+      <c r="H113" t="n">
         <v>38389.5</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4818,24 +4977,25 @@
         <v>8.8058</v>
       </c>
       <c r="G114" t="n">
+        <v>38568</v>
+      </c>
+      <c r="H114" t="n">
         <v>38403.16666666666</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4859,24 +5019,25 @@
         <v>36.6405</v>
       </c>
       <c r="G115" t="n">
+        <v>38607.33333333334</v>
+      </c>
+      <c r="H115" t="n">
         <v>38419.83333333334</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4900,24 +5061,25 @@
         <v>11.4326</v>
       </c>
       <c r="G116" t="n">
+        <v>38628.66666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>38431.5</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4941,24 +5103,25 @@
         <v>10.7768</v>
       </c>
       <c r="G117" t="n">
+        <v>38632</v>
+      </c>
+      <c r="H117" t="n">
         <v>38439.33333333334</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4982,24 +5145,25 @@
         <v>51.0359</v>
       </c>
       <c r="G118" t="n">
+        <v>38621.33333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>38446.83333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5023,24 +5187,25 @@
         <v>21.5193</v>
       </c>
       <c r="G119" t="n">
+        <v>38606</v>
+      </c>
+      <c r="H119" t="n">
         <v>38453.16666666666</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5064,24 +5229,25 @@
         <v>6.5536</v>
       </c>
       <c r="G120" t="n">
+        <v>38577.33333333334</v>
+      </c>
+      <c r="H120" t="n">
         <v>38449.66666666666</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5105,24 +5271,25 @@
         <v>11.9188</v>
       </c>
       <c r="G121" t="n">
+        <v>38582.66666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>38451.16666666666</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5146,24 +5313,25 @@
         <v>2.4304</v>
       </c>
       <c r="G122" t="n">
+        <v>38576.66666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>38448.16666666666</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5187,24 +5355,431 @@
         <v>0.3773</v>
       </c>
       <c r="G123" t="n">
+        <v>38569.33333333334</v>
+      </c>
+      <c r="H123" t="n">
         <v>38449.66666666666</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>38380</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>38760</v>
+      </c>
+      <c r="C124" t="n">
+        <v>38760</v>
+      </c>
+      <c r="D124" t="n">
+        <v>38760</v>
+      </c>
+      <c r="E124" t="n">
+        <v>38760</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>38567.33333333334</v>
+      </c>
+      <c r="H124" t="n">
+        <v>38458.5</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>38870</v>
+      </c>
+      <c r="C125" t="n">
+        <v>38870</v>
+      </c>
+      <c r="D125" t="n">
+        <v>38870</v>
+      </c>
+      <c r="E125" t="n">
+        <v>38870</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="G125" t="n">
+        <v>38558.66666666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>38463.33333333334</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>39100</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39260</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39260</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39100</v>
+      </c>
+      <c r="F126" t="n">
+        <v>26.5906</v>
+      </c>
+      <c r="G126" t="n">
+        <v>38576</v>
+      </c>
+      <c r="H126" t="n">
+        <v>38474.66666666666</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>39250</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39310</v>
+      </c>
+      <c r="D127" t="n">
+        <v>39310</v>
+      </c>
+      <c r="E127" t="n">
+        <v>39250</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G127" t="n">
+        <v>38608</v>
+      </c>
+      <c r="H127" t="n">
+        <v>38486.5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39310</v>
+      </c>
+      <c r="C128" t="n">
+        <v>39310</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39310</v>
+      </c>
+      <c r="E128" t="n">
+        <v>39310</v>
+      </c>
+      <c r="F128" t="n">
+        <v>11.5798</v>
+      </c>
+      <c r="G128" t="n">
+        <v>38658</v>
+      </c>
+      <c r="H128" t="n">
+        <v>38496</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>39320</v>
+      </c>
+      <c r="C129" t="n">
+        <v>39620</v>
+      </c>
+      <c r="D129" t="n">
+        <v>39620</v>
+      </c>
+      <c r="E129" t="n">
+        <v>39320</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3.9066</v>
+      </c>
+      <c r="G129" t="n">
+        <v>38730.66666666666</v>
+      </c>
+      <c r="H129" t="n">
+        <v>38510.66666666666</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>39210</v>
+      </c>
+      <c r="C130" t="n">
+        <v>39200</v>
+      </c>
+      <c r="D130" t="n">
+        <v>39210</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39200</v>
+      </c>
+      <c r="F130" t="n">
+        <v>11.5798</v>
+      </c>
+      <c r="G130" t="n">
+        <v>38758</v>
+      </c>
+      <c r="H130" t="n">
+        <v>38518.33333333334</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>39610</v>
+      </c>
+      <c r="C131" t="n">
+        <v>39630</v>
+      </c>
+      <c r="D131" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E131" t="n">
+        <v>39610</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6.4531</v>
+      </c>
+      <c r="G131" t="n">
+        <v>38832.66666666666</v>
+      </c>
+      <c r="H131" t="n">
+        <v>38533.16666666666</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39650</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39650</v>
+      </c>
+      <c r="D132" t="n">
+        <v>39650</v>
+      </c>
+      <c r="E132" t="n">
+        <v>39650</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G132" t="n">
+        <v>38922.66666666666</v>
+      </c>
+      <c r="H132" t="n">
+        <v>38548.16666666666</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39770</v>
+      </c>
+      <c r="C133" t="n">
+        <v>39770</v>
+      </c>
+      <c r="D133" t="n">
+        <v>39770</v>
+      </c>
+      <c r="E133" t="n">
+        <v>39770</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G133" t="n">
+        <v>39021.33333333334</v>
+      </c>
+      <c r="H133" t="n">
+        <v>38564.83333333334</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:M162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>38130</v>
+        <v>37700</v>
       </c>
       <c r="C2" t="n">
-        <v>38130</v>
+        <v>37700</v>
       </c>
       <c r="D2" t="n">
-        <v>38130</v>
+        <v>37700</v>
       </c>
       <c r="E2" t="n">
-        <v>38130</v>
+        <v>37700</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0248</v>
+        <v>3.2257</v>
       </c>
       <c r="G2" t="n">
-        <v>38039.33333333334</v>
+        <v>608.3940995199998</v>
       </c>
       <c r="H2" t="n">
-        <v>37838.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38130</v>
+        <v>37830</v>
       </c>
       <c r="C3" t="n">
-        <v>38130</v>
+        <v>37830</v>
       </c>
       <c r="D3" t="n">
-        <v>38130</v>
+        <v>37830</v>
       </c>
       <c r="E3" t="n">
-        <v>38130</v>
+        <v>37830</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2147</v>
+        <v>1.1828</v>
       </c>
       <c r="G3" t="n">
-        <v>38053.33333333334</v>
+        <v>609.5768995199999</v>
       </c>
       <c r="H3" t="n">
-        <v>37835</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38140</v>
+        <v>37830</v>
       </c>
       <c r="C4" t="n">
-        <v>38130</v>
+        <v>37830</v>
       </c>
       <c r="D4" t="n">
-        <v>38140</v>
+        <v>37830</v>
       </c>
       <c r="E4" t="n">
-        <v>38130</v>
+        <v>37830</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0987</v>
+        <v>0.02</v>
       </c>
       <c r="G4" t="n">
-        <v>38088</v>
+        <v>609.5768995199999</v>
       </c>
       <c r="H4" t="n">
-        <v>37835</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38130</v>
+        <v>37710</v>
       </c>
       <c r="C5" t="n">
-        <v>38130</v>
+        <v>37710</v>
       </c>
       <c r="D5" t="n">
-        <v>38130</v>
+        <v>37710</v>
       </c>
       <c r="E5" t="n">
-        <v>38130</v>
+        <v>37710</v>
       </c>
       <c r="F5" t="n">
-        <v>0.066</v>
+        <v>1.7118</v>
       </c>
       <c r="G5" t="n">
-        <v>38122.66666666666</v>
+        <v>607.8650995199998</v>
       </c>
       <c r="H5" t="n">
-        <v>37830.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,42 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="C6" t="n">
-        <v>37730</v>
+        <v>37700</v>
       </c>
       <c r="D6" t="n">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="E6" t="n">
-        <v>37730</v>
+        <v>37700</v>
       </c>
       <c r="F6" t="n">
-        <v>8.056699999999999</v>
+        <v>0.02</v>
       </c>
       <c r="G6" t="n">
-        <v>38130.66666666666</v>
+        <v>607.8450995199998</v>
       </c>
       <c r="H6" t="n">
-        <v>37819.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>38130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,42 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37830</v>
+        <v>37500</v>
       </c>
       <c r="C7" t="n">
-        <v>37820</v>
+        <v>37100</v>
       </c>
       <c r="D7" t="n">
-        <v>37830</v>
+        <v>37500</v>
       </c>
       <c r="E7" t="n">
-        <v>37820</v>
+        <v>37100</v>
       </c>
       <c r="F7" t="n">
-        <v>21.1464</v>
+        <v>106.0564</v>
       </c>
       <c r="G7" t="n">
-        <v>38144.66666666666</v>
+        <v>501.7886995199999</v>
       </c>
       <c r="H7" t="n">
-        <v>37808.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>37730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,42 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38250</v>
+        <v>37800</v>
       </c>
       <c r="C8" t="n">
-        <v>38270</v>
+        <v>37820</v>
       </c>
       <c r="D8" t="n">
-        <v>38270</v>
+        <v>37820</v>
       </c>
       <c r="E8" t="n">
-        <v>38250</v>
+        <v>37800</v>
       </c>
       <c r="F8" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="G8" t="n">
-        <v>38171.33333333334</v>
+        <v>504.7086995199999</v>
       </c>
       <c r="H8" t="n">
-        <v>37801.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>37820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -722,40 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38270</v>
+        <v>37830</v>
       </c>
       <c r="C9" t="n">
-        <v>38280</v>
+        <v>37930</v>
       </c>
       <c r="D9" t="n">
-        <v>38280</v>
+        <v>37940</v>
       </c>
       <c r="E9" t="n">
-        <v>38270</v>
+        <v>37830</v>
       </c>
       <c r="F9" t="n">
-        <v>10.12</v>
+        <v>101.2943</v>
       </c>
       <c r="G9" t="n">
-        <v>38198</v>
+        <v>606.0029995199999</v>
       </c>
       <c r="H9" t="n">
-        <v>37810.5</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -764,40 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38280</v>
+        <v>37720</v>
       </c>
       <c r="C10" t="n">
-        <v>38290</v>
+        <v>37700</v>
       </c>
       <c r="D10" t="n">
-        <v>38290</v>
+        <v>37720</v>
       </c>
       <c r="E10" t="n">
-        <v>38280</v>
+        <v>37700</v>
       </c>
       <c r="F10" t="n">
-        <v>22.2113</v>
+        <v>12.3378</v>
       </c>
       <c r="G10" t="n">
-        <v>38208.66666666666</v>
+        <v>593.6651995199999</v>
       </c>
       <c r="H10" t="n">
-        <v>37819.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -806,40 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>38320</v>
+        <v>37700</v>
       </c>
       <c r="C11" t="n">
-        <v>38330</v>
+        <v>37700</v>
       </c>
       <c r="D11" t="n">
-        <v>38330</v>
+        <v>37700</v>
       </c>
       <c r="E11" t="n">
-        <v>38320</v>
+        <v>37700</v>
       </c>
       <c r="F11" t="n">
-        <v>39.6495</v>
+        <v>0.2676</v>
       </c>
       <c r="G11" t="n">
-        <v>38220</v>
+        <v>593.6651995199999</v>
       </c>
       <c r="H11" t="n">
-        <v>37834.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -848,40 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38450</v>
+        <v>37550</v>
       </c>
       <c r="C12" t="n">
-        <v>38450</v>
+        <v>37550</v>
       </c>
       <c r="D12" t="n">
-        <v>38450</v>
+        <v>37550</v>
       </c>
       <c r="E12" t="n">
-        <v>38450</v>
+        <v>37550</v>
       </c>
       <c r="F12" t="n">
-        <v>10.5804</v>
+        <v>0.3199</v>
       </c>
       <c r="G12" t="n">
-        <v>38238.66666666666</v>
+        <v>593.3452995199999</v>
       </c>
       <c r="H12" t="n">
-        <v>37845.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -890,40 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>38460</v>
+        <v>37560</v>
       </c>
       <c r="C13" t="n">
-        <v>38470</v>
+        <v>37550</v>
       </c>
       <c r="D13" t="n">
-        <v>38470</v>
+        <v>37560</v>
       </c>
       <c r="E13" t="n">
-        <v>38460</v>
+        <v>37550</v>
       </c>
       <c r="F13" t="n">
-        <v>31.7317</v>
+        <v>0.7454</v>
       </c>
       <c r="G13" t="n">
-        <v>38244</v>
+        <v>593.3452995199999</v>
       </c>
       <c r="H13" t="n">
-        <v>37853.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,40 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38470</v>
+        <v>37630</v>
       </c>
       <c r="C14" t="n">
-        <v>38680</v>
+        <v>37630</v>
       </c>
       <c r="D14" t="n">
-        <v>38680</v>
+        <v>37630</v>
       </c>
       <c r="E14" t="n">
-        <v>38470</v>
+        <v>37630</v>
       </c>
       <c r="F14" t="n">
-        <v>43.9256</v>
+        <v>4.6076</v>
       </c>
       <c r="G14" t="n">
-        <v>38237.33333333334</v>
+        <v>597.95289952</v>
       </c>
       <c r="H14" t="n">
-        <v>37865.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -974,40 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38670</v>
+        <v>37780</v>
       </c>
       <c r="C15" t="n">
-        <v>38690</v>
+        <v>37770</v>
       </c>
       <c r="D15" t="n">
-        <v>38690</v>
+        <v>37780</v>
       </c>
       <c r="E15" t="n">
-        <v>38670</v>
+        <v>37770</v>
       </c>
       <c r="F15" t="n">
-        <v>3.3189</v>
+        <v>4.6076</v>
       </c>
       <c r="G15" t="n">
-        <v>38246</v>
+        <v>602.56049952</v>
       </c>
       <c r="H15" t="n">
-        <v>37886</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1016,40 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38730</v>
+        <v>37820</v>
       </c>
       <c r="C16" t="n">
-        <v>38920</v>
+        <v>37820</v>
       </c>
       <c r="D16" t="n">
-        <v>38920</v>
+        <v>37820</v>
       </c>
       <c r="E16" t="n">
-        <v>38730</v>
+        <v>37820</v>
       </c>
       <c r="F16" t="n">
-        <v>3.75624845</v>
+        <v>0.3568</v>
       </c>
       <c r="G16" t="n">
-        <v>38296.66666666666</v>
+        <v>602.91729952</v>
       </c>
       <c r="H16" t="n">
-        <v>37911</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1058,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38930</v>
+        <v>37830</v>
       </c>
       <c r="C17" t="n">
-        <v>39500</v>
+        <v>37920</v>
       </c>
       <c r="D17" t="n">
-        <v>39500</v>
+        <v>37920</v>
       </c>
       <c r="E17" t="n">
-        <v>38930</v>
+        <v>37830</v>
       </c>
       <c r="F17" t="n">
-        <v>69.06189999999999</v>
+        <v>8.056699999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>38388</v>
+        <v>610.97399952</v>
       </c>
       <c r="H17" t="n">
-        <v>37946</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39090</v>
+        <v>37650</v>
       </c>
       <c r="C18" t="n">
-        <v>39240</v>
+        <v>37610</v>
       </c>
       <c r="D18" t="n">
-        <v>39500</v>
+        <v>37650</v>
       </c>
       <c r="E18" t="n">
-        <v>38520</v>
+        <v>37610</v>
       </c>
       <c r="F18" t="n">
-        <v>34.9852</v>
+        <v>2.7839</v>
       </c>
       <c r="G18" t="n">
-        <v>38462</v>
+        <v>608.19009952</v>
       </c>
       <c r="H18" t="n">
-        <v>37971</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1142,40 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39050</v>
+        <v>37610</v>
       </c>
       <c r="C19" t="n">
-        <v>39040</v>
+        <v>37610</v>
       </c>
       <c r="D19" t="n">
-        <v>39050</v>
+        <v>37610</v>
       </c>
       <c r="E19" t="n">
-        <v>39040</v>
+        <v>37610</v>
       </c>
       <c r="F19" t="n">
-        <v>4.2231</v>
+        <v>8.400499999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>38522.66666666666</v>
+        <v>608.19009952</v>
       </c>
       <c r="H19" t="n">
-        <v>37986</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1184,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39220</v>
+        <v>37610</v>
       </c>
       <c r="C20" t="n">
-        <v>39220</v>
+        <v>37610</v>
       </c>
       <c r="D20" t="n">
-        <v>39220</v>
+        <v>37610</v>
       </c>
       <c r="E20" t="n">
-        <v>39220</v>
+        <v>37610</v>
       </c>
       <c r="F20" t="n">
-        <v>3.323</v>
+        <v>0.0696</v>
       </c>
       <c r="G20" t="n">
-        <v>38595.33333333334</v>
+        <v>608.19009952</v>
       </c>
       <c r="H20" t="n">
-        <v>38009.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,40 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38570</v>
+        <v>37610</v>
       </c>
       <c r="C21" t="n">
-        <v>38570</v>
+        <v>37610</v>
       </c>
       <c r="D21" t="n">
-        <v>38570</v>
+        <v>37610</v>
       </c>
       <c r="E21" t="n">
-        <v>38570</v>
+        <v>37610</v>
       </c>
       <c r="F21" t="n">
-        <v>3.7563</v>
+        <v>0.0139</v>
       </c>
       <c r="G21" t="n">
-        <v>38651.33333333334</v>
+        <v>608.19009952</v>
       </c>
       <c r="H21" t="n">
-        <v>38032.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1268,40 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38890</v>
+        <v>37760</v>
       </c>
       <c r="C22" t="n">
-        <v>38700</v>
+        <v>37870</v>
       </c>
       <c r="D22" t="n">
-        <v>38890</v>
+        <v>37870</v>
       </c>
       <c r="E22" t="n">
-        <v>38700</v>
+        <v>37700</v>
       </c>
       <c r="F22" t="n">
-        <v>3.323</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>38710</v>
+        <v>630.19009952</v>
       </c>
       <c r="H22" t="n">
-        <v>38057</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,40 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38630</v>
+        <v>37870</v>
       </c>
       <c r="C23" t="n">
-        <v>38800</v>
+        <v>37880</v>
       </c>
       <c r="D23" t="n">
-        <v>38800</v>
+        <v>37880</v>
       </c>
       <c r="E23" t="n">
-        <v>38630</v>
+        <v>37870</v>
       </c>
       <c r="F23" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>38745.33333333334</v>
+        <v>641.19009952</v>
       </c>
       <c r="H23" t="n">
-        <v>38078.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1352,40 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38900</v>
+        <v>38130</v>
       </c>
       <c r="C24" t="n">
-        <v>38930</v>
+        <v>38130</v>
       </c>
       <c r="D24" t="n">
-        <v>38930</v>
+        <v>38130</v>
       </c>
       <c r="E24" t="n">
-        <v>38900</v>
+        <v>38130</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>12.1195</v>
       </c>
       <c r="G24" t="n">
-        <v>38788.66666666666</v>
+        <v>653.30959952</v>
       </c>
       <c r="H24" t="n">
-        <v>38106.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1394,40 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38550</v>
+        <v>38160</v>
       </c>
       <c r="C25" t="n">
-        <v>38550</v>
+        <v>38160</v>
       </c>
       <c r="D25" t="n">
-        <v>38550</v>
+        <v>38160</v>
       </c>
       <c r="E25" t="n">
-        <v>38550</v>
+        <v>38160</v>
       </c>
       <c r="F25" t="n">
-        <v>1.3471</v>
+        <v>0.7578</v>
       </c>
       <c r="G25" t="n">
-        <v>38806</v>
+        <v>654.06739952</v>
       </c>
       <c r="H25" t="n">
-        <v>38126.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1436,40 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38550</v>
+        <v>38160</v>
       </c>
       <c r="C26" t="n">
-        <v>38550</v>
+        <v>38170</v>
       </c>
       <c r="D26" t="n">
-        <v>38550</v>
+        <v>38170</v>
       </c>
       <c r="E26" t="n">
-        <v>38550</v>
+        <v>38160</v>
       </c>
       <c r="F26" t="n">
-        <v>2.4189</v>
+        <v>0.4554</v>
       </c>
       <c r="G26" t="n">
-        <v>38820.66666666666</v>
+        <v>654.52279952</v>
       </c>
       <c r="H26" t="n">
-        <v>38146.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1478,40 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38550</v>
+        <v>38150</v>
       </c>
       <c r="C27" t="n">
-        <v>38550</v>
+        <v>38390</v>
       </c>
       <c r="D27" t="n">
-        <v>38550</v>
+        <v>38390</v>
       </c>
       <c r="E27" t="n">
-        <v>38550</v>
+        <v>38150</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0234</v>
+        <v>2.382</v>
       </c>
       <c r="G27" t="n">
-        <v>38827.33333333334</v>
+        <v>656.90479952</v>
       </c>
       <c r="H27" t="n">
-        <v>38158</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,40 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38520</v>
+        <v>38400</v>
       </c>
       <c r="C28" t="n">
-        <v>38510</v>
+        <v>38780</v>
       </c>
       <c r="D28" t="n">
-        <v>38520</v>
+        <v>38780</v>
       </c>
       <c r="E28" t="n">
-        <v>38510</v>
+        <v>38400</v>
       </c>
       <c r="F28" t="n">
-        <v>69.425</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>38830</v>
+        <v>657.90479952</v>
       </c>
       <c r="H28" t="n">
-        <v>38163.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1562,40 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38610</v>
+        <v>38560</v>
       </c>
       <c r="C29" t="n">
-        <v>38610</v>
+        <v>38560</v>
       </c>
       <c r="D29" t="n">
-        <v>38610</v>
+        <v>38560</v>
       </c>
       <c r="E29" t="n">
-        <v>38610</v>
+        <v>38560</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7473</v>
+        <v>3.8047</v>
       </c>
       <c r="G29" t="n">
-        <v>38825.33333333334</v>
+        <v>654.10009952</v>
       </c>
       <c r="H29" t="n">
-        <v>38171.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1604,40 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38630</v>
+        <v>38350</v>
       </c>
       <c r="C30" t="n">
-        <v>38630</v>
+        <v>38160</v>
       </c>
       <c r="D30" t="n">
-        <v>38630</v>
+        <v>38350</v>
       </c>
       <c r="E30" t="n">
-        <v>38630</v>
+        <v>38160</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8837</v>
+        <v>12.7158</v>
       </c>
       <c r="G30" t="n">
-        <v>38821.33333333334</v>
+        <v>641.38429952</v>
       </c>
       <c r="H30" t="n">
-        <v>38183.5</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1646,40 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38820</v>
+        <v>38130</v>
       </c>
       <c r="C31" t="n">
-        <v>38830</v>
+        <v>38130</v>
       </c>
       <c r="D31" t="n">
-        <v>38830</v>
+        <v>38130</v>
       </c>
       <c r="E31" t="n">
-        <v>38820</v>
+        <v>38130</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7976</v>
+        <v>0.0248</v>
       </c>
       <c r="G31" t="n">
-        <v>38815.33333333334</v>
+        <v>641.35949952</v>
       </c>
       <c r="H31" t="n">
-        <v>38203</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1688,40 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38830</v>
+        <v>38130</v>
       </c>
       <c r="C32" t="n">
-        <v>38830</v>
+        <v>38130</v>
       </c>
       <c r="D32" t="n">
-        <v>38830</v>
+        <v>38130</v>
       </c>
       <c r="E32" t="n">
-        <v>38830</v>
+        <v>38130</v>
       </c>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>1.2147</v>
       </c>
       <c r="G32" t="n">
-        <v>38770.66666666666</v>
+        <v>641.35949952</v>
       </c>
       <c r="H32" t="n">
-        <v>38221.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,40 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>39290</v>
+        <v>38140</v>
       </c>
       <c r="C33" t="n">
-        <v>39290</v>
+        <v>38130</v>
       </c>
       <c r="D33" t="n">
-        <v>39290</v>
+        <v>38140</v>
       </c>
       <c r="E33" t="n">
-        <v>39290</v>
+        <v>38130</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1</v>
+        <v>3.0987</v>
       </c>
       <c r="G33" t="n">
-        <v>38774</v>
+        <v>641.35949952</v>
       </c>
       <c r="H33" t="n">
-        <v>38248.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1772,76 +1553,68 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38710</v>
+        <v>38130</v>
       </c>
       <c r="C34" t="n">
-        <v>38710</v>
+        <v>38130</v>
       </c>
       <c r="D34" t="n">
-        <v>38710</v>
+        <v>38130</v>
       </c>
       <c r="E34" t="n">
-        <v>38710</v>
+        <v>38130</v>
       </c>
       <c r="F34" t="n">
-        <v>0.286</v>
+        <v>0.066</v>
       </c>
       <c r="G34" t="n">
-        <v>38752</v>
+        <v>641.35949952</v>
       </c>
       <c r="H34" t="n">
-        <v>38263</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>1</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38510</v>
+        <v>37900</v>
       </c>
       <c r="C35" t="n">
-        <v>38410</v>
+        <v>37730</v>
       </c>
       <c r="D35" t="n">
-        <v>38510</v>
+        <v>37900</v>
       </c>
       <c r="E35" t="n">
-        <v>38410</v>
+        <v>37730</v>
       </c>
       <c r="F35" t="n">
-        <v>8.392899999999999</v>
+        <v>8.056699999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>38698</v>
+        <v>633.30279952</v>
       </c>
       <c r="H35" t="n">
-        <v>38272.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>38470</v>
+        <v>37830</v>
       </c>
       <c r="C36" t="n">
-        <v>38470</v>
+        <v>37820</v>
       </c>
       <c r="D36" t="n">
-        <v>38470</v>
+        <v>37830</v>
       </c>
       <c r="E36" t="n">
-        <v>38470</v>
+        <v>37820</v>
       </c>
       <c r="F36" t="n">
-        <v>4.4598</v>
+        <v>21.1464</v>
       </c>
       <c r="G36" t="n">
-        <v>38691.33333333334</v>
+        <v>654.44919952</v>
       </c>
       <c r="H36" t="n">
-        <v>38285.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1888,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38470</v>
+        <v>38250</v>
       </c>
       <c r="C37" t="n">
-        <v>38470</v>
+        <v>38270</v>
       </c>
       <c r="D37" t="n">
-        <v>38470</v>
+        <v>38270</v>
       </c>
       <c r="E37" t="n">
-        <v>38470</v>
+        <v>38250</v>
       </c>
       <c r="F37" t="n">
-        <v>5.5402</v>
+        <v>2.3</v>
       </c>
       <c r="G37" t="n">
-        <v>38676</v>
+        <v>656.7491995199999</v>
       </c>
       <c r="H37" t="n">
-        <v>38298.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38400</v>
+        <v>38270</v>
       </c>
       <c r="C38" t="n">
-        <v>38400</v>
+        <v>38280</v>
       </c>
       <c r="D38" t="n">
-        <v>38400</v>
+        <v>38280</v>
       </c>
       <c r="E38" t="n">
-        <v>38400</v>
+        <v>38270</v>
       </c>
       <c r="F38" t="n">
-        <v>16.9852</v>
+        <v>10.12</v>
       </c>
       <c r="G38" t="n">
-        <v>38649.33333333334</v>
+        <v>666.8691995199999</v>
       </c>
       <c r="H38" t="n">
-        <v>38319.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1964,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>38310</v>
+        <v>38280</v>
       </c>
       <c r="C39" t="n">
-        <v>38310</v>
+        <v>38290</v>
       </c>
       <c r="D39" t="n">
-        <v>38310</v>
+        <v>38290</v>
       </c>
       <c r="E39" t="n">
-        <v>38310</v>
+        <v>38280</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1211</v>
+        <v>22.2113</v>
       </c>
       <c r="G39" t="n">
-        <v>38608</v>
+        <v>689.08049952</v>
       </c>
       <c r="H39" t="n">
-        <v>38328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2005,33 +1766,30 @@
         <v>38320</v>
       </c>
       <c r="C40" t="n">
-        <v>38310</v>
+        <v>38330</v>
       </c>
       <c r="D40" t="n">
+        <v>38330</v>
+      </c>
+      <c r="E40" t="n">
         <v>38320</v>
       </c>
-      <c r="E40" t="n">
-        <v>38310</v>
-      </c>
       <c r="F40" t="n">
-        <v>1.591</v>
+        <v>39.6495</v>
       </c>
       <c r="G40" t="n">
-        <v>38592</v>
+        <v>728.72999952</v>
       </c>
       <c r="H40" t="n">
-        <v>38334.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2040,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38380</v>
+        <v>38450</v>
       </c>
       <c r="C41" t="n">
-        <v>38380</v>
+        <v>38450</v>
       </c>
       <c r="D41" t="n">
-        <v>38380</v>
+        <v>38450</v>
       </c>
       <c r="E41" t="n">
-        <v>38380</v>
+        <v>38450</v>
       </c>
       <c r="F41" t="n">
-        <v>4.3122</v>
+        <v>10.5804</v>
       </c>
       <c r="G41" t="n">
-        <v>38580.66666666666</v>
+        <v>739.31039952</v>
       </c>
       <c r="H41" t="n">
-        <v>38345.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>38380</v>
+        <v>38460</v>
       </c>
       <c r="C42" t="n">
-        <v>38380</v>
+        <v>38470</v>
       </c>
       <c r="D42" t="n">
-        <v>38380</v>
+        <v>38470</v>
       </c>
       <c r="E42" t="n">
-        <v>38380</v>
+        <v>38460</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7381</v>
+        <v>31.7317</v>
       </c>
       <c r="G42" t="n">
-        <v>38569.33333333334</v>
+        <v>771.0420995200001</v>
       </c>
       <c r="H42" t="n">
-        <v>38357</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2116,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>38380</v>
+        <v>38470</v>
       </c>
       <c r="C43" t="n">
-        <v>38410</v>
+        <v>38680</v>
       </c>
       <c r="D43" t="n">
-        <v>38410</v>
+        <v>38680</v>
       </c>
       <c r="E43" t="n">
-        <v>38380</v>
+        <v>38470</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3397</v>
+        <v>43.9256</v>
       </c>
       <c r="G43" t="n">
-        <v>38562.66666666666</v>
+        <v>814.9676995200001</v>
       </c>
       <c r="H43" t="n">
-        <v>38371.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>38410</v>
+        <v>38670</v>
       </c>
       <c r="C44" t="n">
-        <v>38410</v>
+        <v>38690</v>
       </c>
       <c r="D44" t="n">
-        <v>38410</v>
+        <v>38690</v>
       </c>
       <c r="E44" t="n">
-        <v>38410</v>
+        <v>38670</v>
       </c>
       <c r="F44" t="n">
-        <v>2.4051</v>
+        <v>3.3189</v>
       </c>
       <c r="G44" t="n">
-        <v>38549.33333333334</v>
+        <v>818.2865995200001</v>
       </c>
       <c r="H44" t="n">
-        <v>38385.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2192,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>38410</v>
+        <v>38730</v>
       </c>
       <c r="C45" t="n">
-        <v>38410</v>
+        <v>38920</v>
       </c>
       <c r="D45" t="n">
-        <v>38410</v>
+        <v>38920</v>
       </c>
       <c r="E45" t="n">
-        <v>38410</v>
+        <v>38730</v>
       </c>
       <c r="F45" t="n">
-        <v>2.6656</v>
+        <v>3.75624845</v>
       </c>
       <c r="G45" t="n">
-        <v>38534.66666666666</v>
+        <v>822.0428479700001</v>
       </c>
       <c r="H45" t="n">
-        <v>38398.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>38410</v>
+        <v>38930</v>
       </c>
       <c r="C46" t="n">
-        <v>38410</v>
+        <v>39500</v>
       </c>
       <c r="D46" t="n">
-        <v>38410</v>
+        <v>39500</v>
       </c>
       <c r="E46" t="n">
-        <v>38410</v>
+        <v>38930</v>
       </c>
       <c r="F46" t="n">
-        <v>21.7711</v>
+        <v>69.06189999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>38506.66666666666</v>
+        <v>891.1047479700002</v>
       </c>
       <c r="H46" t="n">
-        <v>38409.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>38410</v>
+        <v>39090</v>
       </c>
       <c r="C47" t="n">
-        <v>38410</v>
+        <v>39240</v>
       </c>
       <c r="D47" t="n">
-        <v>38410</v>
+        <v>39500</v>
       </c>
       <c r="E47" t="n">
-        <v>38410</v>
+        <v>38520</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5789</v>
+        <v>34.9852</v>
       </c>
       <c r="G47" t="n">
-        <v>38478.66666666666</v>
+        <v>856.1195479700002</v>
       </c>
       <c r="H47" t="n">
-        <v>38419.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>38410</v>
+        <v>39050</v>
       </c>
       <c r="C48" t="n">
-        <v>38410</v>
+        <v>39040</v>
       </c>
       <c r="D48" t="n">
-        <v>38410</v>
+        <v>39050</v>
       </c>
       <c r="E48" t="n">
-        <v>38410</v>
+        <v>39040</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0165</v>
+        <v>4.2231</v>
       </c>
       <c r="G48" t="n">
-        <v>38420</v>
+        <v>851.8964479700002</v>
       </c>
       <c r="H48" t="n">
-        <v>38427.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2344,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>38500</v>
+        <v>39220</v>
       </c>
       <c r="C49" t="n">
-        <v>38500</v>
+        <v>39220</v>
       </c>
       <c r="D49" t="n">
-        <v>38500</v>
+        <v>39220</v>
       </c>
       <c r="E49" t="n">
-        <v>38500</v>
+        <v>39220</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03</v>
+        <v>3.323</v>
       </c>
       <c r="G49" t="n">
-        <v>38406</v>
+        <v>855.2194479700001</v>
       </c>
       <c r="H49" t="n">
-        <v>38442.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2382,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38280</v>
+        <v>38570</v>
       </c>
       <c r="C50" t="n">
-        <v>38280</v>
+        <v>38570</v>
       </c>
       <c r="D50" t="n">
-        <v>38280</v>
+        <v>38570</v>
       </c>
       <c r="E50" t="n">
-        <v>38280</v>
+        <v>38570</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>3.7563</v>
       </c>
       <c r="G50" t="n">
-        <v>38397.33333333334</v>
+        <v>851.4631479700001</v>
       </c>
       <c r="H50" t="n">
-        <v>38453.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2420,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38100</v>
+        <v>38890</v>
       </c>
       <c r="C51" t="n">
-        <v>38100</v>
+        <v>38700</v>
       </c>
       <c r="D51" t="n">
-        <v>38100</v>
+        <v>38890</v>
       </c>
       <c r="E51" t="n">
-        <v>38100</v>
+        <v>38700</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2725</v>
+        <v>3.323</v>
       </c>
       <c r="G51" t="n">
-        <v>38372.66666666666</v>
+        <v>854.7861479700001</v>
       </c>
       <c r="H51" t="n">
-        <v>38461.5</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2458,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>37900</v>
+        <v>38630</v>
       </c>
       <c r="C52" t="n">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="D52" t="n">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="E52" t="n">
-        <v>37900</v>
+        <v>38630</v>
       </c>
       <c r="F52" t="n">
-        <v>2.473</v>
+        <v>15.5</v>
       </c>
       <c r="G52" t="n">
-        <v>38334.66666666666</v>
+        <v>870.2861479700001</v>
       </c>
       <c r="H52" t="n">
-        <v>38466.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>37940</v>
+        <v>38900</v>
       </c>
       <c r="C53" t="n">
-        <v>37940</v>
+        <v>38930</v>
       </c>
       <c r="D53" t="n">
-        <v>37940</v>
+        <v>38930</v>
       </c>
       <c r="E53" t="n">
-        <v>37940</v>
+        <v>38900</v>
       </c>
       <c r="F53" t="n">
-        <v>0.85</v>
+        <v>7</v>
       </c>
       <c r="G53" t="n">
-        <v>38304</v>
+        <v>877.2861479700001</v>
       </c>
       <c r="H53" t="n">
-        <v>38467.5</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2534,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>37710</v>
+        <v>38550</v>
       </c>
       <c r="C54" t="n">
-        <v>37710</v>
+        <v>38550</v>
       </c>
       <c r="D54" t="n">
-        <v>37710</v>
+        <v>38550</v>
       </c>
       <c r="E54" t="n">
-        <v>37710</v>
+        <v>38550</v>
       </c>
       <c r="F54" t="n">
-        <v>2.663</v>
+        <v>1.3471</v>
       </c>
       <c r="G54" t="n">
-        <v>38264</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H54" t="n">
-        <v>38464.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2572,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>37790</v>
+        <v>38550</v>
       </c>
       <c r="C55" t="n">
-        <v>37790</v>
+        <v>38550</v>
       </c>
       <c r="D55" t="n">
-        <v>37790</v>
+        <v>38550</v>
       </c>
       <c r="E55" t="n">
-        <v>37790</v>
+        <v>38550</v>
       </c>
       <c r="F55" t="n">
-        <v>13.1443</v>
+        <v>2.4189</v>
       </c>
       <c r="G55" t="n">
-        <v>38229.33333333334</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H55" t="n">
-        <v>38459</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2610,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>37810</v>
+        <v>38550</v>
       </c>
       <c r="C56" t="n">
-        <v>37810</v>
+        <v>38550</v>
       </c>
       <c r="D56" t="n">
-        <v>37810</v>
+        <v>38550</v>
       </c>
       <c r="E56" t="n">
-        <v>37810</v>
+        <v>38550</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2511</v>
+        <v>0.0234</v>
       </c>
       <c r="G56" t="n">
-        <v>38191.33333333334</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H56" t="n">
-        <v>38453.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2648,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>37820</v>
+        <v>38520</v>
       </c>
       <c r="C57" t="n">
-        <v>37830</v>
+        <v>38510</v>
       </c>
       <c r="D57" t="n">
-        <v>37830</v>
+        <v>38520</v>
       </c>
       <c r="E57" t="n">
-        <v>37820</v>
+        <v>38510</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5415</v>
+        <v>69.425</v>
       </c>
       <c r="G57" t="n">
-        <v>38154.66666666666</v>
+        <v>806.5140479700002</v>
       </c>
       <c r="H57" t="n">
-        <v>38447.5</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2686,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>37840</v>
+        <v>38610</v>
       </c>
       <c r="C58" t="n">
-        <v>37840</v>
+        <v>38610</v>
       </c>
       <c r="D58" t="n">
-        <v>37840</v>
+        <v>38610</v>
       </c>
       <c r="E58" t="n">
-        <v>37840</v>
+        <v>38610</v>
       </c>
       <c r="F58" t="n">
-        <v>0.106</v>
+        <v>0.7473</v>
       </c>
       <c r="G58" t="n">
-        <v>38116.66666666666</v>
+        <v>807.2613479700002</v>
       </c>
       <c r="H58" t="n">
-        <v>38438.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>37850</v>
+        <v>38630</v>
       </c>
       <c r="C59" t="n">
-        <v>37850</v>
+        <v>38630</v>
       </c>
       <c r="D59" t="n">
-        <v>37850</v>
+        <v>38630</v>
       </c>
       <c r="E59" t="n">
-        <v>37850</v>
+        <v>38630</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2725</v>
+        <v>0.8837</v>
       </c>
       <c r="G59" t="n">
-        <v>38079.33333333334</v>
+        <v>808.1450479700002</v>
       </c>
       <c r="H59" t="n">
-        <v>38422.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2762,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38490</v>
+        <v>38820</v>
       </c>
       <c r="C60" t="n">
-        <v>38490</v>
+        <v>38830</v>
       </c>
       <c r="D60" t="n">
-        <v>38500</v>
+        <v>38830</v>
       </c>
       <c r="E60" t="n">
-        <v>38490</v>
+        <v>38820</v>
       </c>
       <c r="F60" t="n">
-        <v>3.1818</v>
+        <v>0.7976</v>
       </c>
       <c r="G60" t="n">
-        <v>38084.66666666666</v>
+        <v>808.9426479700002</v>
       </c>
       <c r="H60" t="n">
-        <v>38421.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2800,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38490</v>
+        <v>38830</v>
       </c>
       <c r="C61" t="n">
-        <v>38500</v>
+        <v>38830</v>
       </c>
       <c r="D61" t="n">
-        <v>38500</v>
+        <v>38830</v>
       </c>
       <c r="E61" t="n">
-        <v>38490</v>
+        <v>38830</v>
       </c>
       <c r="F61" t="n">
-        <v>22.4493</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>38090.66666666666</v>
+        <v>808.9426479700002</v>
       </c>
       <c r="H61" t="n">
-        <v>38427.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2838,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>38600</v>
+        <v>39290</v>
       </c>
       <c r="C62" t="n">
-        <v>38600</v>
+        <v>39290</v>
       </c>
       <c r="D62" t="n">
-        <v>38600</v>
+        <v>39290</v>
       </c>
       <c r="E62" t="n">
-        <v>38600</v>
+        <v>39290</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8264</v>
+        <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>38103.33333333334</v>
+        <v>809.0426479700002</v>
       </c>
       <c r="H62" t="n">
-        <v>38435.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2876,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="C63" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="D63" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="E63" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="F63" t="n">
-        <v>3.1506</v>
+        <v>0.286</v>
       </c>
       <c r="G63" t="n">
-        <v>38098</v>
+        <v>808.7566479700002</v>
       </c>
       <c r="H63" t="n">
-        <v>38438.5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>38240</v>
+        <v>38510</v>
       </c>
       <c r="C64" t="n">
-        <v>38230</v>
+        <v>38410</v>
       </c>
       <c r="D64" t="n">
-        <v>38240</v>
+        <v>38510</v>
       </c>
       <c r="E64" t="n">
-        <v>38230</v>
+        <v>38410</v>
       </c>
       <c r="F64" t="n">
-        <v>2.5519</v>
+        <v>8.392899999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>38080</v>
+        <v>800.3637479700002</v>
       </c>
       <c r="H64" t="n">
-        <v>38440.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="C65" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="D65" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="E65" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="F65" t="n">
-        <v>2</v>
+        <v>4.4598</v>
       </c>
       <c r="G65" t="n">
-        <v>38100</v>
+        <v>804.8235479700002</v>
       </c>
       <c r="H65" t="n">
-        <v>38447.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2990,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="C66" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="D66" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="E66" t="n">
-        <v>38580</v>
+        <v>38470</v>
       </c>
       <c r="F66" t="n">
-        <v>8</v>
+        <v>5.5402</v>
       </c>
       <c r="G66" t="n">
-        <v>38132</v>
+        <v>804.8235479700002</v>
       </c>
       <c r="H66" t="n">
-        <v>38461.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="C67" t="n">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="D67" t="n">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="E67" t="n">
-        <v>38600</v>
+        <v>38400</v>
       </c>
       <c r="F67" t="n">
-        <v>2.8591</v>
+        <v>16.9852</v>
       </c>
       <c r="G67" t="n">
-        <v>38178.66666666666</v>
+        <v>787.8383479700002</v>
       </c>
       <c r="H67" t="n">
-        <v>38474.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3066,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>38740</v>
+        <v>38310</v>
       </c>
       <c r="C68" t="n">
-        <v>38740</v>
+        <v>38310</v>
       </c>
       <c r="D68" t="n">
-        <v>38740</v>
+        <v>38310</v>
       </c>
       <c r="E68" t="n">
-        <v>38740</v>
+        <v>38310</v>
       </c>
       <c r="F68" t="n">
-        <v>7.1681</v>
+        <v>0.1211</v>
       </c>
       <c r="G68" t="n">
-        <v>38232</v>
+        <v>787.7172479700002</v>
       </c>
       <c r="H68" t="n">
-        <v>38482.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3104,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>38740</v>
+        <v>38320</v>
       </c>
       <c r="C69" t="n">
-        <v>38740</v>
+        <v>38310</v>
       </c>
       <c r="D69" t="n">
-        <v>38740</v>
+        <v>38320</v>
       </c>
       <c r="E69" t="n">
-        <v>38740</v>
+        <v>38310</v>
       </c>
       <c r="F69" t="n">
-        <v>41.6164</v>
+        <v>1.591</v>
       </c>
       <c r="G69" t="n">
-        <v>38300.66666666666</v>
+        <v>787.7172479700002</v>
       </c>
       <c r="H69" t="n">
-        <v>38490.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="C70" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="D70" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="E70" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="F70" t="n">
-        <v>8.3849</v>
+        <v>4.3122</v>
       </c>
       <c r="G70" t="n">
-        <v>38364</v>
+        <v>792.0294479700002</v>
       </c>
       <c r="H70" t="n">
-        <v>38497.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="C71" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="D71" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="E71" t="n">
-        <v>38740</v>
+        <v>38380</v>
       </c>
       <c r="F71" t="n">
-        <v>1.1212</v>
+        <v>0.7381</v>
       </c>
       <c r="G71" t="n">
-        <v>38426</v>
+        <v>792.0294479700002</v>
       </c>
       <c r="H71" t="n">
-        <v>38504.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3218,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>38750</v>
+        <v>38380</v>
       </c>
       <c r="C72" t="n">
-        <v>38750</v>
+        <v>38410</v>
       </c>
       <c r="D72" t="n">
-        <v>38750</v>
+        <v>38410</v>
       </c>
       <c r="E72" t="n">
-        <v>38750</v>
+        <v>38380</v>
       </c>
       <c r="F72" t="n">
-        <v>1.7</v>
+        <v>0.3397</v>
       </c>
       <c r="G72" t="n">
-        <v>38487.33333333334</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H72" t="n">
-        <v>38509.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3256,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>38770</v>
+        <v>38410</v>
       </c>
       <c r="C73" t="n">
-        <v>38770</v>
+        <v>38410</v>
       </c>
       <c r="D73" t="n">
-        <v>38770</v>
+        <v>38410</v>
       </c>
       <c r="E73" t="n">
-        <v>38770</v>
+        <v>38410</v>
       </c>
       <c r="F73" t="n">
-        <v>12.04</v>
+        <v>2.4051</v>
       </c>
       <c r="G73" t="n">
-        <v>38549.33333333334</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H73" t="n">
-        <v>38514.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3294,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38770</v>
+        <v>38410</v>
       </c>
       <c r="C74" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="D74" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="E74" t="n">
-        <v>38770</v>
+        <v>38410</v>
       </c>
       <c r="F74" t="n">
-        <v>12.1</v>
+        <v>2.6656</v>
       </c>
       <c r="G74" t="n">
-        <v>38626</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H74" t="n">
-        <v>38520</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3332,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="C75" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="D75" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="E75" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1</v>
+        <v>21.7711</v>
       </c>
       <c r="G75" t="n">
-        <v>38660</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H75" t="n">
-        <v>38525.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="C76" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="D76" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="E76" t="n">
-        <v>39000</v>
+        <v>38410</v>
       </c>
       <c r="F76" t="n">
-        <v>70.2805</v>
+        <v>0.5789</v>
       </c>
       <c r="G76" t="n">
-        <v>38693.33333333334</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H76" t="n">
-        <v>38526.5</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>39060</v>
+        <v>38410</v>
       </c>
       <c r="C77" t="n">
-        <v>39060</v>
+        <v>38410</v>
       </c>
       <c r="D77" t="n">
-        <v>39060</v>
+        <v>38410</v>
       </c>
       <c r="E77" t="n">
-        <v>39060</v>
+        <v>38410</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1</v>
+        <v>0.0165</v>
       </c>
       <c r="G77" t="n">
-        <v>38724</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H77" t="n">
-        <v>38519.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3446,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>38780</v>
+        <v>38500</v>
       </c>
       <c r="C78" t="n">
-        <v>38580</v>
+        <v>38500</v>
       </c>
       <c r="D78" t="n">
-        <v>38780</v>
+        <v>38500</v>
       </c>
       <c r="E78" t="n">
-        <v>38580</v>
+        <v>38500</v>
       </c>
       <c r="F78" t="n">
-        <v>4.8822</v>
+        <v>0.03</v>
       </c>
       <c r="G78" t="n">
-        <v>38740.66666666666</v>
+        <v>792.3991479700002</v>
       </c>
       <c r="H78" t="n">
-        <v>38508.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38370</v>
+        <v>38280</v>
       </c>
       <c r="C79" t="n">
-        <v>38370</v>
+        <v>38280</v>
       </c>
       <c r="D79" t="n">
-        <v>38370</v>
+        <v>38280</v>
       </c>
       <c r="E79" t="n">
-        <v>38370</v>
+        <v>38280</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6205000000000001</v>
+        <v>5</v>
       </c>
       <c r="G79" t="n">
-        <v>38750</v>
+        <v>787.3991479700002</v>
       </c>
       <c r="H79" t="n">
-        <v>38497</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3522,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>38260</v>
+        <v>38100</v>
       </c>
       <c r="C80" t="n">
-        <v>38250</v>
+        <v>38100</v>
       </c>
       <c r="D80" t="n">
-        <v>38260</v>
+        <v>38100</v>
       </c>
       <c r="E80" t="n">
-        <v>38250</v>
+        <v>38100</v>
       </c>
       <c r="F80" t="n">
-        <v>1.9906</v>
+        <v>0.2725</v>
       </c>
       <c r="G80" t="n">
-        <v>38728</v>
+        <v>787.1266479700001</v>
       </c>
       <c r="H80" t="n">
-        <v>38480.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3560,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>38250</v>
+        <v>37900</v>
       </c>
       <c r="C81" t="n">
-        <v>38250</v>
+        <v>37900</v>
       </c>
       <c r="D81" t="n">
-        <v>38250</v>
+        <v>37900</v>
       </c>
       <c r="E81" t="n">
-        <v>38250</v>
+        <v>37900</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1103</v>
+        <v>2.473</v>
       </c>
       <c r="G81" t="n">
-        <v>38706</v>
+        <v>784.6536479700002</v>
       </c>
       <c r="H81" t="n">
-        <v>38475.5</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>38250</v>
+        <v>37940</v>
       </c>
       <c r="C82" t="n">
-        <v>38250</v>
+        <v>37940</v>
       </c>
       <c r="D82" t="n">
-        <v>38250</v>
+        <v>37940</v>
       </c>
       <c r="E82" t="n">
-        <v>38250</v>
+        <v>37940</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0223</v>
+        <v>0.85</v>
       </c>
       <c r="G82" t="n">
-        <v>38682.66666666666</v>
+        <v>785.5036479700002</v>
       </c>
       <c r="H82" t="n">
-        <v>38468</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3636,42 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38060</v>
+        <v>37710</v>
       </c>
       <c r="C83" t="n">
-        <v>38050</v>
+        <v>37710</v>
       </c>
       <c r="D83" t="n">
-        <v>38060</v>
+        <v>37710</v>
       </c>
       <c r="E83" t="n">
-        <v>38050</v>
+        <v>37710</v>
       </c>
       <c r="F83" t="n">
-        <v>2.561</v>
+        <v>2.663</v>
       </c>
       <c r="G83" t="n">
-        <v>38636.66666666666</v>
+        <v>782.8406479700002</v>
       </c>
       <c r="H83" t="n">
-        <v>38455.5</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>38250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3680,42 +3303,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>38040</v>
+        <v>37790</v>
       </c>
       <c r="C84" t="n">
-        <v>38040</v>
+        <v>37790</v>
       </c>
       <c r="D84" t="n">
-        <v>38040</v>
+        <v>37790</v>
       </c>
       <c r="E84" t="n">
-        <v>38040</v>
+        <v>37790</v>
       </c>
       <c r="F84" t="n">
-        <v>4.6122</v>
+        <v>13.1443</v>
       </c>
       <c r="G84" t="n">
-        <v>38590</v>
+        <v>795.9849479700002</v>
       </c>
       <c r="H84" t="n">
-        <v>38440.66666666666</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>37710</v>
       </c>
       <c r="K84" t="n">
-        <v>38050</v>
+        <v>37710</v>
       </c>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,42 +3342,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>38010</v>
+        <v>37810</v>
       </c>
       <c r="C85" t="n">
-        <v>38010</v>
+        <v>37810</v>
       </c>
       <c r="D85" t="n">
-        <v>38010</v>
+        <v>37810</v>
       </c>
       <c r="E85" t="n">
-        <v>38010</v>
+        <v>37810</v>
       </c>
       <c r="F85" t="n">
-        <v>70.2805</v>
+        <v>0.2511</v>
       </c>
       <c r="G85" t="n">
-        <v>38541.33333333334</v>
+        <v>796.2360479700002</v>
       </c>
       <c r="H85" t="n">
-        <v>38431.66666666666</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>37790</v>
       </c>
       <c r="K85" t="n">
-        <v>38040</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>37710</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3768,42 +3385,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38020</v>
+        <v>37820</v>
       </c>
       <c r="C86" t="n">
-        <v>38020</v>
+        <v>37830</v>
       </c>
       <c r="D86" t="n">
-        <v>38020</v>
+        <v>37830</v>
       </c>
       <c r="E86" t="n">
-        <v>38020</v>
+        <v>37820</v>
       </c>
       <c r="F86" t="n">
-        <v>22.2154</v>
+        <v>0.5415</v>
       </c>
       <c r="G86" t="n">
-        <v>38493.33333333334</v>
+        <v>796.7775479700002</v>
       </c>
       <c r="H86" t="n">
-        <v>38422.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>38010</v>
-      </c>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>37710</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,42 +3426,37 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38010</v>
+        <v>37840</v>
       </c>
       <c r="C87" t="n">
-        <v>38010</v>
+        <v>37840</v>
       </c>
       <c r="D87" t="n">
-        <v>38010</v>
+        <v>37840</v>
       </c>
       <c r="E87" t="n">
-        <v>38010</v>
+        <v>37840</v>
       </c>
       <c r="F87" t="n">
-        <v>10.8684</v>
+        <v>0.106</v>
       </c>
       <c r="G87" t="n">
-        <v>38444</v>
+        <v>796.8835479700002</v>
       </c>
       <c r="H87" t="n">
-        <v>38413.83333333334</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>37830</v>
       </c>
       <c r="K87" t="n">
-        <v>38020</v>
+        <v>37830</v>
       </c>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3856,42 +3465,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>38080</v>
+        <v>37850</v>
       </c>
       <c r="C88" t="n">
-        <v>38080</v>
+        <v>37850</v>
       </c>
       <c r="D88" t="n">
-        <v>38080</v>
+        <v>37850</v>
       </c>
       <c r="E88" t="n">
-        <v>38080</v>
+        <v>37850</v>
       </c>
       <c r="F88" t="n">
-        <v>8.4946</v>
+        <v>0.2725</v>
       </c>
       <c r="G88" t="n">
-        <v>38398</v>
+        <v>797.1560479700003</v>
       </c>
       <c r="H88" t="n">
-        <v>38406.66666666666</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>37840</v>
       </c>
       <c r="K88" t="n">
-        <v>38010</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3900,42 +3508,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38080</v>
+        <v>38490</v>
       </c>
       <c r="C89" t="n">
-        <v>38020</v>
+        <v>38490</v>
       </c>
       <c r="D89" t="n">
-        <v>38080</v>
+        <v>38500</v>
       </c>
       <c r="E89" t="n">
-        <v>38020</v>
+        <v>38490</v>
       </c>
       <c r="F89" t="n">
-        <v>27.612</v>
+        <v>3.1818</v>
       </c>
       <c r="G89" t="n">
-        <v>38332.66666666666</v>
+        <v>800.3378479700002</v>
       </c>
       <c r="H89" t="n">
-        <v>38396.83333333334</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>37850</v>
       </c>
       <c r="K89" t="n">
-        <v>38080</v>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,42 +3551,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>38010</v>
+        <v>38490</v>
       </c>
       <c r="C90" t="n">
-        <v>38010</v>
+        <v>38500</v>
       </c>
       <c r="D90" t="n">
-        <v>38010</v>
+        <v>38500</v>
       </c>
       <c r="E90" t="n">
-        <v>38010</v>
+        <v>38490</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6646</v>
+        <v>22.4493</v>
       </c>
       <c r="G90" t="n">
-        <v>38266.66666666666</v>
+        <v>822.7871479700002</v>
       </c>
       <c r="H90" t="n">
-        <v>38386.5</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>38490</v>
       </c>
       <c r="K90" t="n">
-        <v>38020</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,42 +3594,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>38010</v>
+        <v>38600</v>
       </c>
       <c r="C91" t="n">
-        <v>38060</v>
+        <v>38600</v>
       </c>
       <c r="D91" t="n">
-        <v>38060</v>
+        <v>38600</v>
       </c>
       <c r="E91" t="n">
-        <v>37710</v>
+        <v>38600</v>
       </c>
       <c r="F91" t="n">
-        <v>206.1457</v>
+        <v>0.8264</v>
       </c>
       <c r="G91" t="n">
-        <v>38204</v>
+        <v>823.6135479700002</v>
       </c>
       <c r="H91" t="n">
-        <v>38373.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>38010</v>
-      </c>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
+        <v>37830</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4032,40 +3635,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38110</v>
+        <v>38330</v>
       </c>
       <c r="C92" t="n">
-        <v>38110</v>
+        <v>38330</v>
       </c>
       <c r="D92" t="n">
-        <v>38110</v>
+        <v>38330</v>
       </c>
       <c r="E92" t="n">
-        <v>38110</v>
+        <v>38330</v>
       </c>
       <c r="F92" t="n">
-        <v>5.5361</v>
+        <v>3.1506</v>
       </c>
       <c r="G92" t="n">
-        <v>38140.66666666666</v>
+        <v>820.4629479700002</v>
       </c>
       <c r="H92" t="n">
-        <v>38361.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,40 +3676,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>38250</v>
+        <v>38240</v>
       </c>
       <c r="C93" t="n">
-        <v>38250</v>
+        <v>38230</v>
       </c>
       <c r="D93" t="n">
-        <v>38250</v>
+        <v>38240</v>
       </c>
       <c r="E93" t="n">
-        <v>38250</v>
+        <v>38230</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6805</v>
+        <v>2.5519</v>
       </c>
       <c r="G93" t="n">
-        <v>38118.66666666666</v>
+        <v>817.9110479700001</v>
       </c>
       <c r="H93" t="n">
-        <v>38344.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4116,40 +3717,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>38110</v>
+        <v>38580</v>
       </c>
       <c r="C94" t="n">
-        <v>38060</v>
+        <v>38580</v>
       </c>
       <c r="D94" t="n">
-        <v>38110</v>
+        <v>38580</v>
       </c>
       <c r="E94" t="n">
-        <v>38060</v>
+        <v>38580</v>
       </c>
       <c r="F94" t="n">
-        <v>7.6654</v>
+        <v>2</v>
       </c>
       <c r="G94" t="n">
-        <v>38098</v>
+        <v>819.9110479700001</v>
       </c>
       <c r="H94" t="n">
-        <v>38333.5</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,42 +3758,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38050</v>
+        <v>38580</v>
       </c>
       <c r="C95" t="n">
-        <v>38050</v>
+        <v>38580</v>
       </c>
       <c r="D95" t="n">
-        <v>38050</v>
+        <v>38580</v>
       </c>
       <c r="E95" t="n">
-        <v>38050</v>
+        <v>38580</v>
       </c>
       <c r="F95" t="n">
-        <v>6.0019</v>
+        <v>8</v>
       </c>
       <c r="G95" t="n">
-        <v>38084.66666666666</v>
+        <v>819.9110479700001</v>
       </c>
       <c r="H95" t="n">
-        <v>38327.5</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>38060</v>
-      </c>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
+        <v>37830</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4202,42 +3799,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>38050</v>
+        <v>38600</v>
       </c>
       <c r="C96" t="n">
-        <v>38050</v>
+        <v>38600</v>
       </c>
       <c r="D96" t="n">
-        <v>38050</v>
+        <v>38600</v>
       </c>
       <c r="E96" t="n">
-        <v>38050</v>
+        <v>38600</v>
       </c>
       <c r="F96" t="n">
-        <v>1.6173</v>
+        <v>2.8591</v>
       </c>
       <c r="G96" t="n">
-        <v>38071.33333333334</v>
+        <v>822.7701479700002</v>
       </c>
       <c r="H96" t="n">
-        <v>38320.5</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>38050</v>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
+        <v>37830</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,42 +3840,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>38230</v>
+        <v>38740</v>
       </c>
       <c r="C97" t="n">
-        <v>38540</v>
+        <v>38740</v>
       </c>
       <c r="D97" t="n">
-        <v>38540</v>
+        <v>38740</v>
       </c>
       <c r="E97" t="n">
-        <v>38230</v>
+        <v>38740</v>
       </c>
       <c r="F97" t="n">
-        <v>33.5</v>
+        <v>7.1681</v>
       </c>
       <c r="G97" t="n">
-        <v>38090.66666666666</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H97" t="n">
-        <v>38321.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>38050</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
+        <v>37830</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4290,40 +3881,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>38360</v>
+        <v>38740</v>
       </c>
       <c r="C98" t="n">
-        <v>38730</v>
+        <v>38740</v>
       </c>
       <c r="D98" t="n">
-        <v>38730</v>
+        <v>38740</v>
       </c>
       <c r="E98" t="n">
-        <v>38360</v>
+        <v>38740</v>
       </c>
       <c r="F98" t="n">
-        <v>3.5789</v>
+        <v>41.6164</v>
       </c>
       <c r="G98" t="n">
-        <v>38136</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H98" t="n">
-        <v>38327.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,40 +3922,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>38320</v>
+        <v>38740</v>
       </c>
       <c r="C99" t="n">
-        <v>38310</v>
+        <v>38740</v>
       </c>
       <c r="D99" t="n">
-        <v>38320</v>
+        <v>38740</v>
       </c>
       <c r="E99" t="n">
-        <v>38310</v>
+        <v>38740</v>
       </c>
       <c r="F99" t="n">
-        <v>4.5538</v>
+        <v>8.3849</v>
       </c>
       <c r="G99" t="n">
-        <v>38154</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H99" t="n">
-        <v>38327.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,40 +3963,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>38200</v>
+        <v>38740</v>
       </c>
       <c r="C100" t="n">
-        <v>38200</v>
+        <v>38740</v>
       </c>
       <c r="D100" t="n">
-        <v>38200</v>
+        <v>38740</v>
       </c>
       <c r="E100" t="n">
-        <v>38200</v>
+        <v>38740</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>1.1212</v>
       </c>
       <c r="G100" t="n">
-        <v>38166.66666666666</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H100" t="n">
-        <v>38325.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,40 +4004,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38480</v>
+        <v>38750</v>
       </c>
       <c r="C101" t="n">
-        <v>38190</v>
+        <v>38750</v>
       </c>
       <c r="D101" t="n">
-        <v>38490</v>
+        <v>38750</v>
       </c>
       <c r="E101" t="n">
-        <v>38190</v>
+        <v>38750</v>
       </c>
       <c r="F101" t="n">
-        <v>8.451000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="G101" t="n">
-        <v>38178</v>
+        <v>831.6382479700002</v>
       </c>
       <c r="H101" t="n">
-        <v>38322.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,40 +4045,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38510</v>
+        <v>38770</v>
       </c>
       <c r="C102" t="n">
-        <v>38250</v>
+        <v>38770</v>
       </c>
       <c r="D102" t="n">
-        <v>38720</v>
+        <v>38770</v>
       </c>
       <c r="E102" t="n">
-        <v>38250</v>
+        <v>38770</v>
       </c>
       <c r="F102" t="n">
-        <v>400.0205</v>
+        <v>12.04</v>
       </c>
       <c r="G102" t="n">
-        <v>38194</v>
+        <v>843.6782479700001</v>
       </c>
       <c r="H102" t="n">
-        <v>38320</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,40 +4086,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38460</v>
+        <v>38770</v>
       </c>
       <c r="C103" t="n">
-        <v>38450</v>
+        <v>39000</v>
       </c>
       <c r="D103" t="n">
-        <v>38460</v>
+        <v>39000</v>
       </c>
       <c r="E103" t="n">
-        <v>38450</v>
+        <v>38770</v>
       </c>
       <c r="F103" t="n">
-        <v>34.0016</v>
+        <v>12.1</v>
       </c>
       <c r="G103" t="n">
-        <v>38218.66666666666</v>
+        <v>855.7782479700002</v>
       </c>
       <c r="H103" t="n">
-        <v>38320.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,40 +4127,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>38460</v>
+        <v>39000</v>
       </c>
       <c r="C104" t="n">
-        <v>38460</v>
+        <v>39000</v>
       </c>
       <c r="D104" t="n">
-        <v>38460</v>
+        <v>39000</v>
       </c>
       <c r="E104" t="n">
-        <v>38460</v>
+        <v>39000</v>
       </c>
       <c r="F104" t="n">
-        <v>9.459</v>
+        <v>0.1</v>
       </c>
       <c r="G104" t="n">
-        <v>38248</v>
+        <v>855.7782479700002</v>
       </c>
       <c r="H104" t="n">
-        <v>38321.5</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,40 +4168,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="C105" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="D105" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="E105" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="F105" t="n">
-        <v>1.03</v>
+        <v>70.2805</v>
       </c>
       <c r="G105" t="n">
-        <v>38294.66666666666</v>
+        <v>855.7782479700002</v>
       </c>
       <c r="H105" t="n">
-        <v>38326.5</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4626,40 +4209,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>38720</v>
+        <v>39060</v>
       </c>
       <c r="C106" t="n">
-        <v>38510</v>
+        <v>39060</v>
       </c>
       <c r="D106" t="n">
-        <v>38720</v>
+        <v>39060</v>
       </c>
       <c r="E106" t="n">
-        <v>38510</v>
+        <v>39060</v>
       </c>
       <c r="F106" t="n">
-        <v>28.7112</v>
+        <v>0.1</v>
       </c>
       <c r="G106" t="n">
-        <v>38324.66666666666</v>
+        <v>855.8782479700002</v>
       </c>
       <c r="H106" t="n">
-        <v>38328.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,40 +4250,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38520</v>
+        <v>38780</v>
       </c>
       <c r="C107" t="n">
-        <v>38510</v>
+        <v>38580</v>
       </c>
       <c r="D107" t="n">
-        <v>38520</v>
+        <v>38780</v>
       </c>
       <c r="E107" t="n">
-        <v>38510</v>
+        <v>38580</v>
       </c>
       <c r="F107" t="n">
-        <v>8.0769</v>
+        <v>4.8822</v>
       </c>
       <c r="G107" t="n">
-        <v>38351.33333333334</v>
+        <v>850.9960479700002</v>
       </c>
       <c r="H107" t="n">
-        <v>38329.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,40 +4291,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>38530</v>
+        <v>38370</v>
       </c>
       <c r="C108" t="n">
-        <v>38530</v>
+        <v>38370</v>
       </c>
       <c r="D108" t="n">
-        <v>38530</v>
+        <v>38370</v>
       </c>
       <c r="E108" t="n">
-        <v>38530</v>
+        <v>38370</v>
       </c>
       <c r="F108" t="n">
-        <v>6</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="G108" t="n">
-        <v>38370</v>
+        <v>850.3755479700002</v>
       </c>
       <c r="H108" t="n">
-        <v>38331.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,40 +4332,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38530</v>
+        <v>38260</v>
       </c>
       <c r="C109" t="n">
-        <v>38790</v>
+        <v>38250</v>
       </c>
       <c r="D109" t="n">
-        <v>38790</v>
+        <v>38260</v>
       </c>
       <c r="E109" t="n">
-        <v>38530</v>
+        <v>38250</v>
       </c>
       <c r="F109" t="n">
-        <v>19.6999</v>
+        <v>1.9906</v>
       </c>
       <c r="G109" t="n">
-        <v>38418.66666666666</v>
+        <v>848.3849479700002</v>
       </c>
       <c r="H109" t="n">
-        <v>38336.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,40 +4373,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="C110" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="D110" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="E110" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="F110" t="n">
-        <v>2.2968</v>
+        <v>0.1103</v>
       </c>
       <c r="G110" t="n">
-        <v>38482</v>
+        <v>848.3849479700002</v>
       </c>
       <c r="H110" t="n">
-        <v>38348.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4836,40 +4414,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="C111" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="D111" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="E111" t="n">
-        <v>39000</v>
+        <v>38250</v>
       </c>
       <c r="F111" t="n">
-        <v>8.4421</v>
+        <v>0.0223</v>
       </c>
       <c r="G111" t="n">
-        <v>38545.33333333334</v>
+        <v>848.3849479700002</v>
       </c>
       <c r="H111" t="n">
-        <v>38363.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,40 +4455,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>39080</v>
+        <v>38060</v>
       </c>
       <c r="C112" t="n">
-        <v>38830</v>
+        <v>38050</v>
       </c>
       <c r="D112" t="n">
-        <v>39080</v>
+        <v>38060</v>
       </c>
       <c r="E112" t="n">
-        <v>38830</v>
+        <v>38050</v>
       </c>
       <c r="F112" t="n">
-        <v>65.3665</v>
+        <v>2.561</v>
       </c>
       <c r="G112" t="n">
-        <v>38564.66666666666</v>
+        <v>845.8239479700002</v>
       </c>
       <c r="H112" t="n">
-        <v>38379.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,40 +4496,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>38560</v>
+        <v>38040</v>
       </c>
       <c r="C113" t="n">
-        <v>38560</v>
+        <v>38040</v>
       </c>
       <c r="D113" t="n">
-        <v>38560</v>
+        <v>38040</v>
       </c>
       <c r="E113" t="n">
-        <v>38560</v>
+        <v>38040</v>
       </c>
       <c r="F113" t="n">
-        <v>21.6144</v>
+        <v>4.6122</v>
       </c>
       <c r="G113" t="n">
-        <v>38553.33333333334</v>
+        <v>841.2117479700001</v>
       </c>
       <c r="H113" t="n">
-        <v>38389.5</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,40 +4537,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38560</v>
+        <v>38010</v>
       </c>
       <c r="C114" t="n">
-        <v>38530</v>
+        <v>38010</v>
       </c>
       <c r="D114" t="n">
-        <v>38560</v>
+        <v>38010</v>
       </c>
       <c r="E114" t="n">
-        <v>38510</v>
+        <v>38010</v>
       </c>
       <c r="F114" t="n">
-        <v>8.8058</v>
+        <v>70.2805</v>
       </c>
       <c r="G114" t="n">
-        <v>38568</v>
+        <v>770.9312479700002</v>
       </c>
       <c r="H114" t="n">
-        <v>38403.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,40 +4578,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>38520</v>
+        <v>38020</v>
       </c>
       <c r="C115" t="n">
-        <v>38790</v>
+        <v>38020</v>
       </c>
       <c r="D115" t="n">
-        <v>38790</v>
+        <v>38020</v>
       </c>
       <c r="E115" t="n">
-        <v>38500</v>
+        <v>38020</v>
       </c>
       <c r="F115" t="n">
-        <v>36.6405</v>
+        <v>22.2154</v>
       </c>
       <c r="G115" t="n">
-        <v>38607.33333333334</v>
+        <v>793.1466479700002</v>
       </c>
       <c r="H115" t="n">
-        <v>38419.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,40 +4619,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>38600</v>
+        <v>38010</v>
       </c>
       <c r="C116" t="n">
-        <v>38510</v>
+        <v>38010</v>
       </c>
       <c r="D116" t="n">
-        <v>38600</v>
+        <v>38010</v>
       </c>
       <c r="E116" t="n">
-        <v>38510</v>
+        <v>38010</v>
       </c>
       <c r="F116" t="n">
-        <v>11.4326</v>
+        <v>10.8684</v>
       </c>
       <c r="G116" t="n">
-        <v>38628.66666666666</v>
+        <v>782.2782479700003</v>
       </c>
       <c r="H116" t="n">
-        <v>38431.5</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,40 +4660,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38510</v>
+        <v>38080</v>
       </c>
       <c r="C117" t="n">
-        <v>38300</v>
+        <v>38080</v>
       </c>
       <c r="D117" t="n">
-        <v>38510</v>
+        <v>38080</v>
       </c>
       <c r="E117" t="n">
-        <v>38300</v>
+        <v>38080</v>
       </c>
       <c r="F117" t="n">
-        <v>10.7768</v>
+        <v>8.4946</v>
       </c>
       <c r="G117" t="n">
-        <v>38632</v>
+        <v>790.7728479700003</v>
       </c>
       <c r="H117" t="n">
-        <v>38439.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5130,40 +4701,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>38330</v>
+        <v>38080</v>
       </c>
       <c r="C118" t="n">
-        <v>38290</v>
+        <v>38020</v>
       </c>
       <c r="D118" t="n">
-        <v>38330</v>
+        <v>38080</v>
       </c>
       <c r="E118" t="n">
-        <v>38290</v>
+        <v>38020</v>
       </c>
       <c r="F118" t="n">
-        <v>51.0359</v>
+        <v>27.612</v>
       </c>
       <c r="G118" t="n">
-        <v>38621.33333333334</v>
+        <v>763.1608479700003</v>
       </c>
       <c r="H118" t="n">
-        <v>38446.83333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,40 +4742,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38240</v>
+        <v>38010</v>
       </c>
       <c r="C119" t="n">
-        <v>38230</v>
+        <v>38010</v>
       </c>
       <c r="D119" t="n">
-        <v>38240</v>
+        <v>38010</v>
       </c>
       <c r="E119" t="n">
-        <v>38230</v>
+        <v>38010</v>
       </c>
       <c r="F119" t="n">
-        <v>21.5193</v>
+        <v>1.6646</v>
       </c>
       <c r="G119" t="n">
-        <v>38606</v>
+        <v>761.4962479700004</v>
       </c>
       <c r="H119" t="n">
-        <v>38453.16666666666</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
+        <v>38020</v>
+      </c>
+      <c r="K119" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,40 +4785,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>38330</v>
+        <v>38010</v>
       </c>
       <c r="C120" t="n">
-        <v>38280</v>
+        <v>38060</v>
       </c>
       <c r="D120" t="n">
-        <v>38330</v>
+        <v>38060</v>
       </c>
       <c r="E120" t="n">
-        <v>38280</v>
+        <v>37710</v>
       </c>
       <c r="F120" t="n">
-        <v>6.5536</v>
+        <v>206.1457</v>
       </c>
       <c r="G120" t="n">
-        <v>38577.33333333334</v>
+        <v>967.6419479700004</v>
       </c>
       <c r="H120" t="n">
-        <v>38449.66666666666</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr">
+        <v>38010</v>
+      </c>
+      <c r="K120" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5256,40 +4828,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>38570</v>
+        <v>38110</v>
       </c>
       <c r="C121" t="n">
-        <v>38590</v>
+        <v>38110</v>
       </c>
       <c r="D121" t="n">
-        <v>38590</v>
+        <v>38110</v>
       </c>
       <c r="E121" t="n">
-        <v>38570</v>
+        <v>38110</v>
       </c>
       <c r="F121" t="n">
-        <v>11.9188</v>
+        <v>5.5361</v>
       </c>
       <c r="G121" t="n">
-        <v>38582.66666666666</v>
+        <v>973.1780479700004</v>
       </c>
       <c r="H121" t="n">
-        <v>38451.16666666666</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr">
+        <v>38060</v>
+      </c>
+      <c r="K121" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,40 +4871,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>38420</v>
+        <v>38250</v>
       </c>
       <c r="C122" t="n">
-        <v>38420</v>
+        <v>38250</v>
       </c>
       <c r="D122" t="n">
-        <v>38420</v>
+        <v>38250</v>
       </c>
       <c r="E122" t="n">
-        <v>38410</v>
+        <v>38250</v>
       </c>
       <c r="F122" t="n">
-        <v>2.4304</v>
+        <v>0.6805</v>
       </c>
       <c r="G122" t="n">
-        <v>38576.66666666666</v>
+        <v>973.8585479700005</v>
       </c>
       <c r="H122" t="n">
-        <v>38448.16666666666</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr">
+        <v>38110</v>
+      </c>
+      <c r="K122" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5340,40 +4914,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>38420</v>
+        <v>38110</v>
       </c>
       <c r="C123" t="n">
-        <v>38420</v>
+        <v>38060</v>
       </c>
       <c r="D123" t="n">
-        <v>38420</v>
+        <v>38110</v>
       </c>
       <c r="E123" t="n">
-        <v>38420</v>
+        <v>38060</v>
       </c>
       <c r="F123" t="n">
-        <v>0.3773</v>
+        <v>7.6654</v>
       </c>
       <c r="G123" t="n">
-        <v>38569.33333333334</v>
+        <v>966.1931479700005</v>
       </c>
       <c r="H123" t="n">
-        <v>38449.66666666666</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
+        <v>38250</v>
+      </c>
+      <c r="K123" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,40 +4957,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>38760</v>
+        <v>38050</v>
       </c>
       <c r="C124" t="n">
-        <v>38760</v>
+        <v>38050</v>
       </c>
       <c r="D124" t="n">
-        <v>38760</v>
+        <v>38050</v>
       </c>
       <c r="E124" t="n">
-        <v>38760</v>
+        <v>38050</v>
       </c>
       <c r="F124" t="n">
-        <v>0.8552999999999999</v>
+        <v>6.0019</v>
       </c>
       <c r="G124" t="n">
-        <v>38567.33333333334</v>
+        <v>960.1912479700005</v>
       </c>
       <c r="H124" t="n">
-        <v>38458.5</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5424,40 +4998,41 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>38870</v>
+        <v>38050</v>
       </c>
       <c r="C125" t="n">
-        <v>38870</v>
+        <v>38050</v>
       </c>
       <c r="D125" t="n">
-        <v>38870</v>
+        <v>38050</v>
       </c>
       <c r="E125" t="n">
-        <v>38870</v>
+        <v>38050</v>
       </c>
       <c r="F125" t="n">
-        <v>2.939</v>
+        <v>1.6173</v>
       </c>
       <c r="G125" t="n">
-        <v>38558.66666666666</v>
+        <v>960.1912479700005</v>
       </c>
       <c r="H125" t="n">
-        <v>38463.33333333334</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
+        <v>38050</v>
+      </c>
+      <c r="K125" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5466,40 +5041,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>39100</v>
+        <v>38230</v>
       </c>
       <c r="C126" t="n">
-        <v>39260</v>
+        <v>38540</v>
       </c>
       <c r="D126" t="n">
-        <v>39260</v>
+        <v>38540</v>
       </c>
       <c r="E126" t="n">
-        <v>39100</v>
+        <v>38230</v>
       </c>
       <c r="F126" t="n">
-        <v>26.5906</v>
+        <v>33.5</v>
       </c>
       <c r="G126" t="n">
-        <v>38576</v>
+        <v>993.6912479700005</v>
       </c>
       <c r="H126" t="n">
-        <v>38474.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,40 +5082,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>39250</v>
+        <v>38360</v>
       </c>
       <c r="C127" t="n">
-        <v>39310</v>
+        <v>38730</v>
       </c>
       <c r="D127" t="n">
-        <v>39310</v>
+        <v>38730</v>
       </c>
       <c r="E127" t="n">
-        <v>39250</v>
+        <v>38360</v>
       </c>
       <c r="F127" t="n">
-        <v>11.9</v>
+        <v>3.5789</v>
       </c>
       <c r="G127" t="n">
-        <v>38608</v>
+        <v>997.2701479700005</v>
       </c>
       <c r="H127" t="n">
-        <v>38486.5</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5550,40 +5123,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>39310</v>
+        <v>38320</v>
       </c>
       <c r="C128" t="n">
-        <v>39310</v>
+        <v>38310</v>
       </c>
       <c r="D128" t="n">
-        <v>39310</v>
+        <v>38320</v>
       </c>
       <c r="E128" t="n">
-        <v>39310</v>
+        <v>38310</v>
       </c>
       <c r="F128" t="n">
-        <v>11.5798</v>
+        <v>4.5538</v>
       </c>
       <c r="G128" t="n">
-        <v>38658</v>
+        <v>992.7163479700005</v>
       </c>
       <c r="H128" t="n">
-        <v>38496</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,40 +5164,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>39320</v>
+        <v>38200</v>
       </c>
       <c r="C129" t="n">
-        <v>39620</v>
+        <v>38200</v>
       </c>
       <c r="D129" t="n">
-        <v>39620</v>
+        <v>38200</v>
       </c>
       <c r="E129" t="n">
-        <v>39320</v>
+        <v>38200</v>
       </c>
       <c r="F129" t="n">
-        <v>3.9066</v>
+        <v>20</v>
       </c>
       <c r="G129" t="n">
-        <v>38730.66666666666</v>
+        <v>972.7163479700005</v>
       </c>
       <c r="H129" t="n">
-        <v>38510.66666666666</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,76 +5205,80 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>39210</v>
+        <v>38480</v>
       </c>
       <c r="C130" t="n">
-        <v>39200</v>
+        <v>38190</v>
       </c>
       <c r="D130" t="n">
-        <v>39210</v>
+        <v>38490</v>
       </c>
       <c r="E130" t="n">
-        <v>39200</v>
+        <v>38190</v>
       </c>
       <c r="F130" t="n">
-        <v>11.5798</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>38758</v>
+        <v>964.2653479700004</v>
       </c>
       <c r="H130" t="n">
-        <v>38518.33333333334</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>39610</v>
+        <v>38510</v>
       </c>
       <c r="C131" t="n">
-        <v>39630</v>
+        <v>38250</v>
       </c>
       <c r="D131" t="n">
-        <v>39630</v>
+        <v>38720</v>
       </c>
       <c r="E131" t="n">
-        <v>39610</v>
+        <v>38250</v>
       </c>
       <c r="F131" t="n">
-        <v>6.4531</v>
+        <v>400.0205</v>
       </c>
       <c r="G131" t="n">
-        <v>38832.66666666666</v>
+        <v>1364.285847970001</v>
       </c>
       <c r="H131" t="n">
-        <v>38533.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5712,36 +5287,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>39650</v>
+        <v>38460</v>
       </c>
       <c r="C132" t="n">
-        <v>39650</v>
+        <v>38450</v>
       </c>
       <c r="D132" t="n">
-        <v>39650</v>
+        <v>38460</v>
       </c>
       <c r="E132" t="n">
-        <v>39650</v>
+        <v>38450</v>
       </c>
       <c r="F132" t="n">
-        <v>0.03</v>
+        <v>34.0016</v>
       </c>
       <c r="G132" t="n">
-        <v>38922.66666666666</v>
+        <v>1398.287447970001</v>
       </c>
       <c r="H132" t="n">
-        <v>38548.16666666666</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,36 +5328,1192 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>38460</v>
+      </c>
+      <c r="C133" t="n">
+        <v>38460</v>
+      </c>
+      <c r="D133" t="n">
+        <v>38460</v>
+      </c>
+      <c r="E133" t="n">
+        <v>38460</v>
+      </c>
+      <c r="F133" t="n">
+        <v>9.459</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1407.746447970001</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>38710</v>
+      </c>
+      <c r="C134" t="n">
+        <v>38710</v>
+      </c>
+      <c r="D134" t="n">
+        <v>38710</v>
+      </c>
+      <c r="E134" t="n">
+        <v>38710</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1408.776447970001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>38720</v>
+      </c>
+      <c r="C135" t="n">
+        <v>38510</v>
+      </c>
+      <c r="D135" t="n">
+        <v>38720</v>
+      </c>
+      <c r="E135" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F135" t="n">
+        <v>28.7112</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1380.065247970001</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>38520</v>
+      </c>
+      <c r="C136" t="n">
+        <v>38510</v>
+      </c>
+      <c r="D136" t="n">
+        <v>38520</v>
+      </c>
+      <c r="E136" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F136" t="n">
+        <v>8.0769</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1380.065247970001</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>38530</v>
+      </c>
+      <c r="C137" t="n">
+        <v>38530</v>
+      </c>
+      <c r="D137" t="n">
+        <v>38530</v>
+      </c>
+      <c r="E137" t="n">
+        <v>38530</v>
+      </c>
+      <c r="F137" t="n">
+        <v>6</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1386.065247970001</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>38530</v>
+      </c>
+      <c r="C138" t="n">
+        <v>38790</v>
+      </c>
+      <c r="D138" t="n">
+        <v>38790</v>
+      </c>
+      <c r="E138" t="n">
+        <v>38530</v>
+      </c>
+      <c r="F138" t="n">
+        <v>19.6999</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1405.765147970001</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C139" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D139" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2.2968</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1408.061947970001</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C140" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D140" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8.4421</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1408.061947970001</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>39080</v>
+      </c>
+      <c r="C141" t="n">
+        <v>38830</v>
+      </c>
+      <c r="D141" t="n">
+        <v>39080</v>
+      </c>
+      <c r="E141" t="n">
+        <v>38830</v>
+      </c>
+      <c r="F141" t="n">
+        <v>65.3665</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1342.695447970001</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>38560</v>
+      </c>
+      <c r="C142" t="n">
+        <v>38560</v>
+      </c>
+      <c r="D142" t="n">
+        <v>38560</v>
+      </c>
+      <c r="E142" t="n">
+        <v>38560</v>
+      </c>
+      <c r="F142" t="n">
+        <v>21.6144</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1321.081047970001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>38560</v>
+      </c>
+      <c r="C143" t="n">
+        <v>38530</v>
+      </c>
+      <c r="D143" t="n">
+        <v>38560</v>
+      </c>
+      <c r="E143" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F143" t="n">
+        <v>8.8058</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1312.275247970001</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>38520</v>
+      </c>
+      <c r="C144" t="n">
+        <v>38790</v>
+      </c>
+      <c r="D144" t="n">
+        <v>38790</v>
+      </c>
+      <c r="E144" t="n">
+        <v>38500</v>
+      </c>
+      <c r="F144" t="n">
+        <v>36.6405</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1348.915747970001</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>38600</v>
+      </c>
+      <c r="C145" t="n">
+        <v>38510</v>
+      </c>
+      <c r="D145" t="n">
+        <v>38600</v>
+      </c>
+      <c r="E145" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F145" t="n">
+        <v>11.4326</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1337.483147970001</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>38510</v>
+      </c>
+      <c r="C146" t="n">
+        <v>38300</v>
+      </c>
+      <c r="D146" t="n">
+        <v>38510</v>
+      </c>
+      <c r="E146" t="n">
+        <v>38300</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10.7768</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1326.70634797</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>38330</v>
+      </c>
+      <c r="C147" t="n">
+        <v>38290</v>
+      </c>
+      <c r="D147" t="n">
+        <v>38330</v>
+      </c>
+      <c r="E147" t="n">
+        <v>38290</v>
+      </c>
+      <c r="F147" t="n">
+        <v>51.0359</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1275.67044797</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>38240</v>
+      </c>
+      <c r="C148" t="n">
+        <v>38230</v>
+      </c>
+      <c r="D148" t="n">
+        <v>38240</v>
+      </c>
+      <c r="E148" t="n">
+        <v>38230</v>
+      </c>
+      <c r="F148" t="n">
+        <v>21.5193</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1254.15114797</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>38330</v>
+      </c>
+      <c r="C149" t="n">
+        <v>38280</v>
+      </c>
+      <c r="D149" t="n">
+        <v>38330</v>
+      </c>
+      <c r="E149" t="n">
+        <v>38280</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6.5536</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1260.70474797</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>38570</v>
+      </c>
+      <c r="C150" t="n">
+        <v>38590</v>
+      </c>
+      <c r="D150" t="n">
+        <v>38590</v>
+      </c>
+      <c r="E150" t="n">
+        <v>38570</v>
+      </c>
+      <c r="F150" t="n">
+        <v>11.9188</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1272.62354797</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>38420</v>
+      </c>
+      <c r="C151" t="n">
+        <v>38420</v>
+      </c>
+      <c r="D151" t="n">
+        <v>38420</v>
+      </c>
+      <c r="E151" t="n">
+        <v>38410</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2.4304</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1270.19314797</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>38420</v>
+      </c>
+      <c r="C152" t="n">
+        <v>38420</v>
+      </c>
+      <c r="D152" t="n">
+        <v>38420</v>
+      </c>
+      <c r="E152" t="n">
+        <v>38420</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.3773</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1270.19314797</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>38760</v>
+      </c>
+      <c r="C153" t="n">
+        <v>38760</v>
+      </c>
+      <c r="D153" t="n">
+        <v>38760</v>
+      </c>
+      <c r="E153" t="n">
+        <v>38760</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1271.04844797</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>38870</v>
+      </c>
+      <c r="C154" t="n">
+        <v>38870</v>
+      </c>
+      <c r="D154" t="n">
+        <v>38870</v>
+      </c>
+      <c r="E154" t="n">
+        <v>38870</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1273.98744797</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>39100</v>
+      </c>
+      <c r="C155" t="n">
+        <v>39260</v>
+      </c>
+      <c r="D155" t="n">
+        <v>39260</v>
+      </c>
+      <c r="E155" t="n">
+        <v>39100</v>
+      </c>
+      <c r="F155" t="n">
+        <v>26.5906</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1300.57804797</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>39250</v>
+      </c>
+      <c r="C156" t="n">
+        <v>39310</v>
+      </c>
+      <c r="D156" t="n">
+        <v>39310</v>
+      </c>
+      <c r="E156" t="n">
+        <v>39250</v>
+      </c>
+      <c r="F156" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1312.47804797</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1.034122389637854</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>39310</v>
+      </c>
+      <c r="C157" t="n">
+        <v>39310</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39310</v>
+      </c>
+      <c r="E157" t="n">
+        <v>39310</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11.5798</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1312.47804797</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>39320</v>
+      </c>
+      <c r="C158" t="n">
+        <v>39620</v>
+      </c>
+      <c r="D158" t="n">
+        <v>39620</v>
+      </c>
+      <c r="E158" t="n">
+        <v>39320</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.9066</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1316.384647970001</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>39210</v>
+      </c>
+      <c r="C159" t="n">
+        <v>39200</v>
+      </c>
+      <c r="D159" t="n">
+        <v>39210</v>
+      </c>
+      <c r="E159" t="n">
+        <v>39200</v>
+      </c>
+      <c r="F159" t="n">
+        <v>11.5798</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1304.804847970001</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>39610</v>
+      </c>
+      <c r="C160" t="n">
+        <v>39630</v>
+      </c>
+      <c r="D160" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E160" t="n">
+        <v>39610</v>
+      </c>
+      <c r="F160" t="n">
+        <v>6.4531</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1311.25794797</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>39650</v>
+      </c>
+      <c r="C161" t="n">
+        <v>39650</v>
+      </c>
+      <c r="D161" t="n">
+        <v>39650</v>
+      </c>
+      <c r="E161" t="n">
+        <v>39650</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1311.28794797</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
         <v>39770</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C162" t="n">
         <v>39770</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D162" t="n">
         <v>39770</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E162" t="n">
         <v>39770</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F162" t="n">
         <v>0.026</v>
       </c>
-      <c r="G133" t="n">
-        <v>39021.33333333334</v>
-      </c>
-      <c r="H133" t="n">
-        <v>38564.83333333334</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="G162" t="n">
+        <v>1311.313947970001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M162"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>37700</v>
+        <v>38670</v>
       </c>
       <c r="C2" t="n">
-        <v>37700</v>
+        <v>38690</v>
       </c>
       <c r="D2" t="n">
-        <v>37700</v>
+        <v>38690</v>
       </c>
       <c r="E2" t="n">
-        <v>37700</v>
+        <v>38670</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2257</v>
+        <v>3.3189</v>
       </c>
       <c r="G2" t="n">
-        <v>608.3940995199998</v>
+        <v>818.2865995200001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>37830</v>
+        <v>38730</v>
       </c>
       <c r="C3" t="n">
-        <v>37830</v>
+        <v>38920</v>
       </c>
       <c r="D3" t="n">
-        <v>37830</v>
+        <v>38920</v>
       </c>
       <c r="E3" t="n">
-        <v>37830</v>
+        <v>38730</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1828</v>
+        <v>3.75624845</v>
       </c>
       <c r="G3" t="n">
-        <v>609.5768995199999</v>
+        <v>822.0428479700001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37830</v>
+        <v>38930</v>
       </c>
       <c r="C4" t="n">
-        <v>37830</v>
+        <v>39500</v>
       </c>
       <c r="D4" t="n">
-        <v>37830</v>
+        <v>39500</v>
       </c>
       <c r="E4" t="n">
-        <v>37830</v>
+        <v>38930</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>69.06189999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>609.5768995199999</v>
+        <v>891.1047479700002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37710</v>
+        <v>39090</v>
       </c>
       <c r="C5" t="n">
-        <v>37710</v>
+        <v>39240</v>
       </c>
       <c r="D5" t="n">
-        <v>37710</v>
+        <v>39500</v>
       </c>
       <c r="E5" t="n">
-        <v>37710</v>
+        <v>38520</v>
       </c>
       <c r="F5" t="n">
-        <v>1.7118</v>
+        <v>34.9852</v>
       </c>
       <c r="G5" t="n">
-        <v>607.8650995199998</v>
+        <v>856.1195479700002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37700</v>
+        <v>39050</v>
       </c>
       <c r="C6" t="n">
-        <v>37700</v>
+        <v>39040</v>
       </c>
       <c r="D6" t="n">
-        <v>37700</v>
+        <v>39050</v>
       </c>
       <c r="E6" t="n">
-        <v>37700</v>
+        <v>39040</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>4.2231</v>
       </c>
       <c r="G6" t="n">
-        <v>607.8450995199998</v>
+        <v>851.8964479700002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37500</v>
+        <v>39220</v>
       </c>
       <c r="C7" t="n">
-        <v>37100</v>
+        <v>39220</v>
       </c>
       <c r="D7" t="n">
-        <v>37500</v>
+        <v>39220</v>
       </c>
       <c r="E7" t="n">
-        <v>37100</v>
+        <v>39220</v>
       </c>
       <c r="F7" t="n">
-        <v>106.0564</v>
+        <v>3.323</v>
       </c>
       <c r="G7" t="n">
-        <v>501.7886995199999</v>
+        <v>855.2194479700001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37800</v>
+        <v>38570</v>
       </c>
       <c r="C8" t="n">
-        <v>37820</v>
+        <v>38570</v>
       </c>
       <c r="D8" t="n">
-        <v>37820</v>
+        <v>38570</v>
       </c>
       <c r="E8" t="n">
-        <v>37800</v>
+        <v>38570</v>
       </c>
       <c r="F8" t="n">
-        <v>2.92</v>
+        <v>3.7563</v>
       </c>
       <c r="G8" t="n">
-        <v>504.7086995199999</v>
+        <v>851.4631479700001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37830</v>
+        <v>38890</v>
       </c>
       <c r="C9" t="n">
-        <v>37930</v>
+        <v>38700</v>
       </c>
       <c r="D9" t="n">
-        <v>37940</v>
+        <v>38890</v>
       </c>
       <c r="E9" t="n">
-        <v>37830</v>
+        <v>38700</v>
       </c>
       <c r="F9" t="n">
-        <v>101.2943</v>
+        <v>3.323</v>
       </c>
       <c r="G9" t="n">
-        <v>606.0029995199999</v>
+        <v>854.7861479700001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37720</v>
+        <v>38630</v>
       </c>
       <c r="C10" t="n">
-        <v>37700</v>
+        <v>38800</v>
       </c>
       <c r="D10" t="n">
-        <v>37720</v>
+        <v>38800</v>
       </c>
       <c r="E10" t="n">
-        <v>37700</v>
+        <v>38630</v>
       </c>
       <c r="F10" t="n">
-        <v>12.3378</v>
+        <v>15.5</v>
       </c>
       <c r="G10" t="n">
-        <v>593.6651995199999</v>
+        <v>870.2861479700001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="C11" t="n">
-        <v>37700</v>
+        <v>38930</v>
       </c>
       <c r="D11" t="n">
-        <v>37700</v>
+        <v>38930</v>
       </c>
       <c r="E11" t="n">
-        <v>37700</v>
+        <v>38900</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2676</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>593.6651995199999</v>
+        <v>877.2861479700001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>37550</v>
+        <v>38550</v>
       </c>
       <c r="C12" t="n">
-        <v>37550</v>
+        <v>38550</v>
       </c>
       <c r="D12" t="n">
-        <v>37550</v>
+        <v>38550</v>
       </c>
       <c r="E12" t="n">
-        <v>37550</v>
+        <v>38550</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3199</v>
+        <v>1.3471</v>
       </c>
       <c r="G12" t="n">
-        <v>593.3452995199999</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37560</v>
+        <v>38550</v>
       </c>
       <c r="C13" t="n">
-        <v>37550</v>
+        <v>38550</v>
       </c>
       <c r="D13" t="n">
-        <v>37560</v>
+        <v>38550</v>
       </c>
       <c r="E13" t="n">
-        <v>37550</v>
+        <v>38550</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7454</v>
+        <v>2.4189</v>
       </c>
       <c r="G13" t="n">
-        <v>593.3452995199999</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37630</v>
+        <v>38550</v>
       </c>
       <c r="C14" t="n">
-        <v>37630</v>
+        <v>38550</v>
       </c>
       <c r="D14" t="n">
-        <v>37630</v>
+        <v>38550</v>
       </c>
       <c r="E14" t="n">
-        <v>37630</v>
+        <v>38550</v>
       </c>
       <c r="F14" t="n">
-        <v>4.6076</v>
+        <v>0.0234</v>
       </c>
       <c r="G14" t="n">
-        <v>597.95289952</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37780</v>
+        <v>38520</v>
       </c>
       <c r="C15" t="n">
-        <v>37770</v>
+        <v>38510</v>
       </c>
       <c r="D15" t="n">
-        <v>37780</v>
+        <v>38520</v>
       </c>
       <c r="E15" t="n">
-        <v>37770</v>
+        <v>38510</v>
       </c>
       <c r="F15" t="n">
-        <v>4.6076</v>
+        <v>69.425</v>
       </c>
       <c r="G15" t="n">
-        <v>602.56049952</v>
+        <v>806.5140479700002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>37820</v>
+        <v>38610</v>
       </c>
       <c r="C16" t="n">
-        <v>37820</v>
+        <v>38610</v>
       </c>
       <c r="D16" t="n">
-        <v>37820</v>
+        <v>38610</v>
       </c>
       <c r="E16" t="n">
-        <v>37820</v>
+        <v>38610</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3568</v>
+        <v>0.7473</v>
       </c>
       <c r="G16" t="n">
-        <v>602.91729952</v>
+        <v>807.2613479700002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37830</v>
+        <v>38630</v>
       </c>
       <c r="C17" t="n">
-        <v>37920</v>
+        <v>38630</v>
       </c>
       <c r="D17" t="n">
-        <v>37920</v>
+        <v>38630</v>
       </c>
       <c r="E17" t="n">
-        <v>37830</v>
+        <v>38630</v>
       </c>
       <c r="F17" t="n">
-        <v>8.056699999999999</v>
+        <v>0.8837</v>
       </c>
       <c r="G17" t="n">
-        <v>610.97399952</v>
+        <v>808.1450479700002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>37650</v>
+        <v>38820</v>
       </c>
       <c r="C18" t="n">
-        <v>37610</v>
+        <v>38830</v>
       </c>
       <c r="D18" t="n">
-        <v>37650</v>
+        <v>38830</v>
       </c>
       <c r="E18" t="n">
-        <v>37610</v>
+        <v>38820</v>
       </c>
       <c r="F18" t="n">
-        <v>2.7839</v>
+        <v>0.7976</v>
       </c>
       <c r="G18" t="n">
-        <v>608.19009952</v>
+        <v>808.9426479700002</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>37610</v>
+        <v>38830</v>
       </c>
       <c r="C19" t="n">
-        <v>37610</v>
+        <v>38830</v>
       </c>
       <c r="D19" t="n">
-        <v>37610</v>
+        <v>38830</v>
       </c>
       <c r="E19" t="n">
-        <v>37610</v>
+        <v>38830</v>
       </c>
       <c r="F19" t="n">
-        <v>8.400499999999999</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>608.19009952</v>
+        <v>808.9426479700002</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>37610</v>
+        <v>39290</v>
       </c>
       <c r="C20" t="n">
-        <v>37610</v>
+        <v>39290</v>
       </c>
       <c r="D20" t="n">
-        <v>37610</v>
+        <v>39290</v>
       </c>
       <c r="E20" t="n">
-        <v>37610</v>
+        <v>39290</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0696</v>
+        <v>0.1</v>
       </c>
       <c r="G20" t="n">
-        <v>608.19009952</v>
+        <v>809.0426479700002</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>37610</v>
+        <v>38710</v>
       </c>
       <c r="C21" t="n">
-        <v>37610</v>
+        <v>38710</v>
       </c>
       <c r="D21" t="n">
-        <v>37610</v>
+        <v>38710</v>
       </c>
       <c r="E21" t="n">
-        <v>37610</v>
+        <v>38710</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0139</v>
+        <v>0.286</v>
       </c>
       <c r="G21" t="n">
-        <v>608.19009952</v>
+        <v>808.7566479700002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>37760</v>
+        <v>38510</v>
       </c>
       <c r="C22" t="n">
-        <v>37870</v>
+        <v>38410</v>
       </c>
       <c r="D22" t="n">
-        <v>37870</v>
+        <v>38510</v>
       </c>
       <c r="E22" t="n">
-        <v>37700</v>
+        <v>38410</v>
       </c>
       <c r="F22" t="n">
-        <v>22</v>
+        <v>8.392899999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>630.19009952</v>
+        <v>800.3637479700002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>37870</v>
+        <v>38470</v>
       </c>
       <c r="C23" t="n">
-        <v>37880</v>
+        <v>38470</v>
       </c>
       <c r="D23" t="n">
-        <v>37880</v>
+        <v>38470</v>
       </c>
       <c r="E23" t="n">
-        <v>37870</v>
+        <v>38470</v>
       </c>
       <c r="F23" t="n">
-        <v>11</v>
+        <v>4.4598</v>
       </c>
       <c r="G23" t="n">
-        <v>641.19009952</v>
+        <v>804.8235479700002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38130</v>
+        <v>38470</v>
       </c>
       <c r="C24" t="n">
-        <v>38130</v>
+        <v>38470</v>
       </c>
       <c r="D24" t="n">
-        <v>38130</v>
+        <v>38470</v>
       </c>
       <c r="E24" t="n">
-        <v>38130</v>
+        <v>38470</v>
       </c>
       <c r="F24" t="n">
-        <v>12.1195</v>
+        <v>5.5402</v>
       </c>
       <c r="G24" t="n">
-        <v>653.30959952</v>
+        <v>804.8235479700002</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38160</v>
+        <v>38400</v>
       </c>
       <c r="C25" t="n">
-        <v>38160</v>
+        <v>38400</v>
       </c>
       <c r="D25" t="n">
-        <v>38160</v>
+        <v>38400</v>
       </c>
       <c r="E25" t="n">
-        <v>38160</v>
+        <v>38400</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7578</v>
+        <v>16.9852</v>
       </c>
       <c r="G25" t="n">
-        <v>654.06739952</v>
+        <v>787.8383479700002</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38160</v>
+        <v>38310</v>
       </c>
       <c r="C26" t="n">
-        <v>38170</v>
+        <v>38310</v>
       </c>
       <c r="D26" t="n">
-        <v>38170</v>
+        <v>38310</v>
       </c>
       <c r="E26" t="n">
-        <v>38160</v>
+        <v>38310</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4554</v>
+        <v>0.1211</v>
       </c>
       <c r="G26" t="n">
-        <v>654.52279952</v>
+        <v>787.7172479700002</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38150</v>
+        <v>38320</v>
       </c>
       <c r="C27" t="n">
-        <v>38390</v>
+        <v>38310</v>
       </c>
       <c r="D27" t="n">
-        <v>38390</v>
+        <v>38320</v>
       </c>
       <c r="E27" t="n">
-        <v>38150</v>
+        <v>38310</v>
       </c>
       <c r="F27" t="n">
-        <v>2.382</v>
+        <v>1.591</v>
       </c>
       <c r="G27" t="n">
-        <v>656.90479952</v>
+        <v>787.7172479700002</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38400</v>
+        <v>38380</v>
       </c>
       <c r="C28" t="n">
-        <v>38780</v>
+        <v>38380</v>
       </c>
       <c r="D28" t="n">
-        <v>38780</v>
+        <v>38380</v>
       </c>
       <c r="E28" t="n">
-        <v>38400</v>
+        <v>38380</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>4.3122</v>
       </c>
       <c r="G28" t="n">
-        <v>657.90479952</v>
+        <v>792.0294479700002</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="C29" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="D29" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="E29" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="F29" t="n">
-        <v>3.8047</v>
+        <v>0.7381</v>
       </c>
       <c r="G29" t="n">
-        <v>654.10009952</v>
+        <v>792.0294479700002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38350</v>
+        <v>38380</v>
       </c>
       <c r="C30" t="n">
-        <v>38160</v>
+        <v>38410</v>
       </c>
       <c r="D30" t="n">
-        <v>38350</v>
+        <v>38410</v>
       </c>
       <c r="E30" t="n">
-        <v>38160</v>
+        <v>38380</v>
       </c>
       <c r="F30" t="n">
-        <v>12.7158</v>
+        <v>0.3397</v>
       </c>
       <c r="G30" t="n">
-        <v>641.38429952</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="C31" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="D31" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="E31" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0248</v>
+        <v>2.4051</v>
       </c>
       <c r="G31" t="n">
-        <v>641.35949952</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="C32" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="D32" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="E32" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="F32" t="n">
-        <v>1.2147</v>
+        <v>2.6656</v>
       </c>
       <c r="G32" t="n">
-        <v>641.35949952</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38140</v>
+        <v>38410</v>
       </c>
       <c r="C33" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="D33" t="n">
-        <v>38140</v>
+        <v>38410</v>
       </c>
       <c r="E33" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="F33" t="n">
-        <v>3.0987</v>
+        <v>21.7711</v>
       </c>
       <c r="G33" t="n">
-        <v>641.35949952</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="C34" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="D34" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="E34" t="n">
-        <v>38130</v>
+        <v>38410</v>
       </c>
       <c r="F34" t="n">
-        <v>0.066</v>
+        <v>0.5789</v>
       </c>
       <c r="G34" t="n">
-        <v>641.35949952</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>37900</v>
+        <v>38410</v>
       </c>
       <c r="C35" t="n">
-        <v>37730</v>
+        <v>38410</v>
       </c>
       <c r="D35" t="n">
-        <v>37900</v>
+        <v>38410</v>
       </c>
       <c r="E35" t="n">
-        <v>37730</v>
+        <v>38410</v>
       </c>
       <c r="F35" t="n">
-        <v>8.056699999999999</v>
+        <v>0.0165</v>
       </c>
       <c r="G35" t="n">
-        <v>633.30279952</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>37830</v>
+        <v>38500</v>
       </c>
       <c r="C36" t="n">
-        <v>37820</v>
+        <v>38500</v>
       </c>
       <c r="D36" t="n">
-        <v>37830</v>
+        <v>38500</v>
       </c>
       <c r="E36" t="n">
-        <v>37820</v>
+        <v>38500</v>
       </c>
       <c r="F36" t="n">
-        <v>21.1464</v>
+        <v>0.03</v>
       </c>
       <c r="G36" t="n">
-        <v>654.44919952</v>
+        <v>792.3991479700002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38250</v>
+        <v>38280</v>
       </c>
       <c r="C37" t="n">
-        <v>38270</v>
+        <v>38280</v>
       </c>
       <c r="D37" t="n">
-        <v>38270</v>
+        <v>38280</v>
       </c>
       <c r="E37" t="n">
-        <v>38250</v>
+        <v>38280</v>
       </c>
       <c r="F37" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>656.7491995199999</v>
+        <v>787.3991479700002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38270</v>
+        <v>38100</v>
       </c>
       <c r="C38" t="n">
-        <v>38280</v>
+        <v>38100</v>
       </c>
       <c r="D38" t="n">
-        <v>38280</v>
+        <v>38100</v>
       </c>
       <c r="E38" t="n">
-        <v>38270</v>
+        <v>38100</v>
       </c>
       <c r="F38" t="n">
-        <v>10.12</v>
+        <v>0.2725</v>
       </c>
       <c r="G38" t="n">
-        <v>666.8691995199999</v>
+        <v>787.1266479700001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>38280</v>
+        <v>37900</v>
       </c>
       <c r="C39" t="n">
-        <v>38290</v>
+        <v>37900</v>
       </c>
       <c r="D39" t="n">
-        <v>38290</v>
+        <v>37900</v>
       </c>
       <c r="E39" t="n">
-        <v>38280</v>
+        <v>37900</v>
       </c>
       <c r="F39" t="n">
-        <v>22.2113</v>
+        <v>2.473</v>
       </c>
       <c r="G39" t="n">
-        <v>689.08049952</v>
+        <v>784.6536479700002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38320</v>
+        <v>37940</v>
       </c>
       <c r="C40" t="n">
-        <v>38330</v>
+        <v>37940</v>
       </c>
       <c r="D40" t="n">
-        <v>38330</v>
+        <v>37940</v>
       </c>
       <c r="E40" t="n">
-        <v>38320</v>
+        <v>37940</v>
       </c>
       <c r="F40" t="n">
-        <v>39.6495</v>
+        <v>0.85</v>
       </c>
       <c r="G40" t="n">
-        <v>728.72999952</v>
+        <v>785.5036479700002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38450</v>
+        <v>37710</v>
       </c>
       <c r="C41" t="n">
-        <v>38450</v>
+        <v>37710</v>
       </c>
       <c r="D41" t="n">
-        <v>38450</v>
+        <v>37710</v>
       </c>
       <c r="E41" t="n">
-        <v>38450</v>
+        <v>37710</v>
       </c>
       <c r="F41" t="n">
-        <v>10.5804</v>
+        <v>2.663</v>
       </c>
       <c r="G41" t="n">
-        <v>739.31039952</v>
+        <v>782.8406479700002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,238 +1871,285 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>38460</v>
+        <v>37790</v>
       </c>
       <c r="C42" t="n">
-        <v>38470</v>
+        <v>37790</v>
       </c>
       <c r="D42" t="n">
-        <v>38470</v>
+        <v>37790</v>
       </c>
       <c r="E42" t="n">
-        <v>38460</v>
+        <v>37790</v>
       </c>
       <c r="F42" t="n">
-        <v>31.7317</v>
+        <v>13.1443</v>
       </c>
       <c r="G42" t="n">
-        <v>771.0420995200001</v>
+        <v>795.9849479700002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>37710</v>
+      </c>
+      <c r="K42" t="n">
+        <v>37710</v>
+      </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>38470</v>
+        <v>37810</v>
       </c>
       <c r="C43" t="n">
-        <v>38680</v>
+        <v>37810</v>
       </c>
       <c r="D43" t="n">
-        <v>38680</v>
+        <v>37810</v>
       </c>
       <c r="E43" t="n">
-        <v>38470</v>
+        <v>37810</v>
       </c>
       <c r="F43" t="n">
-        <v>43.9256</v>
+        <v>0.2511</v>
       </c>
       <c r="G43" t="n">
-        <v>814.9676995200001</v>
+        <v>796.2360479700002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>37790</v>
+      </c>
+      <c r="K43" t="n">
+        <v>37710</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>38670</v>
+        <v>37820</v>
       </c>
       <c r="C44" t="n">
-        <v>38690</v>
+        <v>37830</v>
       </c>
       <c r="D44" t="n">
-        <v>38690</v>
+        <v>37830</v>
       </c>
       <c r="E44" t="n">
-        <v>38670</v>
+        <v>37820</v>
       </c>
       <c r="F44" t="n">
-        <v>3.3189</v>
+        <v>0.5415</v>
       </c>
       <c r="G44" t="n">
-        <v>818.2865995200001</v>
+        <v>796.7775479700002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>37810</v>
+      </c>
+      <c r="K44" t="n">
+        <v>37710</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>38730</v>
+        <v>37840</v>
       </c>
       <c r="C45" t="n">
-        <v>38920</v>
+        <v>37840</v>
       </c>
       <c r="D45" t="n">
-        <v>38920</v>
+        <v>37840</v>
       </c>
       <c r="E45" t="n">
-        <v>38730</v>
+        <v>37840</v>
       </c>
       <c r="F45" t="n">
-        <v>3.75624845</v>
+        <v>0.106</v>
       </c>
       <c r="G45" t="n">
-        <v>822.0428479700001</v>
+        <v>796.8835479700002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>37830</v>
+      </c>
+      <c r="K45" t="n">
+        <v>37830</v>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>38930</v>
+        <v>37850</v>
       </c>
       <c r="C46" t="n">
-        <v>39500</v>
+        <v>37850</v>
       </c>
       <c r="D46" t="n">
-        <v>39500</v>
+        <v>37850</v>
       </c>
       <c r="E46" t="n">
-        <v>38930</v>
+        <v>37850</v>
       </c>
       <c r="F46" t="n">
-        <v>69.06189999999999</v>
+        <v>0.2725</v>
       </c>
       <c r="G46" t="n">
-        <v>891.1047479700002</v>
+        <v>797.1560479700003</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>37840</v>
+      </c>
+      <c r="K46" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>39090</v>
+        <v>38490</v>
       </c>
       <c r="C47" t="n">
-        <v>39240</v>
+        <v>38490</v>
       </c>
       <c r="D47" t="n">
-        <v>39500</v>
+        <v>38500</v>
       </c>
       <c r="E47" t="n">
-        <v>38520</v>
+        <v>38490</v>
       </c>
       <c r="F47" t="n">
-        <v>34.9852</v>
+        <v>3.1818</v>
       </c>
       <c r="G47" t="n">
-        <v>856.1195479700002</v>
+        <v>800.3378479700002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>37850</v>
+      </c>
+      <c r="K47" t="n">
+        <v>37830</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39050</v>
+        <v>38490</v>
       </c>
       <c r="C48" t="n">
-        <v>39040</v>
+        <v>38500</v>
       </c>
       <c r="D48" t="n">
-        <v>39050</v>
+        <v>38500</v>
       </c>
       <c r="E48" t="n">
-        <v>39040</v>
+        <v>38490</v>
       </c>
       <c r="F48" t="n">
-        <v>4.2231</v>
+        <v>22.4493</v>
       </c>
       <c r="G48" t="n">
-        <v>851.8964479700002</v>
+        <v>822.7871479700002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2163,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39220</v>
+        <v>38600</v>
       </c>
       <c r="C49" t="n">
-        <v>39220</v>
+        <v>38600</v>
       </c>
       <c r="D49" t="n">
-        <v>39220</v>
+        <v>38600</v>
       </c>
       <c r="E49" t="n">
-        <v>39220</v>
+        <v>38600</v>
       </c>
       <c r="F49" t="n">
-        <v>3.323</v>
+        <v>0.8264</v>
       </c>
       <c r="G49" t="n">
-        <v>855.2194479700001</v>
+        <v>823.6135479700002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2199,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38570</v>
+        <v>38330</v>
       </c>
       <c r="C50" t="n">
-        <v>38570</v>
+        <v>38330</v>
       </c>
       <c r="D50" t="n">
-        <v>38570</v>
+        <v>38330</v>
       </c>
       <c r="E50" t="n">
-        <v>38570</v>
+        <v>38330</v>
       </c>
       <c r="F50" t="n">
-        <v>3.7563</v>
+        <v>3.1506</v>
       </c>
       <c r="G50" t="n">
-        <v>851.4631479700001</v>
+        <v>820.4629479700002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2235,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38890</v>
+        <v>38240</v>
       </c>
       <c r="C51" t="n">
-        <v>38700</v>
+        <v>38230</v>
       </c>
       <c r="D51" t="n">
-        <v>38890</v>
+        <v>38240</v>
       </c>
       <c r="E51" t="n">
-        <v>38700</v>
+        <v>38230</v>
       </c>
       <c r="F51" t="n">
-        <v>3.323</v>
+        <v>2.5519</v>
       </c>
       <c r="G51" t="n">
-        <v>854.7861479700001</v>
+        <v>817.9110479700001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2271,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38630</v>
+        <v>38580</v>
       </c>
       <c r="C52" t="n">
-        <v>38800</v>
+        <v>38580</v>
       </c>
       <c r="D52" t="n">
-        <v>38800</v>
+        <v>38580</v>
       </c>
       <c r="E52" t="n">
-        <v>38630</v>
+        <v>38580</v>
       </c>
       <c r="F52" t="n">
-        <v>15.5</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>870.2861479700001</v>
+        <v>819.9110479700001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2307,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>38900</v>
+        <v>38580</v>
       </c>
       <c r="C53" t="n">
-        <v>38930</v>
+        <v>38580</v>
       </c>
       <c r="D53" t="n">
-        <v>38930</v>
+        <v>38580</v>
       </c>
       <c r="E53" t="n">
-        <v>38900</v>
+        <v>38580</v>
       </c>
       <c r="F53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53" t="n">
-        <v>877.2861479700001</v>
+        <v>819.9110479700001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2343,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38550</v>
+        <v>38600</v>
       </c>
       <c r="C54" t="n">
-        <v>38550</v>
+        <v>38600</v>
       </c>
       <c r="D54" t="n">
-        <v>38550</v>
+        <v>38600</v>
       </c>
       <c r="E54" t="n">
-        <v>38550</v>
+        <v>38600</v>
       </c>
       <c r="F54" t="n">
-        <v>1.3471</v>
+        <v>2.8591</v>
       </c>
       <c r="G54" t="n">
-        <v>875.9390479700002</v>
+        <v>822.7701479700002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2379,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="C55" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="D55" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="E55" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="F55" t="n">
-        <v>2.4189</v>
+        <v>7.1681</v>
       </c>
       <c r="G55" t="n">
-        <v>875.9390479700002</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2415,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="C56" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="D56" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="E56" t="n">
-        <v>38550</v>
+        <v>38740</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0234</v>
+        <v>41.6164</v>
       </c>
       <c r="G56" t="n">
-        <v>875.9390479700002</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2451,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>38520</v>
+        <v>38740</v>
       </c>
       <c r="C57" t="n">
-        <v>38510</v>
+        <v>38740</v>
       </c>
       <c r="D57" t="n">
-        <v>38520</v>
+        <v>38740</v>
       </c>
       <c r="E57" t="n">
-        <v>38510</v>
+        <v>38740</v>
       </c>
       <c r="F57" t="n">
-        <v>69.425</v>
+        <v>8.3849</v>
       </c>
       <c r="G57" t="n">
-        <v>806.5140479700002</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2487,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>38610</v>
+        <v>38740</v>
       </c>
       <c r="C58" t="n">
-        <v>38610</v>
+        <v>38740</v>
       </c>
       <c r="D58" t="n">
-        <v>38610</v>
+        <v>38740</v>
       </c>
       <c r="E58" t="n">
-        <v>38610</v>
+        <v>38740</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7473</v>
+        <v>1.1212</v>
       </c>
       <c r="G58" t="n">
-        <v>807.2613479700002</v>
+        <v>829.9382479700001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2523,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38630</v>
+        <v>38750</v>
       </c>
       <c r="C59" t="n">
-        <v>38630</v>
+        <v>38750</v>
       </c>
       <c r="D59" t="n">
-        <v>38630</v>
+        <v>38750</v>
       </c>
       <c r="E59" t="n">
-        <v>38630</v>
+        <v>38750</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8837</v>
+        <v>1.7</v>
       </c>
       <c r="G59" t="n">
-        <v>808.1450479700002</v>
+        <v>831.6382479700002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2559,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38820</v>
+        <v>38770</v>
       </c>
       <c r="C60" t="n">
-        <v>38830</v>
+        <v>38770</v>
       </c>
       <c r="D60" t="n">
-        <v>38830</v>
+        <v>38770</v>
       </c>
       <c r="E60" t="n">
-        <v>38820</v>
+        <v>38770</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7976</v>
+        <v>12.04</v>
       </c>
       <c r="G60" t="n">
-        <v>808.9426479700002</v>
+        <v>843.6782479700001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2595,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38830</v>
+        <v>38770</v>
       </c>
       <c r="C61" t="n">
-        <v>38830</v>
+        <v>39000</v>
       </c>
       <c r="D61" t="n">
-        <v>38830</v>
+        <v>39000</v>
       </c>
       <c r="E61" t="n">
-        <v>38830</v>
+        <v>38770</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>12.1</v>
       </c>
       <c r="G61" t="n">
-        <v>808.9426479700002</v>
+        <v>855.7782479700002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2631,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39290</v>
+        <v>39000</v>
       </c>
       <c r="C62" t="n">
-        <v>39290</v>
+        <v>39000</v>
       </c>
       <c r="D62" t="n">
-        <v>39290</v>
+        <v>39000</v>
       </c>
       <c r="E62" t="n">
-        <v>39290</v>
+        <v>39000</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>809.0426479700002</v>
+        <v>855.7782479700002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2667,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="C63" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="D63" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="E63" t="n">
-        <v>38710</v>
+        <v>39000</v>
       </c>
       <c r="F63" t="n">
-        <v>0.286</v>
+        <v>70.2805</v>
       </c>
       <c r="G63" t="n">
-        <v>808.7566479700002</v>
+        <v>855.7782479700002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2703,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>38510</v>
+        <v>39060</v>
       </c>
       <c r="C64" t="n">
-        <v>38410</v>
+        <v>39060</v>
       </c>
       <c r="D64" t="n">
-        <v>38510</v>
+        <v>39060</v>
       </c>
       <c r="E64" t="n">
-        <v>38410</v>
+        <v>39060</v>
       </c>
       <c r="F64" t="n">
-        <v>8.392899999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>800.3637479700002</v>
+        <v>855.8782479700002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2739,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38470</v>
+        <v>38780</v>
       </c>
       <c r="C65" t="n">
-        <v>38470</v>
+        <v>38580</v>
       </c>
       <c r="D65" t="n">
-        <v>38470</v>
+        <v>38780</v>
       </c>
       <c r="E65" t="n">
-        <v>38470</v>
+        <v>38580</v>
       </c>
       <c r="F65" t="n">
-        <v>4.4598</v>
+        <v>4.8822</v>
       </c>
       <c r="G65" t="n">
-        <v>804.8235479700002</v>
+        <v>850.9960479700002</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2775,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>38470</v>
+        <v>38370</v>
       </c>
       <c r="C66" t="n">
-        <v>38470</v>
+        <v>38370</v>
       </c>
       <c r="D66" t="n">
-        <v>38470</v>
+        <v>38370</v>
       </c>
       <c r="E66" t="n">
-        <v>38470</v>
+        <v>38370</v>
       </c>
       <c r="F66" t="n">
-        <v>5.5402</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="G66" t="n">
-        <v>804.8235479700002</v>
+        <v>850.3755479700002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2811,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38400</v>
+        <v>38260</v>
       </c>
       <c r="C67" t="n">
-        <v>38400</v>
+        <v>38250</v>
       </c>
       <c r="D67" t="n">
-        <v>38400</v>
+        <v>38260</v>
       </c>
       <c r="E67" t="n">
-        <v>38400</v>
+        <v>38250</v>
       </c>
       <c r="F67" t="n">
-        <v>16.9852</v>
+        <v>1.9906</v>
       </c>
       <c r="G67" t="n">
-        <v>787.8383479700002</v>
+        <v>848.3849479700002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2847,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>38310</v>
+        <v>38250</v>
       </c>
       <c r="C68" t="n">
-        <v>38310</v>
+        <v>38250</v>
       </c>
       <c r="D68" t="n">
-        <v>38310</v>
+        <v>38250</v>
       </c>
       <c r="E68" t="n">
-        <v>38310</v>
+        <v>38250</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1211</v>
+        <v>0.1103</v>
       </c>
       <c r="G68" t="n">
-        <v>787.7172479700002</v>
+        <v>848.3849479700002</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2883,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>38320</v>
+        <v>38250</v>
       </c>
       <c r="C69" t="n">
-        <v>38310</v>
+        <v>38250</v>
       </c>
       <c r="D69" t="n">
-        <v>38320</v>
+        <v>38250</v>
       </c>
       <c r="E69" t="n">
-        <v>38310</v>
+        <v>38250</v>
       </c>
       <c r="F69" t="n">
-        <v>1.591</v>
+        <v>0.0223</v>
       </c>
       <c r="G69" t="n">
-        <v>787.7172479700002</v>
+        <v>848.3849479700002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2919,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>38380</v>
+        <v>38060</v>
       </c>
       <c r="C70" t="n">
-        <v>38380</v>
+        <v>38050</v>
       </c>
       <c r="D70" t="n">
-        <v>38380</v>
+        <v>38060</v>
       </c>
       <c r="E70" t="n">
-        <v>38380</v>
+        <v>38050</v>
       </c>
       <c r="F70" t="n">
-        <v>4.3122</v>
+        <v>2.561</v>
       </c>
       <c r="G70" t="n">
-        <v>792.0294479700002</v>
+        <v>845.8239479700002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2955,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>38380</v>
+        <v>38040</v>
       </c>
       <c r="C71" t="n">
-        <v>38380</v>
+        <v>38040</v>
       </c>
       <c r="D71" t="n">
-        <v>38380</v>
+        <v>38040</v>
       </c>
       <c r="E71" t="n">
-        <v>38380</v>
+        <v>38040</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7381</v>
+        <v>4.6122</v>
       </c>
       <c r="G71" t="n">
-        <v>792.0294479700002</v>
+        <v>841.2117479700001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2991,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>38380</v>
+        <v>38010</v>
       </c>
       <c r="C72" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="D72" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="E72" t="n">
-        <v>38380</v>
+        <v>38010</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3397</v>
+        <v>70.2805</v>
       </c>
       <c r="G72" t="n">
-        <v>792.3691479700002</v>
+        <v>770.9312479700002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +3027,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>38410</v>
+        <v>38020</v>
       </c>
       <c r="C73" t="n">
-        <v>38410</v>
+        <v>38020</v>
       </c>
       <c r="D73" t="n">
-        <v>38410</v>
+        <v>38020</v>
       </c>
       <c r="E73" t="n">
-        <v>38410</v>
+        <v>38020</v>
       </c>
       <c r="F73" t="n">
-        <v>2.4051</v>
+        <v>22.2154</v>
       </c>
       <c r="G73" t="n">
-        <v>792.3691479700002</v>
+        <v>793.1466479700002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3063,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="C74" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="D74" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="E74" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="F74" t="n">
-        <v>2.6656</v>
+        <v>10.8684</v>
       </c>
       <c r="G74" t="n">
-        <v>792.3691479700002</v>
+        <v>782.2782479700003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,63 +3099,69 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38410</v>
+        <v>38080</v>
       </c>
       <c r="C75" t="n">
-        <v>38410</v>
+        <v>38080</v>
       </c>
       <c r="D75" t="n">
-        <v>38410</v>
+        <v>38080</v>
       </c>
       <c r="E75" t="n">
-        <v>38410</v>
+        <v>38080</v>
       </c>
       <c r="F75" t="n">
-        <v>21.7711</v>
+        <v>8.4946</v>
       </c>
       <c r="G75" t="n">
-        <v>792.3691479700002</v>
+        <v>790.7728479700003</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>38010</v>
+      </c>
+      <c r="K75" t="n">
+        <v>38010</v>
+      </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>38410</v>
+        <v>38080</v>
       </c>
       <c r="C76" t="n">
-        <v>38410</v>
+        <v>38020</v>
       </c>
       <c r="D76" t="n">
-        <v>38410</v>
+        <v>38080</v>
       </c>
       <c r="E76" t="n">
-        <v>38410</v>
+        <v>38020</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5789</v>
+        <v>27.612</v>
       </c>
       <c r="G76" t="n">
-        <v>792.3691479700002</v>
+        <v>763.1608479700003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,68 +3170,84 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>38010</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="C77" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="D77" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="E77" t="n">
-        <v>38410</v>
+        <v>38010</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0165</v>
+        <v>1.6646</v>
       </c>
       <c r="G77" t="n">
-        <v>792.3691479700002</v>
+        <v>761.4962479700004</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>38020</v>
+      </c>
+      <c r="K77" t="n">
+        <v>38010</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>38500</v>
+        <v>38010</v>
       </c>
       <c r="C78" t="n">
-        <v>38500</v>
+        <v>38060</v>
       </c>
       <c r="D78" t="n">
-        <v>38500</v>
+        <v>38060</v>
       </c>
       <c r="E78" t="n">
-        <v>38500</v>
+        <v>37710</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03</v>
+        <v>206.1457</v>
       </c>
       <c r="G78" t="n">
-        <v>792.3991479700002</v>
+        <v>967.6419479700004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3261,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38280</v>
+        <v>38110</v>
       </c>
       <c r="C79" t="n">
-        <v>38280</v>
+        <v>38110</v>
       </c>
       <c r="D79" t="n">
-        <v>38280</v>
+        <v>38110</v>
       </c>
       <c r="E79" t="n">
-        <v>38280</v>
+        <v>38110</v>
       </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>5.5361</v>
       </c>
       <c r="G79" t="n">
-        <v>787.3991479700002</v>
+        <v>973.1780479700004</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3297,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>38100</v>
+        <v>38250</v>
       </c>
       <c r="C80" t="n">
-        <v>38100</v>
+        <v>38250</v>
       </c>
       <c r="D80" t="n">
-        <v>38100</v>
+        <v>38250</v>
       </c>
       <c r="E80" t="n">
-        <v>38100</v>
+        <v>38250</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2725</v>
+        <v>0.6805</v>
       </c>
       <c r="G80" t="n">
-        <v>787.1266479700001</v>
+        <v>973.8585479700005</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3333,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37900</v>
+        <v>38110</v>
       </c>
       <c r="C81" t="n">
-        <v>37900</v>
+        <v>38060</v>
       </c>
       <c r="D81" t="n">
-        <v>37900</v>
+        <v>38110</v>
       </c>
       <c r="E81" t="n">
-        <v>37900</v>
+        <v>38060</v>
       </c>
       <c r="F81" t="n">
-        <v>2.473</v>
+        <v>7.6654</v>
       </c>
       <c r="G81" t="n">
-        <v>784.6536479700002</v>
+        <v>966.1931479700005</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3369,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>37940</v>
+        <v>38050</v>
       </c>
       <c r="C82" t="n">
-        <v>37940</v>
+        <v>38050</v>
       </c>
       <c r="D82" t="n">
-        <v>37940</v>
+        <v>38050</v>
       </c>
       <c r="E82" t="n">
-        <v>37940</v>
+        <v>38050</v>
       </c>
       <c r="F82" t="n">
-        <v>0.85</v>
+        <v>6.0019</v>
       </c>
       <c r="G82" t="n">
-        <v>785.5036479700002</v>
+        <v>960.1912479700005</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3405,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="C83" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="D83" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="E83" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="F83" t="n">
-        <v>2.663</v>
+        <v>1.6173</v>
       </c>
       <c r="G83" t="n">
-        <v>782.8406479700002</v>
+        <v>960.1912479700005</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3441,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>37790</v>
+        <v>38230</v>
       </c>
       <c r="C84" t="n">
-        <v>37790</v>
+        <v>38540</v>
       </c>
       <c r="D84" t="n">
-        <v>37790</v>
+        <v>38540</v>
       </c>
       <c r="E84" t="n">
-        <v>37790</v>
+        <v>38230</v>
       </c>
       <c r="F84" t="n">
-        <v>13.1443</v>
+        <v>33.5</v>
       </c>
       <c r="G84" t="n">
-        <v>795.9849479700002</v>
+        <v>993.6912479700005</v>
       </c>
       <c r="H84" t="n">
         <v>1</v>
@@ -3327,37 +3472,38 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="K84" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>37810</v>
+        <v>38360</v>
       </c>
       <c r="C85" t="n">
-        <v>37810</v>
+        <v>38730</v>
       </c>
       <c r="D85" t="n">
-        <v>37810</v>
+        <v>38730</v>
       </c>
       <c r="E85" t="n">
-        <v>37810</v>
+        <v>38360</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2511</v>
+        <v>3.5789</v>
       </c>
       <c r="G85" t="n">
-        <v>796.2360479700002</v>
+        <v>997.2701479700005</v>
       </c>
       <c r="H85" t="n">
         <v>1</v>
@@ -3366,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>37790</v>
+        <v>38540</v>
       </c>
       <c r="K85" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3379,28 +3525,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>37820</v>
+        <v>38320</v>
       </c>
       <c r="C86" t="n">
-        <v>37830</v>
+        <v>38310</v>
       </c>
       <c r="D86" t="n">
-        <v>37830</v>
+        <v>38320</v>
       </c>
       <c r="E86" t="n">
-        <v>37820</v>
+        <v>38310</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5415</v>
+        <v>4.5538</v>
       </c>
       <c r="G86" t="n">
-        <v>796.7775479700002</v>
+        <v>992.7163479700005</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3410,7 +3557,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>37710</v>
+        <v>38050</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3420,196 +3567,173 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>37840</v>
+        <v>38200</v>
       </c>
       <c r="C87" t="n">
-        <v>37840</v>
+        <v>38200</v>
       </c>
       <c r="D87" t="n">
-        <v>37840</v>
+        <v>38200</v>
       </c>
       <c r="E87" t="n">
-        <v>37840</v>
+        <v>38200</v>
       </c>
       <c r="F87" t="n">
-        <v>0.106</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>796.8835479700002</v>
+        <v>972.7163479700005</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>37830</v>
-      </c>
-      <c r="K87" t="n">
-        <v>37830</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>37850</v>
+        <v>38480</v>
       </c>
       <c r="C88" t="n">
-        <v>37850</v>
+        <v>38190</v>
       </c>
       <c r="D88" t="n">
-        <v>37850</v>
+        <v>38490</v>
       </c>
       <c r="E88" t="n">
-        <v>37850</v>
+        <v>38190</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2725</v>
+        <v>8.451000000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>797.1560479700003</v>
+        <v>964.2653479700004</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>37840</v>
-      </c>
-      <c r="K88" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38490</v>
+        <v>38510</v>
       </c>
       <c r="C89" t="n">
-        <v>38490</v>
+        <v>38250</v>
       </c>
       <c r="D89" t="n">
-        <v>38500</v>
+        <v>38720</v>
       </c>
       <c r="E89" t="n">
-        <v>38490</v>
+        <v>38250</v>
       </c>
       <c r="F89" t="n">
-        <v>3.1818</v>
+        <v>400.0205</v>
       </c>
       <c r="G89" t="n">
-        <v>800.3378479700002</v>
+        <v>1364.285847970001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>37850</v>
-      </c>
-      <c r="K89" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>38490</v>
+        <v>38460</v>
       </c>
       <c r="C90" t="n">
-        <v>38500</v>
+        <v>38450</v>
       </c>
       <c r="D90" t="n">
-        <v>38500</v>
+        <v>38460</v>
       </c>
       <c r="E90" t="n">
-        <v>38490</v>
+        <v>38450</v>
       </c>
       <c r="F90" t="n">
-        <v>22.4493</v>
+        <v>34.0016</v>
       </c>
       <c r="G90" t="n">
-        <v>822.7871479700002</v>
+        <v>1398.287447970001</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>38490</v>
-      </c>
-      <c r="K90" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>38600</v>
+        <v>38460</v>
       </c>
       <c r="C91" t="n">
-        <v>38600</v>
+        <v>38460</v>
       </c>
       <c r="D91" t="n">
-        <v>38600</v>
+        <v>38460</v>
       </c>
       <c r="E91" t="n">
-        <v>38600</v>
+        <v>38460</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8264</v>
+        <v>9.459</v>
       </c>
       <c r="G91" t="n">
-        <v>823.6135479700002</v>
+        <v>1407.746447970001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3618,39 +3742,34 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="C92" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="D92" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="E92" t="n">
-        <v>38330</v>
+        <v>38710</v>
       </c>
       <c r="F92" t="n">
-        <v>3.1506</v>
+        <v>1.03</v>
       </c>
       <c r="G92" t="n">
-        <v>820.4629479700002</v>
+        <v>1408.776447970001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3659,39 +3778,34 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>38240</v>
+        <v>38720</v>
       </c>
       <c r="C93" t="n">
-        <v>38230</v>
+        <v>38510</v>
       </c>
       <c r="D93" t="n">
-        <v>38240</v>
+        <v>38720</v>
       </c>
       <c r="E93" t="n">
-        <v>38230</v>
+        <v>38510</v>
       </c>
       <c r="F93" t="n">
-        <v>2.5519</v>
+        <v>28.7112</v>
       </c>
       <c r="G93" t="n">
-        <v>817.9110479700001</v>
+        <v>1380.065247970001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3700,39 +3814,34 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>38580</v>
+        <v>38520</v>
       </c>
       <c r="C94" t="n">
-        <v>38580</v>
+        <v>38510</v>
       </c>
       <c r="D94" t="n">
-        <v>38580</v>
+        <v>38520</v>
       </c>
       <c r="E94" t="n">
-        <v>38580</v>
+        <v>38510</v>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>8.0769</v>
       </c>
       <c r="G94" t="n">
-        <v>819.9110479700001</v>
+        <v>1380.065247970001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3741,39 +3850,34 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38580</v>
+        <v>38530</v>
       </c>
       <c r="C95" t="n">
-        <v>38580</v>
+        <v>38530</v>
       </c>
       <c r="D95" t="n">
-        <v>38580</v>
+        <v>38530</v>
       </c>
       <c r="E95" t="n">
-        <v>38580</v>
+        <v>38530</v>
       </c>
       <c r="F95" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G95" t="n">
-        <v>819.9110479700001</v>
+        <v>1386.065247970001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3782,39 +3886,34 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>38600</v>
+        <v>38530</v>
       </c>
       <c r="C96" t="n">
-        <v>38600</v>
+        <v>38790</v>
       </c>
       <c r="D96" t="n">
-        <v>38600</v>
+        <v>38790</v>
       </c>
       <c r="E96" t="n">
-        <v>38600</v>
+        <v>38530</v>
       </c>
       <c r="F96" t="n">
-        <v>2.8591</v>
+        <v>19.6999</v>
       </c>
       <c r="G96" t="n">
-        <v>822.7701479700002</v>
+        <v>1405.765147970001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3823,39 +3922,34 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="C97" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="D97" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="E97" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="F97" t="n">
-        <v>7.1681</v>
+        <v>2.2968</v>
       </c>
       <c r="G97" t="n">
-        <v>829.9382479700001</v>
+        <v>1408.061947970001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3864,39 +3958,34 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="C98" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="D98" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="E98" t="n">
-        <v>38740</v>
+        <v>39000</v>
       </c>
       <c r="F98" t="n">
-        <v>41.6164</v>
+        <v>8.4421</v>
       </c>
       <c r="G98" t="n">
-        <v>829.9382479700001</v>
+        <v>1408.061947970001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3905,203 +3994,178 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>38740</v>
+        <v>39080</v>
       </c>
       <c r="C99" t="n">
-        <v>38740</v>
+        <v>38830</v>
       </c>
       <c r="D99" t="n">
-        <v>38740</v>
+        <v>39080</v>
       </c>
       <c r="E99" t="n">
-        <v>38740</v>
+        <v>38830</v>
       </c>
       <c r="F99" t="n">
-        <v>8.3849</v>
+        <v>65.3665</v>
       </c>
       <c r="G99" t="n">
-        <v>829.9382479700001</v>
+        <v>1342.695447970001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="C100" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="D100" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="E100" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="F100" t="n">
-        <v>1.1212</v>
+        <v>21.6144</v>
       </c>
       <c r="G100" t="n">
-        <v>829.9382479700001</v>
+        <v>1321.081047970001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38750</v>
+        <v>38560</v>
       </c>
       <c r="C101" t="n">
-        <v>38750</v>
+        <v>38530</v>
       </c>
       <c r="D101" t="n">
-        <v>38750</v>
+        <v>38560</v>
       </c>
       <c r="E101" t="n">
-        <v>38750</v>
+        <v>38510</v>
       </c>
       <c r="F101" t="n">
-        <v>1.7</v>
+        <v>8.8058</v>
       </c>
       <c r="G101" t="n">
-        <v>831.6382479700002</v>
+        <v>1312.275247970001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38770</v>
+        <v>38520</v>
       </c>
       <c r="C102" t="n">
-        <v>38770</v>
+        <v>38790</v>
       </c>
       <c r="D102" t="n">
-        <v>38770</v>
+        <v>38790</v>
       </c>
       <c r="E102" t="n">
-        <v>38770</v>
+        <v>38500</v>
       </c>
       <c r="F102" t="n">
-        <v>12.04</v>
+        <v>36.6405</v>
       </c>
       <c r="G102" t="n">
-        <v>843.6782479700001</v>
+        <v>1348.915747970001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38770</v>
+        <v>38600</v>
       </c>
       <c r="C103" t="n">
-        <v>39000</v>
+        <v>38510</v>
       </c>
       <c r="D103" t="n">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="E103" t="n">
-        <v>38770</v>
+        <v>38510</v>
       </c>
       <c r="F103" t="n">
-        <v>12.1</v>
+        <v>11.4326</v>
       </c>
       <c r="G103" t="n">
-        <v>855.7782479700002</v>
+        <v>1337.483147970001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,39 +4174,34 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39000</v>
+        <v>38510</v>
       </c>
       <c r="C104" t="n">
-        <v>39000</v>
+        <v>38300</v>
       </c>
       <c r="D104" t="n">
-        <v>39000</v>
+        <v>38510</v>
       </c>
       <c r="E104" t="n">
-        <v>39000</v>
+        <v>38300</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1</v>
+        <v>10.7768</v>
       </c>
       <c r="G104" t="n">
-        <v>855.7782479700002</v>
+        <v>1326.70634797</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4151,39 +4210,34 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39000</v>
+        <v>38330</v>
       </c>
       <c r="C105" t="n">
-        <v>39000</v>
+        <v>38290</v>
       </c>
       <c r="D105" t="n">
-        <v>39000</v>
+        <v>38330</v>
       </c>
       <c r="E105" t="n">
-        <v>39000</v>
+        <v>38290</v>
       </c>
       <c r="F105" t="n">
-        <v>70.2805</v>
+        <v>51.0359</v>
       </c>
       <c r="G105" t="n">
-        <v>855.7782479700002</v>
+        <v>1275.67044797</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4192,39 +4246,34 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39060</v>
+        <v>38240</v>
       </c>
       <c r="C106" t="n">
-        <v>39060</v>
+        <v>38230</v>
       </c>
       <c r="D106" t="n">
-        <v>39060</v>
+        <v>38240</v>
       </c>
       <c r="E106" t="n">
-        <v>39060</v>
+        <v>38230</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1</v>
+        <v>21.5193</v>
       </c>
       <c r="G106" t="n">
-        <v>855.8782479700002</v>
+        <v>1254.15114797</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4233,39 +4282,34 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38780</v>
+        <v>38330</v>
       </c>
       <c r="C107" t="n">
-        <v>38580</v>
+        <v>38280</v>
       </c>
       <c r="D107" t="n">
-        <v>38780</v>
+        <v>38330</v>
       </c>
       <c r="E107" t="n">
-        <v>38580</v>
+        <v>38280</v>
       </c>
       <c r="F107" t="n">
-        <v>4.8822</v>
+        <v>6.5536</v>
       </c>
       <c r="G107" t="n">
-        <v>850.9960479700002</v>
+        <v>1260.70474797</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4274,39 +4318,34 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>38370</v>
+        <v>38570</v>
       </c>
       <c r="C108" t="n">
-        <v>38370</v>
+        <v>38590</v>
       </c>
       <c r="D108" t="n">
-        <v>38370</v>
+        <v>38590</v>
       </c>
       <c r="E108" t="n">
-        <v>38370</v>
+        <v>38570</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6205000000000001</v>
+        <v>11.9188</v>
       </c>
       <c r="G108" t="n">
-        <v>850.3755479700002</v>
+        <v>1272.62354797</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4315,39 +4354,34 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38260</v>
+        <v>38420</v>
       </c>
       <c r="C109" t="n">
-        <v>38250</v>
+        <v>38420</v>
       </c>
       <c r="D109" t="n">
-        <v>38260</v>
+        <v>38420</v>
       </c>
       <c r="E109" t="n">
-        <v>38250</v>
+        <v>38410</v>
       </c>
       <c r="F109" t="n">
-        <v>1.9906</v>
+        <v>2.4304</v>
       </c>
       <c r="G109" t="n">
-        <v>848.3849479700002</v>
+        <v>1270.19314797</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4356,39 +4390,34 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>38250</v>
+        <v>38420</v>
       </c>
       <c r="C110" t="n">
-        <v>38250</v>
+        <v>38420</v>
       </c>
       <c r="D110" t="n">
-        <v>38250</v>
+        <v>38420</v>
       </c>
       <c r="E110" t="n">
-        <v>38250</v>
+        <v>38420</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1103</v>
+        <v>0.3773</v>
       </c>
       <c r="G110" t="n">
-        <v>848.3849479700002</v>
+        <v>1270.19314797</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4397,39 +4426,34 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>38250</v>
+        <v>38760</v>
       </c>
       <c r="C111" t="n">
-        <v>38250</v>
+        <v>38760</v>
       </c>
       <c r="D111" t="n">
-        <v>38250</v>
+        <v>38760</v>
       </c>
       <c r="E111" t="n">
-        <v>38250</v>
+        <v>38760</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0223</v>
+        <v>0.8552999999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>848.3849479700002</v>
+        <v>1271.04844797</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4438,39 +4462,34 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38060</v>
+        <v>38870</v>
       </c>
       <c r="C112" t="n">
-        <v>38050</v>
+        <v>38870</v>
       </c>
       <c r="D112" t="n">
-        <v>38060</v>
+        <v>38870</v>
       </c>
       <c r="E112" t="n">
-        <v>38050</v>
+        <v>38870</v>
       </c>
       <c r="F112" t="n">
-        <v>2.561</v>
+        <v>2.939</v>
       </c>
       <c r="G112" t="n">
-        <v>845.8239479700002</v>
+        <v>1273.98744797</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4479,39 +4498,34 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>38040</v>
+        <v>39100</v>
       </c>
       <c r="C113" t="n">
-        <v>38040</v>
+        <v>39260</v>
       </c>
       <c r="D113" t="n">
-        <v>38040</v>
+        <v>39260</v>
       </c>
       <c r="E113" t="n">
-        <v>38040</v>
+        <v>39100</v>
       </c>
       <c r="F113" t="n">
-        <v>4.6122</v>
+        <v>26.5906</v>
       </c>
       <c r="G113" t="n">
-        <v>841.2117479700001</v>
+        <v>1300.57804797</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4520,39 +4534,34 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>38010</v>
+        <v>39250</v>
       </c>
       <c r="C114" t="n">
-        <v>38010</v>
+        <v>39310</v>
       </c>
       <c r="D114" t="n">
-        <v>38010</v>
+        <v>39310</v>
       </c>
       <c r="E114" t="n">
-        <v>38010</v>
+        <v>39250</v>
       </c>
       <c r="F114" t="n">
-        <v>70.2805</v>
+        <v>11.9</v>
       </c>
       <c r="G114" t="n">
-        <v>770.9312479700002</v>
+        <v>1312.47804797</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4561,39 +4570,34 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>38020</v>
+        <v>39310</v>
       </c>
       <c r="C115" t="n">
-        <v>38020</v>
+        <v>39310</v>
       </c>
       <c r="D115" t="n">
-        <v>38020</v>
+        <v>39310</v>
       </c>
       <c r="E115" t="n">
-        <v>38020</v>
+        <v>39310</v>
       </c>
       <c r="F115" t="n">
-        <v>22.2154</v>
+        <v>11.5798</v>
       </c>
       <c r="G115" t="n">
-        <v>793.1466479700002</v>
+        <v>1312.47804797</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4602,80 +4606,70 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>38010</v>
+        <v>39320</v>
       </c>
       <c r="C116" t="n">
-        <v>38010</v>
+        <v>39620</v>
       </c>
       <c r="D116" t="n">
-        <v>38010</v>
+        <v>39620</v>
       </c>
       <c r="E116" t="n">
-        <v>38010</v>
+        <v>39320</v>
       </c>
       <c r="F116" t="n">
-        <v>10.8684</v>
+        <v>3.9066</v>
       </c>
       <c r="G116" t="n">
-        <v>782.2782479700003</v>
+        <v>1316.384647970001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>38080</v>
+        <v>39210</v>
       </c>
       <c r="C117" t="n">
-        <v>38080</v>
+        <v>39200</v>
       </c>
       <c r="D117" t="n">
-        <v>38080</v>
+        <v>39210</v>
       </c>
       <c r="E117" t="n">
-        <v>38080</v>
+        <v>39200</v>
       </c>
       <c r="F117" t="n">
-        <v>8.4946</v>
+        <v>11.5798</v>
       </c>
       <c r="G117" t="n">
-        <v>790.7728479700003</v>
+        <v>1304.804847970001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4684,1838 +4678,120 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>38080</v>
+        <v>39610</v>
       </c>
       <c r="C118" t="n">
-        <v>38020</v>
+        <v>39630</v>
       </c>
       <c r="D118" t="n">
-        <v>38080</v>
+        <v>39630</v>
       </c>
       <c r="E118" t="n">
-        <v>38020</v>
+        <v>39610</v>
       </c>
       <c r="F118" t="n">
-        <v>27.612</v>
+        <v>6.4531</v>
       </c>
       <c r="G118" t="n">
-        <v>763.1608479700003</v>
+        <v>1311.25794797</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>38010</v>
+        <v>39650</v>
       </c>
       <c r="C119" t="n">
-        <v>38010</v>
+        <v>39650</v>
       </c>
       <c r="D119" t="n">
-        <v>38010</v>
+        <v>39650</v>
       </c>
       <c r="E119" t="n">
-        <v>38010</v>
+        <v>39650</v>
       </c>
       <c r="F119" t="n">
-        <v>1.6646</v>
+        <v>0.03</v>
       </c>
       <c r="G119" t="n">
-        <v>761.4962479700004</v>
+        <v>1311.28794797</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>38020</v>
-      </c>
-      <c r="K119" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>38010</v>
+        <v>39770</v>
       </c>
       <c r="C120" t="n">
-        <v>38060</v>
+        <v>39770</v>
       </c>
       <c r="D120" t="n">
-        <v>38060</v>
+        <v>39770</v>
       </c>
       <c r="E120" t="n">
-        <v>37710</v>
+        <v>39770</v>
       </c>
       <c r="F120" t="n">
-        <v>206.1457</v>
+        <v>0.026</v>
       </c>
       <c r="G120" t="n">
-        <v>967.6419479700004</v>
+        <v>1311.313947970001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>38010</v>
-      </c>
-      <c r="K120" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>38110</v>
-      </c>
-      <c r="C121" t="n">
-        <v>38110</v>
-      </c>
-      <c r="D121" t="n">
-        <v>38110</v>
-      </c>
-      <c r="E121" t="n">
-        <v>38110</v>
-      </c>
-      <c r="F121" t="n">
-        <v>5.5361</v>
-      </c>
-      <c r="G121" t="n">
-        <v>973.1780479700004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>38060</v>
-      </c>
-      <c r="K121" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>38250</v>
-      </c>
-      <c r="C122" t="n">
-        <v>38250</v>
-      </c>
-      <c r="D122" t="n">
-        <v>38250</v>
-      </c>
-      <c r="E122" t="n">
-        <v>38250</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.6805</v>
-      </c>
-      <c r="G122" t="n">
-        <v>973.8585479700005</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>38110</v>
-      </c>
-      <c r="K122" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>38110</v>
-      </c>
-      <c r="C123" t="n">
-        <v>38060</v>
-      </c>
-      <c r="D123" t="n">
-        <v>38110</v>
-      </c>
-      <c r="E123" t="n">
-        <v>38060</v>
-      </c>
-      <c r="F123" t="n">
-        <v>7.6654</v>
-      </c>
-      <c r="G123" t="n">
-        <v>966.1931479700005</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>38250</v>
-      </c>
-      <c r="K123" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>38050</v>
-      </c>
-      <c r="C124" t="n">
-        <v>38050</v>
-      </c>
-      <c r="D124" t="n">
-        <v>38050</v>
-      </c>
-      <c r="E124" t="n">
-        <v>38050</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6.0019</v>
-      </c>
-      <c r="G124" t="n">
-        <v>960.1912479700005</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>38050</v>
-      </c>
-      <c r="C125" t="n">
-        <v>38050</v>
-      </c>
-      <c r="D125" t="n">
-        <v>38050</v>
-      </c>
-      <c r="E125" t="n">
-        <v>38050</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1.6173</v>
-      </c>
-      <c r="G125" t="n">
-        <v>960.1912479700005</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>38050</v>
-      </c>
-      <c r="K125" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>38230</v>
-      </c>
-      <c r="C126" t="n">
-        <v>38540</v>
-      </c>
-      <c r="D126" t="n">
-        <v>38540</v>
-      </c>
-      <c r="E126" t="n">
-        <v>38230</v>
-      </c>
-      <c r="F126" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="G126" t="n">
-        <v>993.6912479700005</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>38360</v>
-      </c>
-      <c r="C127" t="n">
-        <v>38730</v>
-      </c>
-      <c r="D127" t="n">
-        <v>38730</v>
-      </c>
-      <c r="E127" t="n">
-        <v>38360</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3.5789</v>
-      </c>
-      <c r="G127" t="n">
-        <v>997.2701479700005</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>38320</v>
-      </c>
-      <c r="C128" t="n">
-        <v>38310</v>
-      </c>
-      <c r="D128" t="n">
-        <v>38320</v>
-      </c>
-      <c r="E128" t="n">
-        <v>38310</v>
-      </c>
-      <c r="F128" t="n">
-        <v>4.5538</v>
-      </c>
-      <c r="G128" t="n">
-        <v>992.7163479700005</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>38200</v>
-      </c>
-      <c r="C129" t="n">
-        <v>38200</v>
-      </c>
-      <c r="D129" t="n">
-        <v>38200</v>
-      </c>
-      <c r="E129" t="n">
-        <v>38200</v>
-      </c>
-      <c r="F129" t="n">
-        <v>20</v>
-      </c>
-      <c r="G129" t="n">
-        <v>972.7163479700005</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>38480</v>
-      </c>
-      <c r="C130" t="n">
-        <v>38190</v>
-      </c>
-      <c r="D130" t="n">
-        <v>38490</v>
-      </c>
-      <c r="E130" t="n">
-        <v>38190</v>
-      </c>
-      <c r="F130" t="n">
-        <v>8.451000000000001</v>
-      </c>
-      <c r="G130" t="n">
-        <v>964.2653479700004</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>38510</v>
-      </c>
-      <c r="C131" t="n">
-        <v>38250</v>
-      </c>
-      <c r="D131" t="n">
-        <v>38720</v>
-      </c>
-      <c r="E131" t="n">
-        <v>38250</v>
-      </c>
-      <c r="F131" t="n">
-        <v>400.0205</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1364.285847970001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>38460</v>
-      </c>
-      <c r="C132" t="n">
-        <v>38450</v>
-      </c>
-      <c r="D132" t="n">
-        <v>38460</v>
-      </c>
-      <c r="E132" t="n">
-        <v>38450</v>
-      </c>
-      <c r="F132" t="n">
-        <v>34.0016</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1398.287447970001</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>38460</v>
-      </c>
-      <c r="C133" t="n">
-        <v>38460</v>
-      </c>
-      <c r="D133" t="n">
-        <v>38460</v>
-      </c>
-      <c r="E133" t="n">
-        <v>38460</v>
-      </c>
-      <c r="F133" t="n">
-        <v>9.459</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1407.746447970001</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>38710</v>
-      </c>
-      <c r="C134" t="n">
-        <v>38710</v>
-      </c>
-      <c r="D134" t="n">
-        <v>38710</v>
-      </c>
-      <c r="E134" t="n">
-        <v>38710</v>
-      </c>
-      <c r="F134" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1408.776447970001</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>38720</v>
-      </c>
-      <c r="C135" t="n">
-        <v>38510</v>
-      </c>
-      <c r="D135" t="n">
-        <v>38720</v>
-      </c>
-      <c r="E135" t="n">
-        <v>38510</v>
-      </c>
-      <c r="F135" t="n">
-        <v>28.7112</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1380.065247970001</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>38520</v>
-      </c>
-      <c r="C136" t="n">
-        <v>38510</v>
-      </c>
-      <c r="D136" t="n">
-        <v>38520</v>
-      </c>
-      <c r="E136" t="n">
-        <v>38510</v>
-      </c>
-      <c r="F136" t="n">
-        <v>8.0769</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1380.065247970001</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>38530</v>
-      </c>
-      <c r="C137" t="n">
-        <v>38530</v>
-      </c>
-      <c r="D137" t="n">
-        <v>38530</v>
-      </c>
-      <c r="E137" t="n">
-        <v>38530</v>
-      </c>
-      <c r="F137" t="n">
-        <v>6</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1386.065247970001</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>38530</v>
-      </c>
-      <c r="C138" t="n">
-        <v>38790</v>
-      </c>
-      <c r="D138" t="n">
-        <v>38790</v>
-      </c>
-      <c r="E138" t="n">
-        <v>38530</v>
-      </c>
-      <c r="F138" t="n">
-        <v>19.6999</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1405.765147970001</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>39000</v>
-      </c>
-      <c r="C139" t="n">
-        <v>39000</v>
-      </c>
-      <c r="D139" t="n">
-        <v>39000</v>
-      </c>
-      <c r="E139" t="n">
-        <v>39000</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2.2968</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1408.061947970001</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>39000</v>
-      </c>
-      <c r="C140" t="n">
-        <v>39000</v>
-      </c>
-      <c r="D140" t="n">
-        <v>39000</v>
-      </c>
-      <c r="E140" t="n">
-        <v>39000</v>
-      </c>
-      <c r="F140" t="n">
-        <v>8.4421</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1408.061947970001</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>39080</v>
-      </c>
-      <c r="C141" t="n">
-        <v>38830</v>
-      </c>
-      <c r="D141" t="n">
-        <v>39080</v>
-      </c>
-      <c r="E141" t="n">
-        <v>38830</v>
-      </c>
-      <c r="F141" t="n">
-        <v>65.3665</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1342.695447970001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>38560</v>
-      </c>
-      <c r="C142" t="n">
-        <v>38560</v>
-      </c>
-      <c r="D142" t="n">
-        <v>38560</v>
-      </c>
-      <c r="E142" t="n">
-        <v>38560</v>
-      </c>
-      <c r="F142" t="n">
-        <v>21.6144</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1321.081047970001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>38560</v>
-      </c>
-      <c r="C143" t="n">
-        <v>38530</v>
-      </c>
-      <c r="D143" t="n">
-        <v>38560</v>
-      </c>
-      <c r="E143" t="n">
-        <v>38510</v>
-      </c>
-      <c r="F143" t="n">
-        <v>8.8058</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1312.275247970001</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>38520</v>
-      </c>
-      <c r="C144" t="n">
-        <v>38790</v>
-      </c>
-      <c r="D144" t="n">
-        <v>38790</v>
-      </c>
-      <c r="E144" t="n">
-        <v>38500</v>
-      </c>
-      <c r="F144" t="n">
-        <v>36.6405</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1348.915747970001</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>38600</v>
-      </c>
-      <c r="C145" t="n">
-        <v>38510</v>
-      </c>
-      <c r="D145" t="n">
-        <v>38600</v>
-      </c>
-      <c r="E145" t="n">
-        <v>38510</v>
-      </c>
-      <c r="F145" t="n">
-        <v>11.4326</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1337.483147970001</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>38510</v>
-      </c>
-      <c r="C146" t="n">
-        <v>38300</v>
-      </c>
-      <c r="D146" t="n">
-        <v>38510</v>
-      </c>
-      <c r="E146" t="n">
-        <v>38300</v>
-      </c>
-      <c r="F146" t="n">
-        <v>10.7768</v>
-      </c>
-      <c r="G146" t="n">
-        <v>1326.70634797</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>38330</v>
-      </c>
-      <c r="C147" t="n">
-        <v>38290</v>
-      </c>
-      <c r="D147" t="n">
-        <v>38330</v>
-      </c>
-      <c r="E147" t="n">
-        <v>38290</v>
-      </c>
-      <c r="F147" t="n">
-        <v>51.0359</v>
-      </c>
-      <c r="G147" t="n">
-        <v>1275.67044797</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>38240</v>
-      </c>
-      <c r="C148" t="n">
-        <v>38230</v>
-      </c>
-      <c r="D148" t="n">
-        <v>38240</v>
-      </c>
-      <c r="E148" t="n">
-        <v>38230</v>
-      </c>
-      <c r="F148" t="n">
-        <v>21.5193</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1254.15114797</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>38330</v>
-      </c>
-      <c r="C149" t="n">
-        <v>38280</v>
-      </c>
-      <c r="D149" t="n">
-        <v>38330</v>
-      </c>
-      <c r="E149" t="n">
-        <v>38280</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6.5536</v>
-      </c>
-      <c r="G149" t="n">
-        <v>1260.70474797</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>38570</v>
-      </c>
-      <c r="C150" t="n">
-        <v>38590</v>
-      </c>
-      <c r="D150" t="n">
-        <v>38590</v>
-      </c>
-      <c r="E150" t="n">
-        <v>38570</v>
-      </c>
-      <c r="F150" t="n">
-        <v>11.9188</v>
-      </c>
-      <c r="G150" t="n">
-        <v>1272.62354797</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>38420</v>
-      </c>
-      <c r="C151" t="n">
-        <v>38420</v>
-      </c>
-      <c r="D151" t="n">
-        <v>38420</v>
-      </c>
-      <c r="E151" t="n">
-        <v>38410</v>
-      </c>
-      <c r="F151" t="n">
-        <v>2.4304</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1270.19314797</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>38420</v>
-      </c>
-      <c r="C152" t="n">
-        <v>38420</v>
-      </c>
-      <c r="D152" t="n">
-        <v>38420</v>
-      </c>
-      <c r="E152" t="n">
-        <v>38420</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.3773</v>
-      </c>
-      <c r="G152" t="n">
-        <v>1270.19314797</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>38760</v>
-      </c>
-      <c r="C153" t="n">
-        <v>38760</v>
-      </c>
-      <c r="D153" t="n">
-        <v>38760</v>
-      </c>
-      <c r="E153" t="n">
-        <v>38760</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.8552999999999999</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1271.04844797</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>38870</v>
-      </c>
-      <c r="C154" t="n">
-        <v>38870</v>
-      </c>
-      <c r="D154" t="n">
-        <v>38870</v>
-      </c>
-      <c r="E154" t="n">
-        <v>38870</v>
-      </c>
-      <c r="F154" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1273.98744797</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>39100</v>
-      </c>
-      <c r="C155" t="n">
-        <v>39260</v>
-      </c>
-      <c r="D155" t="n">
-        <v>39260</v>
-      </c>
-      <c r="E155" t="n">
-        <v>39100</v>
-      </c>
-      <c r="F155" t="n">
-        <v>26.5906</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1300.57804797</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>39250</v>
-      </c>
-      <c r="C156" t="n">
-        <v>39310</v>
-      </c>
-      <c r="D156" t="n">
-        <v>39310</v>
-      </c>
-      <c r="E156" t="n">
-        <v>39250</v>
-      </c>
-      <c r="F156" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1312.47804797</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1.034122389637854</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>39310</v>
-      </c>
-      <c r="C157" t="n">
-        <v>39310</v>
-      </c>
-      <c r="D157" t="n">
-        <v>39310</v>
-      </c>
-      <c r="E157" t="n">
-        <v>39310</v>
-      </c>
-      <c r="F157" t="n">
-        <v>11.5798</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1312.47804797</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>39320</v>
-      </c>
-      <c r="C158" t="n">
-        <v>39620</v>
-      </c>
-      <c r="D158" t="n">
-        <v>39620</v>
-      </c>
-      <c r="E158" t="n">
-        <v>39320</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3.9066</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1316.384647970001</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>39210</v>
-      </c>
-      <c r="C159" t="n">
-        <v>39200</v>
-      </c>
-      <c r="D159" t="n">
-        <v>39210</v>
-      </c>
-      <c r="E159" t="n">
-        <v>39200</v>
-      </c>
-      <c r="F159" t="n">
-        <v>11.5798</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1304.804847970001</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>39610</v>
-      </c>
-      <c r="C160" t="n">
-        <v>39630</v>
-      </c>
-      <c r="D160" t="n">
-        <v>39630</v>
-      </c>
-      <c r="E160" t="n">
-        <v>39610</v>
-      </c>
-      <c r="F160" t="n">
-        <v>6.4531</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1311.25794797</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>39650</v>
-      </c>
-      <c r="C161" t="n">
-        <v>39650</v>
-      </c>
-      <c r="D161" t="n">
-        <v>39650</v>
-      </c>
-      <c r="E161" t="n">
-        <v>39650</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1311.28794797</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>39770</v>
-      </c>
-      <c r="C162" t="n">
-        <v>39770</v>
-      </c>
-      <c r="D162" t="n">
-        <v>39770</v>
-      </c>
-      <c r="E162" t="n">
-        <v>39770</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1311.313947970001</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
+      <c r="N120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N120"/>
+  <dimension ref="A1:N191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>38670</v>
+        <v>38140</v>
       </c>
       <c r="C2" t="n">
-        <v>38690</v>
+        <v>38130</v>
       </c>
       <c r="D2" t="n">
-        <v>38690</v>
+        <v>38140</v>
       </c>
       <c r="E2" t="n">
-        <v>38670</v>
+        <v>38130</v>
       </c>
       <c r="F2" t="n">
-        <v>3.3189</v>
+        <v>7.0657</v>
       </c>
       <c r="G2" t="n">
-        <v>818.2865995200001</v>
+        <v>630.30317365</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>38730</v>
+        <v>38400</v>
       </c>
       <c r="C3" t="n">
-        <v>38920</v>
+        <v>38400</v>
       </c>
       <c r="D3" t="n">
-        <v>38920</v>
+        <v>38400</v>
       </c>
       <c r="E3" t="n">
-        <v>38730</v>
+        <v>38400</v>
       </c>
       <c r="F3" t="n">
-        <v>3.75624845</v>
+        <v>0.48</v>
       </c>
       <c r="G3" t="n">
-        <v>822.0428479700001</v>
+        <v>630.78317365</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>38930</v>
+        <v>38400</v>
       </c>
       <c r="C4" t="n">
-        <v>39500</v>
+        <v>38400</v>
       </c>
       <c r="D4" t="n">
-        <v>39500</v>
+        <v>38400</v>
       </c>
       <c r="E4" t="n">
-        <v>38930</v>
+        <v>38400</v>
       </c>
       <c r="F4" t="n">
-        <v>69.06189999999999</v>
+        <v>2.1176</v>
       </c>
       <c r="G4" t="n">
-        <v>891.1047479700002</v>
+        <v>630.78317365</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39090</v>
+        <v>38460</v>
       </c>
       <c r="C5" t="n">
-        <v>39240</v>
+        <v>38460</v>
       </c>
       <c r="D5" t="n">
-        <v>39500</v>
+        <v>38460</v>
       </c>
       <c r="E5" t="n">
-        <v>38520</v>
+        <v>38460</v>
       </c>
       <c r="F5" t="n">
-        <v>34.9852</v>
+        <v>0.4371</v>
       </c>
       <c r="G5" t="n">
-        <v>856.1195479700002</v>
+        <v>631.22027365</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39050</v>
+        <v>38460</v>
       </c>
       <c r="C6" t="n">
-        <v>39040</v>
+        <v>38710</v>
       </c>
       <c r="D6" t="n">
-        <v>39050</v>
+        <v>38710</v>
       </c>
       <c r="E6" t="n">
-        <v>39040</v>
+        <v>38460</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2231</v>
+        <v>20.7682</v>
       </c>
       <c r="G6" t="n">
-        <v>851.8964479700002</v>
+        <v>651.9884736499999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39220</v>
+        <v>37730</v>
       </c>
       <c r="C7" t="n">
-        <v>39220</v>
+        <v>37730</v>
       </c>
       <c r="D7" t="n">
-        <v>39220</v>
+        <v>37730</v>
       </c>
       <c r="E7" t="n">
-        <v>39220</v>
+        <v>37730</v>
       </c>
       <c r="F7" t="n">
-        <v>3.323</v>
+        <v>20.6823</v>
       </c>
       <c r="G7" t="n">
-        <v>855.2194479700001</v>
+        <v>631.3061736499999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,31 +654,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>38570</v>
+        <v>37730</v>
       </c>
       <c r="C8" t="n">
-        <v>38570</v>
+        <v>37730</v>
       </c>
       <c r="D8" t="n">
-        <v>38570</v>
+        <v>37730</v>
       </c>
       <c r="E8" t="n">
-        <v>38570</v>
+        <v>37730</v>
       </c>
       <c r="F8" t="n">
-        <v>3.7563</v>
+        <v>0.0859</v>
       </c>
       <c r="G8" t="n">
-        <v>851.4631479700001</v>
+        <v>631.3061736499999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K8" t="n">
+        <v>37730</v>
+      </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -690,32 +694,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38890</v>
+        <v>37820</v>
       </c>
       <c r="C9" t="n">
-        <v>38700</v>
+        <v>37460</v>
       </c>
       <c r="D9" t="n">
-        <v>38890</v>
+        <v>37820</v>
       </c>
       <c r="E9" t="n">
-        <v>38700</v>
+        <v>37460</v>
       </c>
       <c r="F9" t="n">
-        <v>3.323</v>
+        <v>9.259</v>
       </c>
       <c r="G9" t="n">
-        <v>854.7861479700001</v>
+        <v>622.0471736499999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K9" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +738,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38630</v>
+        <v>37770</v>
       </c>
       <c r="C10" t="n">
-        <v>38800</v>
+        <v>37770</v>
       </c>
       <c r="D10" t="n">
-        <v>38800</v>
+        <v>37770</v>
       </c>
       <c r="E10" t="n">
-        <v>38630</v>
+        <v>37770</v>
       </c>
       <c r="F10" t="n">
-        <v>15.5</v>
+        <v>2.5976</v>
       </c>
       <c r="G10" t="n">
-        <v>870.2861479700001</v>
+        <v>624.6447736499999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>37460</v>
+      </c>
+      <c r="K10" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +782,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>38900</v>
+        <v>38010</v>
       </c>
       <c r="C11" t="n">
-        <v>38930</v>
+        <v>38010</v>
       </c>
       <c r="D11" t="n">
-        <v>38930</v>
+        <v>38010</v>
       </c>
       <c r="E11" t="n">
-        <v>38900</v>
+        <v>38010</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0.27</v>
       </c>
       <c r="G11" t="n">
-        <v>877.2861479700001</v>
+        <v>624.9147736499999</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>37770</v>
+      </c>
+      <c r="K11" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +826,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38550</v>
+        <v>37970</v>
       </c>
       <c r="C12" t="n">
-        <v>38550</v>
+        <v>37970</v>
       </c>
       <c r="D12" t="n">
-        <v>38550</v>
+        <v>37970</v>
       </c>
       <c r="E12" t="n">
-        <v>38550</v>
+        <v>37970</v>
       </c>
       <c r="F12" t="n">
-        <v>1.3471</v>
+        <v>2.7839</v>
       </c>
       <c r="G12" t="n">
-        <v>875.9390479700002</v>
+        <v>622.1308736499999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>38010</v>
+      </c>
+      <c r="K12" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +870,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>38550</v>
+        <v>37440</v>
       </c>
       <c r="C13" t="n">
-        <v>38550</v>
+        <v>37440</v>
       </c>
       <c r="D13" t="n">
-        <v>38550</v>
+        <v>37440</v>
       </c>
       <c r="E13" t="n">
-        <v>38550</v>
+        <v>37440</v>
       </c>
       <c r="F13" t="n">
-        <v>2.4189</v>
+        <v>1.0019</v>
       </c>
       <c r="G13" t="n">
-        <v>875.9390479700002</v>
+        <v>621.1289736499999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>37970</v>
+      </c>
+      <c r="K13" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,32 +914,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>38550</v>
+        <v>37430</v>
       </c>
       <c r="C14" t="n">
-        <v>38550</v>
+        <v>37420</v>
       </c>
       <c r="D14" t="n">
-        <v>38550</v>
+        <v>37430</v>
       </c>
       <c r="E14" t="n">
-        <v>38550</v>
+        <v>37420</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0234</v>
+        <v>0.7689</v>
       </c>
       <c r="G14" t="n">
-        <v>875.9390479700002</v>
+        <v>620.3600736499999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>37440</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +958,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>38520</v>
+        <v>37420</v>
       </c>
       <c r="C15" t="n">
-        <v>38510</v>
+        <v>37400</v>
       </c>
       <c r="D15" t="n">
-        <v>38520</v>
+        <v>37420</v>
       </c>
       <c r="E15" t="n">
-        <v>38510</v>
+        <v>37400</v>
       </c>
       <c r="F15" t="n">
-        <v>69.425</v>
+        <v>0.07870000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>806.5140479700002</v>
+        <v>620.2813736499999</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +982,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1000,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>38610</v>
+        <v>37740</v>
       </c>
       <c r="C16" t="n">
-        <v>38610</v>
+        <v>37740</v>
       </c>
       <c r="D16" t="n">
-        <v>38610</v>
+        <v>37740</v>
       </c>
       <c r="E16" t="n">
-        <v>38610</v>
+        <v>37740</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7473</v>
+        <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>807.2613479700002</v>
+        <v>620.8813736499999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1024,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +1042,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>38630</v>
+        <v>37970</v>
       </c>
       <c r="C17" t="n">
-        <v>38630</v>
+        <v>38140</v>
       </c>
       <c r="D17" t="n">
-        <v>38630</v>
+        <v>38140</v>
       </c>
       <c r="E17" t="n">
-        <v>38630</v>
+        <v>37970</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8837</v>
+        <v>17.04622587</v>
       </c>
       <c r="G17" t="n">
-        <v>808.1450479700002</v>
+        <v>637.9275995199998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1066,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1084,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>38820</v>
+        <v>37820</v>
       </c>
       <c r="C18" t="n">
-        <v>38830</v>
+        <v>37820</v>
       </c>
       <c r="D18" t="n">
-        <v>38830</v>
+        <v>37820</v>
       </c>
       <c r="E18" t="n">
-        <v>38820</v>
+        <v>37820</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7976</v>
+        <v>0.27</v>
       </c>
       <c r="G18" t="n">
-        <v>808.9426479700002</v>
+        <v>637.6575995199998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1108,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1126,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>38830</v>
+        <v>37420</v>
       </c>
       <c r="C19" t="n">
-        <v>38830</v>
+        <v>37200</v>
       </c>
       <c r="D19" t="n">
-        <v>38830</v>
+        <v>37420</v>
       </c>
       <c r="E19" t="n">
-        <v>38830</v>
+        <v>37200</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>17.0463</v>
       </c>
       <c r="G19" t="n">
-        <v>808.9426479700002</v>
+        <v>620.6112995199999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1150,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1168,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39290</v>
+        <v>37210</v>
       </c>
       <c r="C20" t="n">
-        <v>39290</v>
+        <v>37210</v>
       </c>
       <c r="D20" t="n">
-        <v>39290</v>
+        <v>37210</v>
       </c>
       <c r="E20" t="n">
-        <v>39290</v>
+        <v>37210</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1</v>
+        <v>14.8849</v>
       </c>
       <c r="G20" t="n">
-        <v>809.0426479700002</v>
+        <v>635.4961995199999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1192,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1210,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>38710</v>
+        <v>37520</v>
       </c>
       <c r="C21" t="n">
-        <v>38710</v>
+        <v>37520</v>
       </c>
       <c r="D21" t="n">
-        <v>38710</v>
+        <v>37520</v>
       </c>
       <c r="E21" t="n">
-        <v>38710</v>
+        <v>37520</v>
       </c>
       <c r="F21" t="n">
-        <v>0.286</v>
+        <v>1.5202</v>
       </c>
       <c r="G21" t="n">
-        <v>808.7566479700002</v>
+        <v>637.0163995199999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1252,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>38510</v>
+        <v>37420</v>
       </c>
       <c r="C22" t="n">
-        <v>38410</v>
+        <v>37220</v>
       </c>
       <c r="D22" t="n">
-        <v>38510</v>
+        <v>37420</v>
       </c>
       <c r="E22" t="n">
-        <v>38410</v>
+        <v>37220</v>
       </c>
       <c r="F22" t="n">
-        <v>8.392899999999999</v>
+        <v>38.2422</v>
       </c>
       <c r="G22" t="n">
-        <v>800.3637479700002</v>
+        <v>598.7741995199999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1276,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1294,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="C23" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="D23" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="E23" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="F23" t="n">
-        <v>4.4598</v>
+        <v>0.8399</v>
       </c>
       <c r="G23" t="n">
-        <v>804.8235479700002</v>
+        <v>599.6140995199999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1318,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1336,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="C24" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="D24" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="E24" t="n">
-        <v>38470</v>
+        <v>37350</v>
       </c>
       <c r="F24" t="n">
-        <v>5.5402</v>
+        <v>1.4656</v>
       </c>
       <c r="G24" t="n">
-        <v>804.8235479700002</v>
+        <v>599.6140995199999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1360,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1378,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>38400</v>
+        <v>37910</v>
       </c>
       <c r="C25" t="n">
-        <v>38400</v>
+        <v>37880</v>
       </c>
       <c r="D25" t="n">
-        <v>38400</v>
+        <v>37950</v>
       </c>
       <c r="E25" t="n">
-        <v>38400</v>
+        <v>37740</v>
       </c>
       <c r="F25" t="n">
-        <v>16.9852</v>
+        <v>5.8367</v>
       </c>
       <c r="G25" t="n">
-        <v>787.8383479700002</v>
+        <v>605.4507995199998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1402,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1420,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>38310</v>
+        <v>38140</v>
       </c>
       <c r="C26" t="n">
-        <v>38310</v>
+        <v>38160</v>
       </c>
       <c r="D26" t="n">
-        <v>38310</v>
+        <v>38160</v>
       </c>
       <c r="E26" t="n">
-        <v>38310</v>
+        <v>38140</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1211</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>787.7172479700002</v>
+        <v>615.4507995199998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1444,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1462,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38320</v>
+        <v>38160</v>
       </c>
       <c r="C27" t="n">
-        <v>38310</v>
+        <v>38160</v>
       </c>
       <c r="D27" t="n">
-        <v>38320</v>
+        <v>38160</v>
       </c>
       <c r="E27" t="n">
-        <v>38310</v>
+        <v>38160</v>
       </c>
       <c r="F27" t="n">
-        <v>1.591</v>
+        <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>787.7172479700002</v>
+        <v>615.4507995199998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1486,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1504,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>38380</v>
+        <v>38160</v>
       </c>
       <c r="C28" t="n">
-        <v>38380</v>
+        <v>37900</v>
       </c>
       <c r="D28" t="n">
-        <v>38380</v>
+        <v>38160</v>
       </c>
       <c r="E28" t="n">
-        <v>38380</v>
+        <v>37900</v>
       </c>
       <c r="F28" t="n">
-        <v>4.3122</v>
+        <v>9.456200000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>792.0294479700002</v>
+        <v>605.9945995199998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1528,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1546,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>38380</v>
+        <v>38110</v>
       </c>
       <c r="C29" t="n">
-        <v>38380</v>
+        <v>37660</v>
       </c>
       <c r="D29" t="n">
-        <v>38380</v>
+        <v>38110</v>
       </c>
       <c r="E29" t="n">
-        <v>38380</v>
+        <v>37660</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7381</v>
+        <v>8.192</v>
       </c>
       <c r="G29" t="n">
-        <v>792.0294479700002</v>
+        <v>597.8025995199998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1570,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1588,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>38380</v>
+        <v>37750</v>
       </c>
       <c r="C30" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="D30" t="n">
-        <v>38410</v>
+        <v>37750</v>
       </c>
       <c r="E30" t="n">
-        <v>38380</v>
+        <v>37700</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3397</v>
+        <v>10.5915</v>
       </c>
       <c r="G30" t="n">
-        <v>792.3691479700002</v>
+        <v>608.3940995199998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1612,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1630,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="C31" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="D31" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="E31" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="F31" t="n">
-        <v>2.4051</v>
+        <v>3.2257</v>
       </c>
       <c r="G31" t="n">
-        <v>792.3691479700002</v>
+        <v>608.3940995199998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1654,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1672,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="C32" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="D32" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="E32" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="F32" t="n">
-        <v>2.6656</v>
+        <v>1.1828</v>
       </c>
       <c r="G32" t="n">
-        <v>792.3691479700002</v>
+        <v>609.5768995199999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1696,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1714,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="C33" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="D33" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="E33" t="n">
-        <v>38410</v>
+        <v>37830</v>
       </c>
       <c r="F33" t="n">
-        <v>21.7711</v>
+        <v>0.02</v>
       </c>
       <c r="G33" t="n">
-        <v>792.3691479700002</v>
+        <v>609.5768995199999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1738,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1756,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>38410</v>
+        <v>37710</v>
       </c>
       <c r="C34" t="n">
-        <v>38410</v>
+        <v>37710</v>
       </c>
       <c r="D34" t="n">
-        <v>38410</v>
+        <v>37710</v>
       </c>
       <c r="E34" t="n">
-        <v>38410</v>
+        <v>37710</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5789</v>
+        <v>1.7118</v>
       </c>
       <c r="G34" t="n">
-        <v>792.3691479700002</v>
+        <v>607.8650995199998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1780,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1798,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="C35" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="D35" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="E35" t="n">
-        <v>38410</v>
+        <v>37700</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0165</v>
+        <v>0.02</v>
       </c>
       <c r="G35" t="n">
-        <v>792.3691479700002</v>
+        <v>607.8450995199998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1822,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,22 +1840,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>38500</v>
+        <v>37500</v>
       </c>
       <c r="C36" t="n">
-        <v>38500</v>
+        <v>37100</v>
       </c>
       <c r="D36" t="n">
-        <v>38500</v>
+        <v>37500</v>
       </c>
       <c r="E36" t="n">
-        <v>38500</v>
+        <v>37100</v>
       </c>
       <c r="F36" t="n">
-        <v>0.03</v>
+        <v>106.0564</v>
       </c>
       <c r="G36" t="n">
-        <v>792.3991479700002</v>
+        <v>501.7886995199999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,8 +1864,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1882,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>38280</v>
+        <v>37800</v>
       </c>
       <c r="C37" t="n">
-        <v>38280</v>
+        <v>37820</v>
       </c>
       <c r="D37" t="n">
-        <v>38280</v>
+        <v>37820</v>
       </c>
       <c r="E37" t="n">
-        <v>38280</v>
+        <v>37800</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="G37" t="n">
-        <v>787.3991479700002</v>
+        <v>504.7086995199999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1722,8 +1906,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1924,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>38100</v>
+        <v>37830</v>
       </c>
       <c r="C38" t="n">
-        <v>38100</v>
+        <v>37930</v>
       </c>
       <c r="D38" t="n">
-        <v>38100</v>
+        <v>37940</v>
       </c>
       <c r="E38" t="n">
-        <v>38100</v>
+        <v>37830</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2725</v>
+        <v>101.2943</v>
       </c>
       <c r="G38" t="n">
-        <v>787.1266479700001</v>
+        <v>606.0029995199999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1948,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1966,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37900</v>
+        <v>37720</v>
       </c>
       <c r="C39" t="n">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="D39" t="n">
-        <v>37900</v>
+        <v>37720</v>
       </c>
       <c r="E39" t="n">
-        <v>37900</v>
+        <v>37700</v>
       </c>
       <c r="F39" t="n">
-        <v>2.473</v>
+        <v>12.3378</v>
       </c>
       <c r="G39" t="n">
-        <v>784.6536479700002</v>
+        <v>593.6651995199999</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +1990,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,22 +2008,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37940</v>
+        <v>37700</v>
       </c>
       <c r="C40" t="n">
-        <v>37940</v>
+        <v>37700</v>
       </c>
       <c r="D40" t="n">
-        <v>37940</v>
+        <v>37700</v>
       </c>
       <c r="E40" t="n">
-        <v>37940</v>
+        <v>37700</v>
       </c>
       <c r="F40" t="n">
-        <v>0.85</v>
+        <v>0.2676</v>
       </c>
       <c r="G40" t="n">
-        <v>785.5036479700002</v>
+        <v>593.6651995199999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2050,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>37710</v>
+        <v>37550</v>
       </c>
       <c r="C41" t="n">
-        <v>37710</v>
+        <v>37550</v>
       </c>
       <c r="D41" t="n">
-        <v>37710</v>
+        <v>37550</v>
       </c>
       <c r="E41" t="n">
-        <v>37710</v>
+        <v>37550</v>
       </c>
       <c r="F41" t="n">
-        <v>2.663</v>
+        <v>0.3199</v>
       </c>
       <c r="G41" t="n">
-        <v>782.8406479700002</v>
+        <v>593.3452995199999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2074,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,36 +2092,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>37790</v>
+        <v>37560</v>
       </c>
       <c r="C42" t="n">
-        <v>37790</v>
+        <v>37550</v>
       </c>
       <c r="D42" t="n">
-        <v>37790</v>
+        <v>37560</v>
       </c>
       <c r="E42" t="n">
-        <v>37790</v>
+        <v>37550</v>
       </c>
       <c r="F42" t="n">
-        <v>13.1443</v>
+        <v>0.7454</v>
       </c>
       <c r="G42" t="n">
-        <v>795.9849479700002</v>
+        <v>593.3452995199999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>37710</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>37710</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
+        <v>37730</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1918,38 +2134,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>37810</v>
+        <v>37630</v>
       </c>
       <c r="C43" t="n">
-        <v>37810</v>
+        <v>37630</v>
       </c>
       <c r="D43" t="n">
-        <v>37810</v>
+        <v>37630</v>
       </c>
       <c r="E43" t="n">
-        <v>37810</v>
+        <v>37630</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2511</v>
+        <v>4.6076</v>
       </c>
       <c r="G43" t="n">
-        <v>796.2360479700002</v>
+        <v>597.95289952</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>37790</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>37710</v>
+        <v>37730</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -1962,38 +2176,36 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>37820</v>
+        <v>37780</v>
       </c>
       <c r="C44" t="n">
-        <v>37830</v>
+        <v>37770</v>
       </c>
       <c r="D44" t="n">
-        <v>37830</v>
+        <v>37780</v>
       </c>
       <c r="E44" t="n">
-        <v>37820</v>
+        <v>37770</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5415</v>
+        <v>4.6076</v>
       </c>
       <c r="G44" t="n">
-        <v>796.7775479700002</v>
+        <v>602.56049952</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>37810</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>37710</v>
+        <v>37730</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2006,36 +2218,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>37840</v>
+        <v>37820</v>
       </c>
       <c r="C45" t="n">
-        <v>37840</v>
+        <v>37820</v>
       </c>
       <c r="D45" t="n">
-        <v>37840</v>
+        <v>37820</v>
       </c>
       <c r="E45" t="n">
-        <v>37840</v>
+        <v>37820</v>
       </c>
       <c r="F45" t="n">
-        <v>0.106</v>
+        <v>0.3568</v>
       </c>
       <c r="G45" t="n">
-        <v>796.8835479700002</v>
+        <v>602.91729952</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>37830</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>37830</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
+        <v>37730</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2046,38 +2260,36 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>37850</v>
+        <v>37830</v>
       </c>
       <c r="C46" t="n">
-        <v>37850</v>
+        <v>37920</v>
       </c>
       <c r="D46" t="n">
-        <v>37850</v>
+        <v>37920</v>
       </c>
       <c r="E46" t="n">
-        <v>37850</v>
+        <v>37830</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2725</v>
+        <v>8.056699999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>797.1560479700003</v>
+        <v>610.97399952</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>37840</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>37830</v>
+        <v>37730</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -2090,38 +2302,36 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>38490</v>
+        <v>37650</v>
       </c>
       <c r="C47" t="n">
-        <v>38490</v>
+        <v>37610</v>
       </c>
       <c r="D47" t="n">
-        <v>38500</v>
+        <v>37650</v>
       </c>
       <c r="E47" t="n">
-        <v>38490</v>
+        <v>37610</v>
       </c>
       <c r="F47" t="n">
-        <v>3.1818</v>
+        <v>2.7839</v>
       </c>
       <c r="G47" t="n">
-        <v>800.3378479700002</v>
+        <v>608.19009952</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>37850</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>37830</v>
+        <v>37730</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2134,22 +2344,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>38490</v>
+        <v>37610</v>
       </c>
       <c r="C48" t="n">
-        <v>38500</v>
+        <v>37610</v>
       </c>
       <c r="D48" t="n">
-        <v>38500</v>
+        <v>37610</v>
       </c>
       <c r="E48" t="n">
-        <v>38490</v>
+        <v>37610</v>
       </c>
       <c r="F48" t="n">
-        <v>22.4493</v>
+        <v>8.400499999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>822.7871479700002</v>
+        <v>608.19009952</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2158,8 +2368,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2170,22 +2386,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>38600</v>
+        <v>37610</v>
       </c>
       <c r="C49" t="n">
-        <v>38600</v>
+        <v>37610</v>
       </c>
       <c r="D49" t="n">
-        <v>38600</v>
+        <v>37610</v>
       </c>
       <c r="E49" t="n">
-        <v>38600</v>
+        <v>37610</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8264</v>
+        <v>0.0696</v>
       </c>
       <c r="G49" t="n">
-        <v>823.6135479700002</v>
+        <v>608.19009952</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2194,8 +2410,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2206,22 +2428,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>38330</v>
+        <v>37610</v>
       </c>
       <c r="C50" t="n">
-        <v>38330</v>
+        <v>37610</v>
       </c>
       <c r="D50" t="n">
-        <v>38330</v>
+        <v>37610</v>
       </c>
       <c r="E50" t="n">
-        <v>38330</v>
+        <v>37610</v>
       </c>
       <c r="F50" t="n">
-        <v>3.1506</v>
+        <v>0.0139</v>
       </c>
       <c r="G50" t="n">
-        <v>820.4629479700002</v>
+        <v>608.19009952</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2230,8 +2452,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2242,22 +2470,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>38240</v>
+        <v>37760</v>
       </c>
       <c r="C51" t="n">
-        <v>38230</v>
+        <v>37870</v>
       </c>
       <c r="D51" t="n">
-        <v>38240</v>
+        <v>37870</v>
       </c>
       <c r="E51" t="n">
-        <v>38230</v>
+        <v>37700</v>
       </c>
       <c r="F51" t="n">
-        <v>2.5519</v>
+        <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>817.9110479700001</v>
+        <v>630.19009952</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2266,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2278,22 +2512,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>38580</v>
+        <v>37870</v>
       </c>
       <c r="C52" t="n">
-        <v>38580</v>
+        <v>37880</v>
       </c>
       <c r="D52" t="n">
-        <v>38580</v>
+        <v>37880</v>
       </c>
       <c r="E52" t="n">
-        <v>38580</v>
+        <v>37870</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>819.9110479700001</v>
+        <v>641.19009952</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2302,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2314,22 +2554,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>38580</v>
+        <v>38130</v>
       </c>
       <c r="C53" t="n">
-        <v>38580</v>
+        <v>38130</v>
       </c>
       <c r="D53" t="n">
-        <v>38580</v>
+        <v>38130</v>
       </c>
       <c r="E53" t="n">
-        <v>38580</v>
+        <v>38130</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>12.1195</v>
       </c>
       <c r="G53" t="n">
-        <v>819.9110479700001</v>
+        <v>653.30959952</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2338,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2350,22 +2596,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>38600</v>
+        <v>38160</v>
       </c>
       <c r="C54" t="n">
-        <v>38600</v>
+        <v>38160</v>
       </c>
       <c r="D54" t="n">
-        <v>38600</v>
+        <v>38160</v>
       </c>
       <c r="E54" t="n">
-        <v>38600</v>
+        <v>38160</v>
       </c>
       <c r="F54" t="n">
-        <v>2.8591</v>
+        <v>0.7578</v>
       </c>
       <c r="G54" t="n">
-        <v>822.7701479700002</v>
+        <v>654.06739952</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2374,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2386,22 +2638,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>38740</v>
+        <v>38160</v>
       </c>
       <c r="C55" t="n">
-        <v>38740</v>
+        <v>38170</v>
       </c>
       <c r="D55" t="n">
-        <v>38740</v>
+        <v>38170</v>
       </c>
       <c r="E55" t="n">
-        <v>38740</v>
+        <v>38160</v>
       </c>
       <c r="F55" t="n">
-        <v>7.1681</v>
+        <v>0.4554</v>
       </c>
       <c r="G55" t="n">
-        <v>829.9382479700001</v>
+        <v>654.52279952</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2410,8 +2662,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2422,22 +2680,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>38740</v>
+        <v>38150</v>
       </c>
       <c r="C56" t="n">
-        <v>38740</v>
+        <v>38390</v>
       </c>
       <c r="D56" t="n">
-        <v>38740</v>
+        <v>38390</v>
       </c>
       <c r="E56" t="n">
-        <v>38740</v>
+        <v>38150</v>
       </c>
       <c r="F56" t="n">
-        <v>41.6164</v>
+        <v>2.382</v>
       </c>
       <c r="G56" t="n">
-        <v>829.9382479700001</v>
+        <v>656.90479952</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2446,8 +2704,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2458,22 +2722,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>38740</v>
+        <v>38400</v>
       </c>
       <c r="C57" t="n">
-        <v>38740</v>
+        <v>38780</v>
       </c>
       <c r="D57" t="n">
-        <v>38740</v>
+        <v>38780</v>
       </c>
       <c r="E57" t="n">
-        <v>38740</v>
+        <v>38400</v>
       </c>
       <c r="F57" t="n">
-        <v>8.3849</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>829.9382479700001</v>
+        <v>657.90479952</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2482,8 +2746,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2494,22 +2764,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="C58" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="D58" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="E58" t="n">
-        <v>38740</v>
+        <v>38560</v>
       </c>
       <c r="F58" t="n">
-        <v>1.1212</v>
+        <v>3.8047</v>
       </c>
       <c r="G58" t="n">
-        <v>829.9382479700001</v>
+        <v>654.10009952</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2518,8 +2788,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2530,22 +2806,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>38750</v>
+        <v>38350</v>
       </c>
       <c r="C59" t="n">
-        <v>38750</v>
+        <v>38160</v>
       </c>
       <c r="D59" t="n">
-        <v>38750</v>
+        <v>38350</v>
       </c>
       <c r="E59" t="n">
-        <v>38750</v>
+        <v>38160</v>
       </c>
       <c r="F59" t="n">
-        <v>1.7</v>
+        <v>12.7158</v>
       </c>
       <c r="G59" t="n">
-        <v>831.6382479700002</v>
+        <v>641.38429952</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2554,8 +2830,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2566,22 +2848,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>38770</v>
+        <v>38130</v>
       </c>
       <c r="C60" t="n">
-        <v>38770</v>
+        <v>38130</v>
       </c>
       <c r="D60" t="n">
-        <v>38770</v>
+        <v>38130</v>
       </c>
       <c r="E60" t="n">
-        <v>38770</v>
+        <v>38130</v>
       </c>
       <c r="F60" t="n">
-        <v>12.04</v>
+        <v>0.0248</v>
       </c>
       <c r="G60" t="n">
-        <v>843.6782479700001</v>
+        <v>641.35949952</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2590,8 +2872,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2602,22 +2890,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>38770</v>
+        <v>38130</v>
       </c>
       <c r="C61" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="D61" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="E61" t="n">
-        <v>38770</v>
+        <v>38130</v>
       </c>
       <c r="F61" t="n">
-        <v>12.1</v>
+        <v>1.2147</v>
       </c>
       <c r="G61" t="n">
-        <v>855.7782479700002</v>
+        <v>641.35949952</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2626,8 +2914,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2932,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39000</v>
+        <v>38140</v>
       </c>
       <c r="C62" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="D62" t="n">
-        <v>39000</v>
+        <v>38140</v>
       </c>
       <c r="E62" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1</v>
+        <v>3.0987</v>
       </c>
       <c r="G62" t="n">
-        <v>855.7782479700002</v>
+        <v>641.35949952</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2662,8 +2956,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2674,22 +2974,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="C63" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="D63" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="E63" t="n">
-        <v>39000</v>
+        <v>38130</v>
       </c>
       <c r="F63" t="n">
-        <v>70.2805</v>
+        <v>0.066</v>
       </c>
       <c r="G63" t="n">
-        <v>855.7782479700002</v>
+        <v>641.35949952</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2698,8 +2998,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2710,22 +3016,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39060</v>
+        <v>37900</v>
       </c>
       <c r="C64" t="n">
-        <v>39060</v>
+        <v>37730</v>
       </c>
       <c r="D64" t="n">
-        <v>39060</v>
+        <v>37900</v>
       </c>
       <c r="E64" t="n">
-        <v>39060</v>
+        <v>37730</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1</v>
+        <v>8.056699999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>855.8782479700002</v>
+        <v>633.30279952</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2734,8 +3040,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2746,22 +3058,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>38780</v>
+        <v>37830</v>
       </c>
       <c r="C65" t="n">
-        <v>38580</v>
+        <v>37820</v>
       </c>
       <c r="D65" t="n">
-        <v>38780</v>
+        <v>37830</v>
       </c>
       <c r="E65" t="n">
-        <v>38580</v>
+        <v>37820</v>
       </c>
       <c r="F65" t="n">
-        <v>4.8822</v>
+        <v>21.1464</v>
       </c>
       <c r="G65" t="n">
-        <v>850.9960479700002</v>
+        <v>654.44919952</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2770,8 +3082,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2782,22 +3100,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>38370</v>
+        <v>38250</v>
       </c>
       <c r="C66" t="n">
-        <v>38370</v>
+        <v>38270</v>
       </c>
       <c r="D66" t="n">
-        <v>38370</v>
+        <v>38270</v>
       </c>
       <c r="E66" t="n">
-        <v>38370</v>
+        <v>38250</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6205000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="G66" t="n">
-        <v>850.3755479700002</v>
+        <v>656.7491995199999</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2806,8 +3124,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2818,22 +3142,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>38260</v>
+        <v>38270</v>
       </c>
       <c r="C67" t="n">
-        <v>38250</v>
+        <v>38280</v>
       </c>
       <c r="D67" t="n">
-        <v>38260</v>
+        <v>38280</v>
       </c>
       <c r="E67" t="n">
-        <v>38250</v>
+        <v>38270</v>
       </c>
       <c r="F67" t="n">
-        <v>1.9906</v>
+        <v>10.12</v>
       </c>
       <c r="G67" t="n">
-        <v>848.3849479700002</v>
+        <v>666.8691995199999</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2842,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2854,22 +3184,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>38250</v>
+        <v>38280</v>
       </c>
       <c r="C68" t="n">
-        <v>38250</v>
+        <v>38290</v>
       </c>
       <c r="D68" t="n">
-        <v>38250</v>
+        <v>38290</v>
       </c>
       <c r="E68" t="n">
-        <v>38250</v>
+        <v>38280</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1103</v>
+        <v>22.2113</v>
       </c>
       <c r="G68" t="n">
-        <v>848.3849479700002</v>
+        <v>689.08049952</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2878,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2890,22 +3226,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>38250</v>
+        <v>38320</v>
       </c>
       <c r="C69" t="n">
-        <v>38250</v>
+        <v>38330</v>
       </c>
       <c r="D69" t="n">
-        <v>38250</v>
+        <v>38330</v>
       </c>
       <c r="E69" t="n">
-        <v>38250</v>
+        <v>38320</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0223</v>
+        <v>39.6495</v>
       </c>
       <c r="G69" t="n">
-        <v>848.3849479700002</v>
+        <v>728.72999952</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2914,8 +3250,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2926,22 +3268,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>38060</v>
+        <v>38450</v>
       </c>
       <c r="C70" t="n">
-        <v>38050</v>
+        <v>38450</v>
       </c>
       <c r="D70" t="n">
-        <v>38060</v>
+        <v>38450</v>
       </c>
       <c r="E70" t="n">
-        <v>38050</v>
+        <v>38450</v>
       </c>
       <c r="F70" t="n">
-        <v>2.561</v>
+        <v>10.5804</v>
       </c>
       <c r="G70" t="n">
-        <v>845.8239479700002</v>
+        <v>739.31039952</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2950,8 +3292,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2962,22 +3310,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>38040</v>
+        <v>38460</v>
       </c>
       <c r="C71" t="n">
-        <v>38040</v>
+        <v>38470</v>
       </c>
       <c r="D71" t="n">
-        <v>38040</v>
+        <v>38470</v>
       </c>
       <c r="E71" t="n">
-        <v>38040</v>
+        <v>38460</v>
       </c>
       <c r="F71" t="n">
-        <v>4.6122</v>
+        <v>31.7317</v>
       </c>
       <c r="G71" t="n">
-        <v>841.2117479700001</v>
+        <v>771.0420995200001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2986,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2998,22 +3352,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>38010</v>
+        <v>38470</v>
       </c>
       <c r="C72" t="n">
-        <v>38010</v>
+        <v>38680</v>
       </c>
       <c r="D72" t="n">
-        <v>38010</v>
+        <v>38680</v>
       </c>
       <c r="E72" t="n">
-        <v>38010</v>
+        <v>38470</v>
       </c>
       <c r="F72" t="n">
-        <v>70.2805</v>
+        <v>43.9256</v>
       </c>
       <c r="G72" t="n">
-        <v>770.9312479700002</v>
+        <v>814.9676995200001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3022,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3034,22 +3394,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>38020</v>
+        <v>38670</v>
       </c>
       <c r="C73" t="n">
-        <v>38020</v>
+        <v>38690</v>
       </c>
       <c r="D73" t="n">
-        <v>38020</v>
+        <v>38690</v>
       </c>
       <c r="E73" t="n">
-        <v>38020</v>
+        <v>38670</v>
       </c>
       <c r="F73" t="n">
-        <v>22.2154</v>
+        <v>3.3189</v>
       </c>
       <c r="G73" t="n">
-        <v>793.1466479700002</v>
+        <v>818.2865995200001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3058,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3070,22 +3436,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>38010</v>
+        <v>38730</v>
       </c>
       <c r="C74" t="n">
-        <v>38010</v>
+        <v>38920</v>
       </c>
       <c r="D74" t="n">
-        <v>38010</v>
+        <v>38920</v>
       </c>
       <c r="E74" t="n">
-        <v>38010</v>
+        <v>38730</v>
       </c>
       <c r="F74" t="n">
-        <v>10.8684</v>
+        <v>3.75624845</v>
       </c>
       <c r="G74" t="n">
-        <v>782.2782479700003</v>
+        <v>822.0428479700001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3094,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>37730</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3106,36 +3478,38 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>38080</v>
+        <v>38930</v>
       </c>
       <c r="C75" t="n">
-        <v>38080</v>
+        <v>39500</v>
       </c>
       <c r="D75" t="n">
-        <v>38080</v>
+        <v>39500</v>
       </c>
       <c r="E75" t="n">
-        <v>38080</v>
+        <v>38930</v>
       </c>
       <c r="F75" t="n">
-        <v>8.4946</v>
+        <v>69.06189999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>790.7728479700003</v>
+        <v>891.1047479700002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>38010</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>38010</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
+        <v>37730</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3146,40 +3520,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>38080</v>
+        <v>39090</v>
       </c>
       <c r="C76" t="n">
-        <v>38020</v>
+        <v>39240</v>
       </c>
       <c r="D76" t="n">
-        <v>38080</v>
+        <v>39500</v>
       </c>
       <c r="E76" t="n">
-        <v>38020</v>
+        <v>38520</v>
       </c>
       <c r="F76" t="n">
-        <v>27.612</v>
+        <v>34.9852</v>
       </c>
       <c r="G76" t="n">
-        <v>763.1608479700003</v>
+        <v>856.1195479700002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>38010</v>
+        <v>37730</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>1.03502120328651</v>
       </c>
       <c r="N76" t="inlineStr"/>
     </row>
@@ -3188,40 +3562,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>38010</v>
+        <v>39050</v>
       </c>
       <c r="C77" t="n">
-        <v>38010</v>
+        <v>39040</v>
       </c>
       <c r="D77" t="n">
-        <v>38010</v>
+        <v>39050</v>
       </c>
       <c r="E77" t="n">
-        <v>38010</v>
+        <v>39040</v>
       </c>
       <c r="F77" t="n">
-        <v>1.6646</v>
+        <v>4.2231</v>
       </c>
       <c r="G77" t="n">
-        <v>761.4962479700004</v>
+        <v>851.8964479700002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>38020</v>
-      </c>
-      <c r="K77" t="n">
-        <v>38010</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3232,22 +3598,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>38010</v>
+        <v>39220</v>
       </c>
       <c r="C78" t="n">
-        <v>38060</v>
+        <v>39220</v>
       </c>
       <c r="D78" t="n">
-        <v>38060</v>
+        <v>39220</v>
       </c>
       <c r="E78" t="n">
-        <v>37710</v>
+        <v>39220</v>
       </c>
       <c r="F78" t="n">
-        <v>206.1457</v>
+        <v>3.323</v>
       </c>
       <c r="G78" t="n">
-        <v>967.6419479700004</v>
+        <v>855.2194479700001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3268,28 +3634,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>38110</v>
+        <v>38570</v>
       </c>
       <c r="C79" t="n">
-        <v>38110</v>
+        <v>38570</v>
       </c>
       <c r="D79" t="n">
-        <v>38110</v>
+        <v>38570</v>
       </c>
       <c r="E79" t="n">
-        <v>38110</v>
+        <v>38570</v>
       </c>
       <c r="F79" t="n">
-        <v>5.5361</v>
+        <v>3.7563</v>
       </c>
       <c r="G79" t="n">
-        <v>973.1780479700004</v>
+        <v>851.4631479700001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3304,22 +3670,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>38250</v>
+        <v>38890</v>
       </c>
       <c r="C80" t="n">
-        <v>38250</v>
+        <v>38700</v>
       </c>
       <c r="D80" t="n">
-        <v>38250</v>
+        <v>38890</v>
       </c>
       <c r="E80" t="n">
-        <v>38250</v>
+        <v>38700</v>
       </c>
       <c r="F80" t="n">
-        <v>0.6805</v>
+        <v>3.323</v>
       </c>
       <c r="G80" t="n">
-        <v>973.8585479700005</v>
+        <v>854.7861479700001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3340,22 +3706,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>38110</v>
+        <v>38630</v>
       </c>
       <c r="C81" t="n">
-        <v>38060</v>
+        <v>38800</v>
       </c>
       <c r="D81" t="n">
-        <v>38110</v>
+        <v>38800</v>
       </c>
       <c r="E81" t="n">
-        <v>38060</v>
+        <v>38630</v>
       </c>
       <c r="F81" t="n">
-        <v>7.6654</v>
+        <v>15.5</v>
       </c>
       <c r="G81" t="n">
-        <v>966.1931479700005</v>
+        <v>870.2861479700001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3376,22 +3742,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>38050</v>
+        <v>38900</v>
       </c>
       <c r="C82" t="n">
-        <v>38050</v>
+        <v>38930</v>
       </c>
       <c r="D82" t="n">
-        <v>38050</v>
+        <v>38930</v>
       </c>
       <c r="E82" t="n">
-        <v>38050</v>
+        <v>38900</v>
       </c>
       <c r="F82" t="n">
-        <v>6.0019</v>
+        <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>960.1912479700005</v>
+        <v>877.2861479700001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3412,28 +3778,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>38050</v>
+        <v>38550</v>
       </c>
       <c r="C83" t="n">
-        <v>38050</v>
+        <v>38550</v>
       </c>
       <c r="D83" t="n">
-        <v>38050</v>
+        <v>38550</v>
       </c>
       <c r="E83" t="n">
-        <v>38050</v>
+        <v>38550</v>
       </c>
       <c r="F83" t="n">
-        <v>1.6173</v>
+        <v>1.3471</v>
       </c>
       <c r="G83" t="n">
-        <v>960.1912479700005</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3448,35 +3814,31 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>38230</v>
+        <v>38550</v>
       </c>
       <c r="C84" t="n">
-        <v>38540</v>
+        <v>38550</v>
       </c>
       <c r="D84" t="n">
-        <v>38540</v>
+        <v>38550</v>
       </c>
       <c r="E84" t="n">
-        <v>38230</v>
+        <v>38550</v>
       </c>
       <c r="F84" t="n">
-        <v>33.5</v>
+        <v>2.4189</v>
       </c>
       <c r="G84" t="n">
-        <v>993.6912479700005</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>38050</v>
-      </c>
-      <c r="K84" t="n">
-        <v>38050</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
@@ -3488,40 +3850,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>38360</v>
+        <v>38550</v>
       </c>
       <c r="C85" t="n">
-        <v>38730</v>
+        <v>38550</v>
       </c>
       <c r="D85" t="n">
-        <v>38730</v>
+        <v>38550</v>
       </c>
       <c r="E85" t="n">
-        <v>38360</v>
+        <v>38550</v>
       </c>
       <c r="F85" t="n">
-        <v>3.5789</v>
+        <v>0.0234</v>
       </c>
       <c r="G85" t="n">
-        <v>997.2701479700005</v>
+        <v>875.9390479700002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>38540</v>
-      </c>
-      <c r="K85" t="n">
-        <v>38050</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3886,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>38320</v>
+        <v>38520</v>
       </c>
       <c r="C86" t="n">
-        <v>38310</v>
+        <v>38510</v>
       </c>
       <c r="D86" t="n">
-        <v>38320</v>
+        <v>38520</v>
       </c>
       <c r="E86" t="n">
-        <v>38310</v>
+        <v>38510</v>
       </c>
       <c r="F86" t="n">
-        <v>4.5538</v>
+        <v>69.425</v>
       </c>
       <c r="G86" t="n">
-        <v>992.7163479700005</v>
+        <v>806.5140479700002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3556,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>38050</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3574,28 +3922,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>38200</v>
+        <v>38610</v>
       </c>
       <c r="C87" t="n">
-        <v>38200</v>
+        <v>38610</v>
       </c>
       <c r="D87" t="n">
-        <v>38200</v>
+        <v>38610</v>
       </c>
       <c r="E87" t="n">
-        <v>38200</v>
+        <v>38610</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>0.7473</v>
       </c>
       <c r="G87" t="n">
-        <v>972.7163479700005</v>
+        <v>807.2613479700002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3610,22 +3958,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>38480</v>
+        <v>38630</v>
       </c>
       <c r="C88" t="n">
-        <v>38190</v>
+        <v>38630</v>
       </c>
       <c r="D88" t="n">
-        <v>38490</v>
+        <v>38630</v>
       </c>
       <c r="E88" t="n">
-        <v>38190</v>
+        <v>38630</v>
       </c>
       <c r="F88" t="n">
-        <v>8.451000000000001</v>
+        <v>0.8837</v>
       </c>
       <c r="G88" t="n">
-        <v>964.2653479700004</v>
+        <v>808.1450479700002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3646,28 +3994,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>38510</v>
+        <v>38820</v>
       </c>
       <c r="C89" t="n">
-        <v>38250</v>
+        <v>38830</v>
       </c>
       <c r="D89" t="n">
-        <v>38720</v>
+        <v>38830</v>
       </c>
       <c r="E89" t="n">
-        <v>38250</v>
+        <v>38820</v>
       </c>
       <c r="F89" t="n">
-        <v>400.0205</v>
+        <v>0.7976</v>
       </c>
       <c r="G89" t="n">
-        <v>1364.285847970001</v>
+        <v>808.9426479700002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3682,28 +4030,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>38460</v>
+        <v>38830</v>
       </c>
       <c r="C90" t="n">
-        <v>38450</v>
+        <v>38830</v>
       </c>
       <c r="D90" t="n">
-        <v>38460</v>
+        <v>38830</v>
       </c>
       <c r="E90" t="n">
-        <v>38450</v>
+        <v>38830</v>
       </c>
       <c r="F90" t="n">
-        <v>34.0016</v>
+        <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>1398.287447970001</v>
+        <v>808.9426479700002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3718,28 +4066,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>38460</v>
+        <v>39290</v>
       </c>
       <c r="C91" t="n">
-        <v>38460</v>
+        <v>39290</v>
       </c>
       <c r="D91" t="n">
-        <v>38460</v>
+        <v>39290</v>
       </c>
       <c r="E91" t="n">
-        <v>38460</v>
+        <v>39290</v>
       </c>
       <c r="F91" t="n">
-        <v>9.459</v>
+        <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>1407.746447970001</v>
+        <v>809.0426479700002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3766,16 +4114,16 @@
         <v>38710</v>
       </c>
       <c r="F92" t="n">
-        <v>1.03</v>
+        <v>0.286</v>
       </c>
       <c r="G92" t="n">
-        <v>1408.776447970001</v>
+        <v>808.7566479700002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3790,22 +4138,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>38720</v>
+        <v>38510</v>
       </c>
       <c r="C93" t="n">
+        <v>38410</v>
+      </c>
+      <c r="D93" t="n">
         <v>38510</v>
       </c>
-      <c r="D93" t="n">
-        <v>38720</v>
-      </c>
       <c r="E93" t="n">
-        <v>38510</v>
+        <v>38410</v>
       </c>
       <c r="F93" t="n">
-        <v>28.7112</v>
+        <v>8.392899999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>1380.065247970001</v>
+        <v>800.3637479700002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3826,22 +4174,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>38520</v>
+        <v>38470</v>
       </c>
       <c r="C94" t="n">
-        <v>38510</v>
+        <v>38470</v>
       </c>
       <c r="D94" t="n">
-        <v>38520</v>
+        <v>38470</v>
       </c>
       <c r="E94" t="n">
-        <v>38510</v>
+        <v>38470</v>
       </c>
       <c r="F94" t="n">
-        <v>8.0769</v>
+        <v>4.4598</v>
       </c>
       <c r="G94" t="n">
-        <v>1380.065247970001</v>
+        <v>804.8235479700002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3862,22 +4210,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38530</v>
+        <v>38470</v>
       </c>
       <c r="C95" t="n">
-        <v>38530</v>
+        <v>38470</v>
       </c>
       <c r="D95" t="n">
-        <v>38530</v>
+        <v>38470</v>
       </c>
       <c r="E95" t="n">
-        <v>38530</v>
+        <v>38470</v>
       </c>
       <c r="F95" t="n">
-        <v>6</v>
+        <v>5.5402</v>
       </c>
       <c r="G95" t="n">
-        <v>1386.065247970001</v>
+        <v>804.8235479700002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3898,22 +4246,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>38530</v>
+        <v>38400</v>
       </c>
       <c r="C96" t="n">
-        <v>38790</v>
+        <v>38400</v>
       </c>
       <c r="D96" t="n">
-        <v>38790</v>
+        <v>38400</v>
       </c>
       <c r="E96" t="n">
-        <v>38530</v>
+        <v>38400</v>
       </c>
       <c r="F96" t="n">
-        <v>19.6999</v>
+        <v>16.9852</v>
       </c>
       <c r="G96" t="n">
-        <v>1405.765147970001</v>
+        <v>787.8383479700002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3934,22 +4282,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39000</v>
+        <v>38310</v>
       </c>
       <c r="C97" t="n">
-        <v>39000</v>
+        <v>38310</v>
       </c>
       <c r="D97" t="n">
-        <v>39000</v>
+        <v>38310</v>
       </c>
       <c r="E97" t="n">
-        <v>39000</v>
+        <v>38310</v>
       </c>
       <c r="F97" t="n">
-        <v>2.2968</v>
+        <v>0.1211</v>
       </c>
       <c r="G97" t="n">
-        <v>1408.061947970001</v>
+        <v>787.7172479700002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3970,22 +4318,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39000</v>
+        <v>38320</v>
       </c>
       <c r="C98" t="n">
-        <v>39000</v>
+        <v>38310</v>
       </c>
       <c r="D98" t="n">
-        <v>39000</v>
+        <v>38320</v>
       </c>
       <c r="E98" t="n">
-        <v>39000</v>
+        <v>38310</v>
       </c>
       <c r="F98" t="n">
-        <v>8.4421</v>
+        <v>1.591</v>
       </c>
       <c r="G98" t="n">
-        <v>1408.061947970001</v>
+        <v>787.7172479700002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4006,28 +4354,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39080</v>
+        <v>38380</v>
       </c>
       <c r="C99" t="n">
-        <v>38830</v>
+        <v>38380</v>
       </c>
       <c r="D99" t="n">
-        <v>39080</v>
+        <v>38380</v>
       </c>
       <c r="E99" t="n">
-        <v>38830</v>
+        <v>38380</v>
       </c>
       <c r="F99" t="n">
-        <v>65.3665</v>
+        <v>4.3122</v>
       </c>
       <c r="G99" t="n">
-        <v>1342.695447970001</v>
+        <v>792.0294479700002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4042,28 +4390,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="C100" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="D100" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="E100" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="F100" t="n">
-        <v>21.6144</v>
+        <v>0.7381</v>
       </c>
       <c r="G100" t="n">
-        <v>1321.081047970001</v>
+        <v>792.0294479700002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4078,28 +4426,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>38560</v>
+        <v>38380</v>
       </c>
       <c r="C101" t="n">
-        <v>38530</v>
+        <v>38410</v>
       </c>
       <c r="D101" t="n">
-        <v>38560</v>
+        <v>38410</v>
       </c>
       <c r="E101" t="n">
-        <v>38510</v>
+        <v>38380</v>
       </c>
       <c r="F101" t="n">
-        <v>8.8058</v>
+        <v>0.3397</v>
       </c>
       <c r="G101" t="n">
-        <v>1312.275247970001</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4114,28 +4462,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>38520</v>
+        <v>38410</v>
       </c>
       <c r="C102" t="n">
-        <v>38790</v>
+        <v>38410</v>
       </c>
       <c r="D102" t="n">
-        <v>38790</v>
+        <v>38410</v>
       </c>
       <c r="E102" t="n">
-        <v>38500</v>
+        <v>38410</v>
       </c>
       <c r="F102" t="n">
-        <v>36.6405</v>
+        <v>2.4051</v>
       </c>
       <c r="G102" t="n">
-        <v>1348.915747970001</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4150,22 +4498,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>38600</v>
+        <v>38410</v>
       </c>
       <c r="C103" t="n">
-        <v>38510</v>
+        <v>38410</v>
       </c>
       <c r="D103" t="n">
-        <v>38600</v>
+        <v>38410</v>
       </c>
       <c r="E103" t="n">
-        <v>38510</v>
+        <v>38410</v>
       </c>
       <c r="F103" t="n">
-        <v>11.4326</v>
+        <v>2.6656</v>
       </c>
       <c r="G103" t="n">
-        <v>1337.483147970001</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4186,22 +4534,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>38510</v>
+        <v>38410</v>
       </c>
       <c r="C104" t="n">
-        <v>38300</v>
+        <v>38410</v>
       </c>
       <c r="D104" t="n">
-        <v>38510</v>
+        <v>38410</v>
       </c>
       <c r="E104" t="n">
-        <v>38300</v>
+        <v>38410</v>
       </c>
       <c r="F104" t="n">
-        <v>10.7768</v>
+        <v>21.7711</v>
       </c>
       <c r="G104" t="n">
-        <v>1326.70634797</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4222,22 +4570,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>38330</v>
+        <v>38410</v>
       </c>
       <c r="C105" t="n">
-        <v>38290</v>
+        <v>38410</v>
       </c>
       <c r="D105" t="n">
-        <v>38330</v>
+        <v>38410</v>
       </c>
       <c r="E105" t="n">
-        <v>38290</v>
+        <v>38410</v>
       </c>
       <c r="F105" t="n">
-        <v>51.0359</v>
+        <v>0.5789</v>
       </c>
       <c r="G105" t="n">
-        <v>1275.67044797</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4258,22 +4606,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>38240</v>
+        <v>38410</v>
       </c>
       <c r="C106" t="n">
-        <v>38230</v>
+        <v>38410</v>
       </c>
       <c r="D106" t="n">
-        <v>38240</v>
+        <v>38410</v>
       </c>
       <c r="E106" t="n">
-        <v>38230</v>
+        <v>38410</v>
       </c>
       <c r="F106" t="n">
-        <v>21.5193</v>
+        <v>0.0165</v>
       </c>
       <c r="G106" t="n">
-        <v>1254.15114797</v>
+        <v>792.3691479700002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4294,22 +4642,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>38330</v>
+        <v>38500</v>
       </c>
       <c r="C107" t="n">
-        <v>38280</v>
+        <v>38500</v>
       </c>
       <c r="D107" t="n">
-        <v>38330</v>
+        <v>38500</v>
       </c>
       <c r="E107" t="n">
-        <v>38280</v>
+        <v>38500</v>
       </c>
       <c r="F107" t="n">
-        <v>6.5536</v>
+        <v>0.03</v>
       </c>
       <c r="G107" t="n">
-        <v>1260.70474797</v>
+        <v>792.3991479700002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4330,22 +4678,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>38570</v>
+        <v>38280</v>
       </c>
       <c r="C108" t="n">
-        <v>38590</v>
+        <v>38280</v>
       </c>
       <c r="D108" t="n">
-        <v>38590</v>
+        <v>38280</v>
       </c>
       <c r="E108" t="n">
-        <v>38570</v>
+        <v>38280</v>
       </c>
       <c r="F108" t="n">
-        <v>11.9188</v>
+        <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>1272.62354797</v>
+        <v>787.3991479700002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4366,22 +4714,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>38420</v>
+        <v>38100</v>
       </c>
       <c r="C109" t="n">
-        <v>38420</v>
+        <v>38100</v>
       </c>
       <c r="D109" t="n">
-        <v>38420</v>
+        <v>38100</v>
       </c>
       <c r="E109" t="n">
-        <v>38410</v>
+        <v>38100</v>
       </c>
       <c r="F109" t="n">
-        <v>2.4304</v>
+        <v>0.2725</v>
       </c>
       <c r="G109" t="n">
-        <v>1270.19314797</v>
+        <v>787.1266479700001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4402,22 +4750,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>38420</v>
+        <v>37900</v>
       </c>
       <c r="C110" t="n">
-        <v>38420</v>
+        <v>37900</v>
       </c>
       <c r="D110" t="n">
-        <v>38420</v>
+        <v>37900</v>
       </c>
       <c r="E110" t="n">
-        <v>38420</v>
+        <v>37900</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3773</v>
+        <v>2.473</v>
       </c>
       <c r="G110" t="n">
-        <v>1270.19314797</v>
+        <v>784.6536479700002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4438,22 +4786,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>38760</v>
+        <v>37940</v>
       </c>
       <c r="C111" t="n">
-        <v>38760</v>
+        <v>37940</v>
       </c>
       <c r="D111" t="n">
-        <v>38760</v>
+        <v>37940</v>
       </c>
       <c r="E111" t="n">
-        <v>38760</v>
+        <v>37940</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8552999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G111" t="n">
-        <v>1271.04844797</v>
+        <v>785.5036479700002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4474,22 +4822,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>38870</v>
+        <v>37710</v>
       </c>
       <c r="C112" t="n">
-        <v>38870</v>
+        <v>37710</v>
       </c>
       <c r="D112" t="n">
-        <v>38870</v>
+        <v>37710</v>
       </c>
       <c r="E112" t="n">
-        <v>38870</v>
+        <v>37710</v>
       </c>
       <c r="F112" t="n">
-        <v>2.939</v>
+        <v>2.663</v>
       </c>
       <c r="G112" t="n">
-        <v>1273.98744797</v>
+        <v>782.8406479700002</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4510,22 +4858,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>39100</v>
+        <v>37790</v>
       </c>
       <c r="C113" t="n">
-        <v>39260</v>
+        <v>37790</v>
       </c>
       <c r="D113" t="n">
-        <v>39260</v>
+        <v>37790</v>
       </c>
       <c r="E113" t="n">
-        <v>39100</v>
+        <v>37790</v>
       </c>
       <c r="F113" t="n">
-        <v>26.5906</v>
+        <v>13.1443</v>
       </c>
       <c r="G113" t="n">
-        <v>1300.57804797</v>
+        <v>795.9849479700002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4546,22 +4894,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>39250</v>
+        <v>37810</v>
       </c>
       <c r="C114" t="n">
-        <v>39310</v>
+        <v>37810</v>
       </c>
       <c r="D114" t="n">
-        <v>39310</v>
+        <v>37810</v>
       </c>
       <c r="E114" t="n">
-        <v>39250</v>
+        <v>37810</v>
       </c>
       <c r="F114" t="n">
-        <v>11.9</v>
+        <v>0.2511</v>
       </c>
       <c r="G114" t="n">
-        <v>1312.47804797</v>
+        <v>796.2360479700002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4582,22 +4930,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>39310</v>
+        <v>37820</v>
       </c>
       <c r="C115" t="n">
-        <v>39310</v>
+        <v>37830</v>
       </c>
       <c r="D115" t="n">
-        <v>39310</v>
+        <v>37830</v>
       </c>
       <c r="E115" t="n">
-        <v>39310</v>
+        <v>37820</v>
       </c>
       <c r="F115" t="n">
-        <v>11.5798</v>
+        <v>0.5415</v>
       </c>
       <c r="G115" t="n">
-        <v>1312.47804797</v>
+        <v>796.7775479700002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4618,28 +4966,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>39320</v>
+        <v>37840</v>
       </c>
       <c r="C116" t="n">
-        <v>39620</v>
+        <v>37840</v>
       </c>
       <c r="D116" t="n">
-        <v>39620</v>
+        <v>37840</v>
       </c>
       <c r="E116" t="n">
-        <v>39320</v>
+        <v>37840</v>
       </c>
       <c r="F116" t="n">
-        <v>3.9066</v>
+        <v>0.106</v>
       </c>
       <c r="G116" t="n">
-        <v>1316.384647970001</v>
+        <v>796.8835479700002</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4654,22 +5002,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>39210</v>
+        <v>37850</v>
       </c>
       <c r="C117" t="n">
-        <v>39200</v>
+        <v>37850</v>
       </c>
       <c r="D117" t="n">
-        <v>39210</v>
+        <v>37850</v>
       </c>
       <c r="E117" t="n">
-        <v>39200</v>
+        <v>37850</v>
       </c>
       <c r="F117" t="n">
-        <v>11.5798</v>
+        <v>0.2725</v>
       </c>
       <c r="G117" t="n">
-        <v>1304.804847970001</v>
+        <v>797.1560479700003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4690,28 +5038,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>39610</v>
+        <v>38490</v>
       </c>
       <c r="C118" t="n">
-        <v>39630</v>
+        <v>38490</v>
       </c>
       <c r="D118" t="n">
-        <v>39630</v>
+        <v>38500</v>
       </c>
       <c r="E118" t="n">
-        <v>39610</v>
+        <v>38490</v>
       </c>
       <c r="F118" t="n">
-        <v>6.4531</v>
+        <v>3.1818</v>
       </c>
       <c r="G118" t="n">
-        <v>1311.25794797</v>
+        <v>800.3378479700002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4726,28 +5074,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>39650</v>
+        <v>38490</v>
       </c>
       <c r="C119" t="n">
-        <v>39650</v>
+        <v>38500</v>
       </c>
       <c r="D119" t="n">
-        <v>39650</v>
+        <v>38500</v>
       </c>
       <c r="E119" t="n">
-        <v>39650</v>
+        <v>38490</v>
       </c>
       <c r="F119" t="n">
-        <v>0.03</v>
+        <v>22.4493</v>
       </c>
       <c r="G119" t="n">
-        <v>1311.28794797</v>
+        <v>822.7871479700002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4762,28 +5110,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>39770</v>
+        <v>38600</v>
       </c>
       <c r="C120" t="n">
-        <v>39770</v>
+        <v>38600</v>
       </c>
       <c r="D120" t="n">
-        <v>39770</v>
+        <v>38600</v>
       </c>
       <c r="E120" t="n">
-        <v>39770</v>
+        <v>38600</v>
       </c>
       <c r="F120" t="n">
-        <v>0.026</v>
+        <v>0.8264</v>
       </c>
       <c r="G120" t="n">
-        <v>1311.313947970001</v>
+        <v>823.6135479700002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4793,6 +5141,2562 @@
       </c>
       <c r="N120" t="inlineStr"/>
     </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>38330</v>
+      </c>
+      <c r="C121" t="n">
+        <v>38330</v>
+      </c>
+      <c r="D121" t="n">
+        <v>38330</v>
+      </c>
+      <c r="E121" t="n">
+        <v>38330</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.1506</v>
+      </c>
+      <c r="G121" t="n">
+        <v>820.4629479700002</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>38240</v>
+      </c>
+      <c r="C122" t="n">
+        <v>38230</v>
+      </c>
+      <c r="D122" t="n">
+        <v>38240</v>
+      </c>
+      <c r="E122" t="n">
+        <v>38230</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.5519</v>
+      </c>
+      <c r="G122" t="n">
+        <v>817.9110479700001</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>38580</v>
+      </c>
+      <c r="C123" t="n">
+        <v>38580</v>
+      </c>
+      <c r="D123" t="n">
+        <v>38580</v>
+      </c>
+      <c r="E123" t="n">
+        <v>38580</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2</v>
+      </c>
+      <c r="G123" t="n">
+        <v>819.9110479700001</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>38580</v>
+      </c>
+      <c r="C124" t="n">
+        <v>38580</v>
+      </c>
+      <c r="D124" t="n">
+        <v>38580</v>
+      </c>
+      <c r="E124" t="n">
+        <v>38580</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8</v>
+      </c>
+      <c r="G124" t="n">
+        <v>819.9110479700001</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>38600</v>
+      </c>
+      <c r="C125" t="n">
+        <v>38600</v>
+      </c>
+      <c r="D125" t="n">
+        <v>38600</v>
+      </c>
+      <c r="E125" t="n">
+        <v>38600</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.8591</v>
+      </c>
+      <c r="G125" t="n">
+        <v>822.7701479700002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>38740</v>
+      </c>
+      <c r="C126" t="n">
+        <v>38740</v>
+      </c>
+      <c r="D126" t="n">
+        <v>38740</v>
+      </c>
+      <c r="E126" t="n">
+        <v>38740</v>
+      </c>
+      <c r="F126" t="n">
+        <v>7.1681</v>
+      </c>
+      <c r="G126" t="n">
+        <v>829.9382479700001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>38740</v>
+      </c>
+      <c r="C127" t="n">
+        <v>38740</v>
+      </c>
+      <c r="D127" t="n">
+        <v>38740</v>
+      </c>
+      <c r="E127" t="n">
+        <v>38740</v>
+      </c>
+      <c r="F127" t="n">
+        <v>41.6164</v>
+      </c>
+      <c r="G127" t="n">
+        <v>829.9382479700001</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>38740</v>
+      </c>
+      <c r="C128" t="n">
+        <v>38740</v>
+      </c>
+      <c r="D128" t="n">
+        <v>38740</v>
+      </c>
+      <c r="E128" t="n">
+        <v>38740</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.3849</v>
+      </c>
+      <c r="G128" t="n">
+        <v>829.9382479700001</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>38740</v>
+      </c>
+      <c r="C129" t="n">
+        <v>38740</v>
+      </c>
+      <c r="D129" t="n">
+        <v>38740</v>
+      </c>
+      <c r="E129" t="n">
+        <v>38740</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.1212</v>
+      </c>
+      <c r="G129" t="n">
+        <v>829.9382479700001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>38750</v>
+      </c>
+      <c r="C130" t="n">
+        <v>38750</v>
+      </c>
+      <c r="D130" t="n">
+        <v>38750</v>
+      </c>
+      <c r="E130" t="n">
+        <v>38750</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G130" t="n">
+        <v>831.6382479700002</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>38770</v>
+      </c>
+      <c r="C131" t="n">
+        <v>38770</v>
+      </c>
+      <c r="D131" t="n">
+        <v>38770</v>
+      </c>
+      <c r="E131" t="n">
+        <v>38770</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="G131" t="n">
+        <v>843.6782479700001</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>38770</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D132" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>38770</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>855.7782479700002</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C133" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D133" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E133" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>855.7782479700002</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C134" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>70.2805</v>
+      </c>
+      <c r="G134" t="n">
+        <v>855.7782479700002</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>39060</v>
+      </c>
+      <c r="C135" t="n">
+        <v>39060</v>
+      </c>
+      <c r="D135" t="n">
+        <v>39060</v>
+      </c>
+      <c r="E135" t="n">
+        <v>39060</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>855.8782479700002</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>38780</v>
+      </c>
+      <c r="C136" t="n">
+        <v>38580</v>
+      </c>
+      <c r="D136" t="n">
+        <v>38780</v>
+      </c>
+      <c r="E136" t="n">
+        <v>38580</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4.8822</v>
+      </c>
+      <c r="G136" t="n">
+        <v>850.9960479700002</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>38370</v>
+      </c>
+      <c r="C137" t="n">
+        <v>38370</v>
+      </c>
+      <c r="D137" t="n">
+        <v>38370</v>
+      </c>
+      <c r="E137" t="n">
+        <v>38370</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.6205000000000001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>850.3755479700002</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>38260</v>
+      </c>
+      <c r="C138" t="n">
+        <v>38250</v>
+      </c>
+      <c r="D138" t="n">
+        <v>38260</v>
+      </c>
+      <c r="E138" t="n">
+        <v>38250</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.9906</v>
+      </c>
+      <c r="G138" t="n">
+        <v>848.3849479700002</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>38250</v>
+      </c>
+      <c r="C139" t="n">
+        <v>38250</v>
+      </c>
+      <c r="D139" t="n">
+        <v>38250</v>
+      </c>
+      <c r="E139" t="n">
+        <v>38250</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1103</v>
+      </c>
+      <c r="G139" t="n">
+        <v>848.3849479700002</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>38250</v>
+      </c>
+      <c r="C140" t="n">
+        <v>38250</v>
+      </c>
+      <c r="D140" t="n">
+        <v>38250</v>
+      </c>
+      <c r="E140" t="n">
+        <v>38250</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0223</v>
+      </c>
+      <c r="G140" t="n">
+        <v>848.3849479700002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>38060</v>
+      </c>
+      <c r="C141" t="n">
+        <v>38050</v>
+      </c>
+      <c r="D141" t="n">
+        <v>38060</v>
+      </c>
+      <c r="E141" t="n">
+        <v>38050</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.561</v>
+      </c>
+      <c r="G141" t="n">
+        <v>845.8239479700002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>38040</v>
+      </c>
+      <c r="C142" t="n">
+        <v>38040</v>
+      </c>
+      <c r="D142" t="n">
+        <v>38040</v>
+      </c>
+      <c r="E142" t="n">
+        <v>38040</v>
+      </c>
+      <c r="F142" t="n">
+        <v>4.6122</v>
+      </c>
+      <c r="G142" t="n">
+        <v>841.2117479700001</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>38010</v>
+      </c>
+      <c r="C143" t="n">
+        <v>38010</v>
+      </c>
+      <c r="D143" t="n">
+        <v>38010</v>
+      </c>
+      <c r="E143" t="n">
+        <v>38010</v>
+      </c>
+      <c r="F143" t="n">
+        <v>70.2805</v>
+      </c>
+      <c r="G143" t="n">
+        <v>770.9312479700002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>38020</v>
+      </c>
+      <c r="C144" t="n">
+        <v>38020</v>
+      </c>
+      <c r="D144" t="n">
+        <v>38020</v>
+      </c>
+      <c r="E144" t="n">
+        <v>38020</v>
+      </c>
+      <c r="F144" t="n">
+        <v>22.2154</v>
+      </c>
+      <c r="G144" t="n">
+        <v>793.1466479700002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>38010</v>
+      </c>
+      <c r="C145" t="n">
+        <v>38010</v>
+      </c>
+      <c r="D145" t="n">
+        <v>38010</v>
+      </c>
+      <c r="E145" t="n">
+        <v>38010</v>
+      </c>
+      <c r="F145" t="n">
+        <v>10.8684</v>
+      </c>
+      <c r="G145" t="n">
+        <v>782.2782479700003</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>38080</v>
+      </c>
+      <c r="C146" t="n">
+        <v>38080</v>
+      </c>
+      <c r="D146" t="n">
+        <v>38080</v>
+      </c>
+      <c r="E146" t="n">
+        <v>38080</v>
+      </c>
+      <c r="F146" t="n">
+        <v>8.4946</v>
+      </c>
+      <c r="G146" t="n">
+        <v>790.7728479700003</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>38080</v>
+      </c>
+      <c r="C147" t="n">
+        <v>38020</v>
+      </c>
+      <c r="D147" t="n">
+        <v>38080</v>
+      </c>
+      <c r="E147" t="n">
+        <v>38020</v>
+      </c>
+      <c r="F147" t="n">
+        <v>27.612</v>
+      </c>
+      <c r="G147" t="n">
+        <v>763.1608479700003</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>38010</v>
+      </c>
+      <c r="C148" t="n">
+        <v>38010</v>
+      </c>
+      <c r="D148" t="n">
+        <v>38010</v>
+      </c>
+      <c r="E148" t="n">
+        <v>38010</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.6646</v>
+      </c>
+      <c r="G148" t="n">
+        <v>761.4962479700004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>38010</v>
+      </c>
+      <c r="C149" t="n">
+        <v>38060</v>
+      </c>
+      <c r="D149" t="n">
+        <v>38060</v>
+      </c>
+      <c r="E149" t="n">
+        <v>37710</v>
+      </c>
+      <c r="F149" t="n">
+        <v>206.1457</v>
+      </c>
+      <c r="G149" t="n">
+        <v>967.6419479700004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>38110</v>
+      </c>
+      <c r="C150" t="n">
+        <v>38110</v>
+      </c>
+      <c r="D150" t="n">
+        <v>38110</v>
+      </c>
+      <c r="E150" t="n">
+        <v>38110</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5.5361</v>
+      </c>
+      <c r="G150" t="n">
+        <v>973.1780479700004</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>38250</v>
+      </c>
+      <c r="C151" t="n">
+        <v>38250</v>
+      </c>
+      <c r="D151" t="n">
+        <v>38250</v>
+      </c>
+      <c r="E151" t="n">
+        <v>38250</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.6805</v>
+      </c>
+      <c r="G151" t="n">
+        <v>973.8585479700005</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>38110</v>
+      </c>
+      <c r="C152" t="n">
+        <v>38060</v>
+      </c>
+      <c r="D152" t="n">
+        <v>38110</v>
+      </c>
+      <c r="E152" t="n">
+        <v>38060</v>
+      </c>
+      <c r="F152" t="n">
+        <v>7.6654</v>
+      </c>
+      <c r="G152" t="n">
+        <v>966.1931479700005</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>38050</v>
+      </c>
+      <c r="C153" t="n">
+        <v>38050</v>
+      </c>
+      <c r="D153" t="n">
+        <v>38050</v>
+      </c>
+      <c r="E153" t="n">
+        <v>38050</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.0019</v>
+      </c>
+      <c r="G153" t="n">
+        <v>960.1912479700005</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>38050</v>
+      </c>
+      <c r="C154" t="n">
+        <v>38050</v>
+      </c>
+      <c r="D154" t="n">
+        <v>38050</v>
+      </c>
+      <c r="E154" t="n">
+        <v>38050</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.6173</v>
+      </c>
+      <c r="G154" t="n">
+        <v>960.1912479700005</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>38230</v>
+      </c>
+      <c r="C155" t="n">
+        <v>38540</v>
+      </c>
+      <c r="D155" t="n">
+        <v>38540</v>
+      </c>
+      <c r="E155" t="n">
+        <v>38230</v>
+      </c>
+      <c r="F155" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="G155" t="n">
+        <v>993.6912479700005</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>38360</v>
+      </c>
+      <c r="C156" t="n">
+        <v>38730</v>
+      </c>
+      <c r="D156" t="n">
+        <v>38730</v>
+      </c>
+      <c r="E156" t="n">
+        <v>38360</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3.5789</v>
+      </c>
+      <c r="G156" t="n">
+        <v>997.2701479700005</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>38320</v>
+      </c>
+      <c r="C157" t="n">
+        <v>38310</v>
+      </c>
+      <c r="D157" t="n">
+        <v>38320</v>
+      </c>
+      <c r="E157" t="n">
+        <v>38310</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4.5538</v>
+      </c>
+      <c r="G157" t="n">
+        <v>992.7163479700005</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>38200</v>
+      </c>
+      <c r="C158" t="n">
+        <v>38200</v>
+      </c>
+      <c r="D158" t="n">
+        <v>38200</v>
+      </c>
+      <c r="E158" t="n">
+        <v>38200</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20</v>
+      </c>
+      <c r="G158" t="n">
+        <v>972.7163479700005</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>38480</v>
+      </c>
+      <c r="C159" t="n">
+        <v>38190</v>
+      </c>
+      <c r="D159" t="n">
+        <v>38490</v>
+      </c>
+      <c r="E159" t="n">
+        <v>38190</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.451000000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>964.2653479700004</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>38510</v>
+      </c>
+      <c r="C160" t="n">
+        <v>38250</v>
+      </c>
+      <c r="D160" t="n">
+        <v>38720</v>
+      </c>
+      <c r="E160" t="n">
+        <v>38250</v>
+      </c>
+      <c r="F160" t="n">
+        <v>400.0205</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1364.285847970001</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>38460</v>
+      </c>
+      <c r="C161" t="n">
+        <v>38450</v>
+      </c>
+      <c r="D161" t="n">
+        <v>38460</v>
+      </c>
+      <c r="E161" t="n">
+        <v>38450</v>
+      </c>
+      <c r="F161" t="n">
+        <v>34.0016</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1398.287447970001</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>38460</v>
+      </c>
+      <c r="C162" t="n">
+        <v>38460</v>
+      </c>
+      <c r="D162" t="n">
+        <v>38460</v>
+      </c>
+      <c r="E162" t="n">
+        <v>38460</v>
+      </c>
+      <c r="F162" t="n">
+        <v>9.459</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1407.746447970001</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>38710</v>
+      </c>
+      <c r="C163" t="n">
+        <v>38710</v>
+      </c>
+      <c r="D163" t="n">
+        <v>38710</v>
+      </c>
+      <c r="E163" t="n">
+        <v>38710</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1408.776447970001</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>38720</v>
+      </c>
+      <c r="C164" t="n">
+        <v>38510</v>
+      </c>
+      <c r="D164" t="n">
+        <v>38720</v>
+      </c>
+      <c r="E164" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F164" t="n">
+        <v>28.7112</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1380.065247970001</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>38520</v>
+      </c>
+      <c r="C165" t="n">
+        <v>38510</v>
+      </c>
+      <c r="D165" t="n">
+        <v>38520</v>
+      </c>
+      <c r="E165" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F165" t="n">
+        <v>8.0769</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1380.065247970001</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>38530</v>
+      </c>
+      <c r="C166" t="n">
+        <v>38530</v>
+      </c>
+      <c r="D166" t="n">
+        <v>38530</v>
+      </c>
+      <c r="E166" t="n">
+        <v>38530</v>
+      </c>
+      <c r="F166" t="n">
+        <v>6</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1386.065247970001</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>38530</v>
+      </c>
+      <c r="C167" t="n">
+        <v>38790</v>
+      </c>
+      <c r="D167" t="n">
+        <v>38790</v>
+      </c>
+      <c r="E167" t="n">
+        <v>38530</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19.6999</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1405.765147970001</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C168" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D168" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.2968</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1408.061947970001</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>39000</v>
+      </c>
+      <c r="C169" t="n">
+        <v>39000</v>
+      </c>
+      <c r="D169" t="n">
+        <v>39000</v>
+      </c>
+      <c r="E169" t="n">
+        <v>39000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>8.4421</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1408.061947970001</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>39080</v>
+      </c>
+      <c r="C170" t="n">
+        <v>38830</v>
+      </c>
+      <c r="D170" t="n">
+        <v>39080</v>
+      </c>
+      <c r="E170" t="n">
+        <v>38830</v>
+      </c>
+      <c r="F170" t="n">
+        <v>65.3665</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1342.695447970001</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>38560</v>
+      </c>
+      <c r="C171" t="n">
+        <v>38560</v>
+      </c>
+      <c r="D171" t="n">
+        <v>38560</v>
+      </c>
+      <c r="E171" t="n">
+        <v>38560</v>
+      </c>
+      <c r="F171" t="n">
+        <v>21.6144</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1321.081047970001</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>38560</v>
+      </c>
+      <c r="C172" t="n">
+        <v>38530</v>
+      </c>
+      <c r="D172" t="n">
+        <v>38560</v>
+      </c>
+      <c r="E172" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F172" t="n">
+        <v>8.8058</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1312.275247970001</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>38520</v>
+      </c>
+      <c r="C173" t="n">
+        <v>38790</v>
+      </c>
+      <c r="D173" t="n">
+        <v>38790</v>
+      </c>
+      <c r="E173" t="n">
+        <v>38500</v>
+      </c>
+      <c r="F173" t="n">
+        <v>36.6405</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1348.915747970001</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>38600</v>
+      </c>
+      <c r="C174" t="n">
+        <v>38510</v>
+      </c>
+      <c r="D174" t="n">
+        <v>38600</v>
+      </c>
+      <c r="E174" t="n">
+        <v>38510</v>
+      </c>
+      <c r="F174" t="n">
+        <v>11.4326</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1337.483147970001</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>38510</v>
+      </c>
+      <c r="C175" t="n">
+        <v>38300</v>
+      </c>
+      <c r="D175" t="n">
+        <v>38510</v>
+      </c>
+      <c r="E175" t="n">
+        <v>38300</v>
+      </c>
+      <c r="F175" t="n">
+        <v>10.7768</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1326.70634797</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>38330</v>
+      </c>
+      <c r="C176" t="n">
+        <v>38290</v>
+      </c>
+      <c r="D176" t="n">
+        <v>38330</v>
+      </c>
+      <c r="E176" t="n">
+        <v>38290</v>
+      </c>
+      <c r="F176" t="n">
+        <v>51.0359</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1275.67044797</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>38240</v>
+      </c>
+      <c r="C177" t="n">
+        <v>38230</v>
+      </c>
+      <c r="D177" t="n">
+        <v>38240</v>
+      </c>
+      <c r="E177" t="n">
+        <v>38230</v>
+      </c>
+      <c r="F177" t="n">
+        <v>21.5193</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1254.15114797</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>38330</v>
+      </c>
+      <c r="C178" t="n">
+        <v>38280</v>
+      </c>
+      <c r="D178" t="n">
+        <v>38330</v>
+      </c>
+      <c r="E178" t="n">
+        <v>38280</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6.5536</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1260.70474797</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>38570</v>
+      </c>
+      <c r="C179" t="n">
+        <v>38590</v>
+      </c>
+      <c r="D179" t="n">
+        <v>38590</v>
+      </c>
+      <c r="E179" t="n">
+        <v>38570</v>
+      </c>
+      <c r="F179" t="n">
+        <v>11.9188</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1272.62354797</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>38420</v>
+      </c>
+      <c r="C180" t="n">
+        <v>38420</v>
+      </c>
+      <c r="D180" t="n">
+        <v>38420</v>
+      </c>
+      <c r="E180" t="n">
+        <v>38410</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2.4304</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1270.19314797</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>38420</v>
+      </c>
+      <c r="C181" t="n">
+        <v>38420</v>
+      </c>
+      <c r="D181" t="n">
+        <v>38420</v>
+      </c>
+      <c r="E181" t="n">
+        <v>38420</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.3773</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1270.19314797</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>38760</v>
+      </c>
+      <c r="C182" t="n">
+        <v>38760</v>
+      </c>
+      <c r="D182" t="n">
+        <v>38760</v>
+      </c>
+      <c r="E182" t="n">
+        <v>38760</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.8552999999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1271.04844797</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>38870</v>
+      </c>
+      <c r="C183" t="n">
+        <v>38870</v>
+      </c>
+      <c r="D183" t="n">
+        <v>38870</v>
+      </c>
+      <c r="E183" t="n">
+        <v>38870</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1273.98744797</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>39100</v>
+      </c>
+      <c r="C184" t="n">
+        <v>39260</v>
+      </c>
+      <c r="D184" t="n">
+        <v>39260</v>
+      </c>
+      <c r="E184" t="n">
+        <v>39100</v>
+      </c>
+      <c r="F184" t="n">
+        <v>26.5906</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1300.57804797</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>39250</v>
+      </c>
+      <c r="C185" t="n">
+        <v>39310</v>
+      </c>
+      <c r="D185" t="n">
+        <v>39310</v>
+      </c>
+      <c r="E185" t="n">
+        <v>39250</v>
+      </c>
+      <c r="F185" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1312.47804797</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>39310</v>
+      </c>
+      <c r="C186" t="n">
+        <v>39310</v>
+      </c>
+      <c r="D186" t="n">
+        <v>39310</v>
+      </c>
+      <c r="E186" t="n">
+        <v>39310</v>
+      </c>
+      <c r="F186" t="n">
+        <v>11.5798</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1312.47804797</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>39320</v>
+      </c>
+      <c r="C187" t="n">
+        <v>39620</v>
+      </c>
+      <c r="D187" t="n">
+        <v>39620</v>
+      </c>
+      <c r="E187" t="n">
+        <v>39320</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3.9066</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1316.384647970001</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>39210</v>
+      </c>
+      <c r="C188" t="n">
+        <v>39200</v>
+      </c>
+      <c r="D188" t="n">
+        <v>39210</v>
+      </c>
+      <c r="E188" t="n">
+        <v>39200</v>
+      </c>
+      <c r="F188" t="n">
+        <v>11.5798</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1304.804847970001</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>39610</v>
+      </c>
+      <c r="C189" t="n">
+        <v>39630</v>
+      </c>
+      <c r="D189" t="n">
+        <v>39630</v>
+      </c>
+      <c r="E189" t="n">
+        <v>39610</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6.4531</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1311.25794797</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>39650</v>
+      </c>
+      <c r="C190" t="n">
+        <v>39650</v>
+      </c>
+      <c r="D190" t="n">
+        <v>39650</v>
+      </c>
+      <c r="E190" t="n">
+        <v>39650</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1311.28794797</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>39770</v>
+      </c>
+      <c r="C191" t="n">
+        <v>39770</v>
+      </c>
+      <c r="D191" t="n">
+        <v>39770</v>
+      </c>
+      <c r="E191" t="n">
+        <v>39770</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1311.313947970001</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>630.30317365</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -486,8 +486,12 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38130</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -519,9 +523,17 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>38400</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -552,9 +564,17 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>38400</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -585,9 +605,17 @@
       <c r="H6" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>38460</v>
+      </c>
+      <c r="J6" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,17 @@
         <v>631.3061736499999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +683,17 @@
         <v>631.3061736499999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +725,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +761,17 @@
         <v>624.6447736499999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +959,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +998,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1037,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1076,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1115,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1154,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1193,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1232,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1310,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1349,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,15 +1931,17 @@
         <v>593.6651995199999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>37700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>37700</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1746,11 +1974,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1781,17 +2009,15 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>37550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L42" t="n">
@@ -1822,13 +2048,11 @@
         <v>597.95289952</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>37550</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1863,13 +2087,11 @@
         <v>602.56049952</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>37630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -1904,13 +2126,11 @@
         <v>602.91729952</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>37770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -1945,13 +2165,11 @@
         <v>610.97399952</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>37820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -1986,13 +2204,11 @@
         <v>608.19009952</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>37920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2027,13 +2243,11 @@
         <v>608.19009952</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2068,13 +2282,11 @@
         <v>608.19009952</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>37610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2109,13 +2321,11 @@
         <v>608.19009952</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>37610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2150,13 +2360,11 @@
         <v>630.19009952</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>37610</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2191,13 +2399,11 @@
         <v>641.19009952</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>37870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2236,7 +2442,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2275,7 +2481,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2314,7 +2520,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2353,7 +2559,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2392,7 +2598,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2431,7 +2637,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2470,7 +2676,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2509,7 +2715,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2548,7 +2754,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2587,7 +2793,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2626,7 +2832,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2661,13 +2867,11 @@
         <v>633.30279952</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>38130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2702,13 +2906,11 @@
         <v>654.44919952</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>37730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2743,13 +2945,11 @@
         <v>656.7491995199999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>37820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2788,7 +2988,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2827,7 +3027,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2866,7 +3066,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2905,7 +3105,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2944,7 +3144,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2983,7 +3183,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3022,7 +3222,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3061,7 +3261,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3100,7 +3300,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3139,7 +3339,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3174,11 +3374,11 @@
         <v>851.8964479700002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3213,11 +3413,11 @@
         <v>855.2194479700001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3252,11 +3452,11 @@
         <v>851.4631479700001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3291,19 +3491,19 @@
         <v>854.7861479700001</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>37700</v>
+        <v>38130</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.021525198938992</v>
+        <v>1</v>
       </c>
       <c r="M80" t="inlineStr"/>
     </row>
@@ -3333,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3366,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3399,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3432,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3465,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3495,11 +3725,17 @@
         <v>806.5140479700002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3531,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3564,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3594,11 +3842,17 @@
         <v>808.9426479700002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3627,13 +3881,19 @@
         <v>808.9426479700002</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>1.01335824809861</v>
       </c>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3660,7 +3920,7 @@
         <v>809.0426479700002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3693,7 +3953,7 @@
         <v>808.7566479700002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3726,7 +3986,7 @@
         <v>800.3637479700002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3759,7 +4019,7 @@
         <v>804.8235479700002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3792,7 +4052,7 @@
         <v>804.8235479700002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3825,7 +4085,7 @@
         <v>787.8383479700002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3858,7 +4118,7 @@
         <v>787.7172479700002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3891,7 +4151,7 @@
         <v>787.7172479700002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3924,7 +4184,7 @@
         <v>792.0294479700002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3957,7 +4217,7 @@
         <v>792.0294479700002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3990,7 +4250,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4023,7 +4283,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4056,7 +4316,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4089,7 +4349,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4122,7 +4382,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4155,7 +4415,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4188,7 +4448,7 @@
         <v>792.3991479700002</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4221,7 +4481,7 @@
         <v>787.3991479700002</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4254,7 +4514,7 @@
         <v>787.1266479700001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4287,7 +4547,7 @@
         <v>784.6536479700002</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4320,7 +4580,7 @@
         <v>785.5036479700002</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4353,7 +4613,7 @@
         <v>782.8406479700002</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4386,7 +4646,7 @@
         <v>795.9849479700002</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4419,7 +4679,7 @@
         <v>796.2360479700002</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4452,7 +4712,7 @@
         <v>796.7775479700002</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4485,7 +4745,7 @@
         <v>796.8835479700002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4518,7 +4778,7 @@
         <v>797.1560479700003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4551,7 +4811,7 @@
         <v>800.3378479700002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4584,7 +4844,7 @@
         <v>822.7871479700002</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4617,7 +4877,7 @@
         <v>823.6135479700002</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4650,7 +4910,7 @@
         <v>820.4629479700002</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4683,7 +4943,7 @@
         <v>817.9110479700001</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4716,7 +4976,7 @@
         <v>819.9110479700001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4749,7 +5009,7 @@
         <v>819.9110479700001</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4782,7 +5042,7 @@
         <v>822.7701479700002</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4815,7 +5075,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4848,7 +5108,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4881,7 +5141,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4914,7 +5174,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4947,7 +5207,7 @@
         <v>831.6382479700002</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4980,7 +5240,7 @@
         <v>843.6782479700001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5013,7 +5273,7 @@
         <v>855.7782479700002</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5046,7 +5306,7 @@
         <v>855.7782479700002</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5079,7 +5339,7 @@
         <v>855.7782479700002</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5112,7 +5372,7 @@
         <v>855.8782479700002</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5145,7 +5405,7 @@
         <v>850.9960479700002</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5178,7 +5438,7 @@
         <v>850.3755479700002</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5211,7 +5471,7 @@
         <v>848.3849479700002</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5244,7 +5504,7 @@
         <v>848.3849479700002</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5277,7 +5537,7 @@
         <v>848.3849479700002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5310,7 +5570,7 @@
         <v>845.8239479700002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5343,7 +5603,7 @@
         <v>841.2117479700001</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5376,7 +5636,7 @@
         <v>770.9312479700002</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5409,7 +5669,7 @@
         <v>793.1466479700002</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5442,7 +5702,7 @@
         <v>782.2782479700003</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5475,7 +5735,7 @@
         <v>790.7728479700003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5508,7 +5768,7 @@
         <v>763.1608479700003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5541,7 +5801,7 @@
         <v>761.4962479700004</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5574,7 +5834,7 @@
         <v>967.6419479700004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5607,7 +5867,7 @@
         <v>973.1780479700004</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5640,7 +5900,7 @@
         <v>973.8585479700005</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5673,7 +5933,7 @@
         <v>966.1931479700005</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5706,7 +5966,7 @@
         <v>960.1912479700005</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5739,7 +5999,7 @@
         <v>960.1912479700005</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5772,7 +6032,7 @@
         <v>993.6912479700005</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5805,7 +6065,7 @@
         <v>997.2701479700005</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5838,7 +6098,7 @@
         <v>992.7163479700005</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5871,7 +6131,7 @@
         <v>972.7163479700005</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5904,7 +6164,7 @@
         <v>964.2653479700004</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5937,7 +6197,7 @@
         <v>1364.285847970001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5970,7 +6230,7 @@
         <v>1398.287447970001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6003,7 +6263,7 @@
         <v>1407.746447970001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6036,7 +6296,7 @@
         <v>1408.776447970001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6201,7 +6461,7 @@
         <v>1408.061947970001</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6234,7 +6494,7 @@
         <v>1408.061947970001</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6267,7 +6527,7 @@
         <v>1342.695447970001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6300,7 +6560,7 @@
         <v>1321.081047970001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6333,7 +6593,7 @@
         <v>1312.275247970001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6366,7 +6626,7 @@
         <v>1348.915747970001</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6399,7 +6659,7 @@
         <v>1337.483147970001</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6432,7 +6692,7 @@
         <v>1326.70634797</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6465,7 +6725,7 @@
         <v>1275.67044797</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6498,7 +6758,7 @@
         <v>1254.15114797</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6531,7 +6791,7 @@
         <v>1260.70474797</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6564,7 +6824,7 @@
         <v>1272.62354797</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6597,7 +6857,7 @@
         <v>1270.19314797</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6630,7 +6890,7 @@
         <v>1270.19314797</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6663,7 +6923,7 @@
         <v>1271.04844797</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6696,7 +6956,7 @@
         <v>1273.98744797</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6729,7 +6989,7 @@
         <v>1300.57804797</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6762,7 +7022,7 @@
         <v>1312.47804797</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6795,7 +7055,7 @@
         <v>1312.47804797</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6828,7 +7088,7 @@
         <v>1316.384647970001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6861,7 +7121,7 @@
         <v>1304.804847970001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6894,7 +7154,7 @@
         <v>1311.25794797</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6927,7 +7187,7 @@
         <v>1311.28794797</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6960,7 +7220,7 @@
         <v>1311.313947970001</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6971,6 +7231,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>630.30317365</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>630.78317365</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>38130</v>
-      </c>
-      <c r="J3" t="n">
-        <v>38130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,881 +517,753 @@
         <v>630.78317365</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>38400</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38460</v>
+      </c>
+      <c r="C5" t="n">
+        <v>38460</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38460</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38460</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4371</v>
+      </c>
+      <c r="G5" t="n">
+        <v>631.22027365</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>38460</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38710</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38710</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38460</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.7682</v>
+      </c>
+      <c r="G6" t="n">
+        <v>651.9884736499999</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37730</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37730</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37730</v>
+      </c>
+      <c r="E7" t="n">
+        <v>37730</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.6823</v>
+      </c>
+      <c r="G7" t="n">
+        <v>631.3061736499999</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>37730</v>
+      </c>
+      <c r="C8" t="n">
+        <v>37730</v>
+      </c>
+      <c r="D8" t="n">
+        <v>37730</v>
+      </c>
+      <c r="E8" t="n">
+        <v>37730</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0859</v>
+      </c>
+      <c r="G8" t="n">
+        <v>631.3061736499999</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37820</v>
+      </c>
+      <c r="C9" t="n">
+        <v>37460</v>
+      </c>
+      <c r="D9" t="n">
+        <v>37820</v>
+      </c>
+      <c r="E9" t="n">
+        <v>37460</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.259</v>
+      </c>
+      <c r="G9" t="n">
+        <v>622.0471736499999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>37770</v>
+      </c>
+      <c r="C10" t="n">
+        <v>37770</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37770</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37770</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.5976</v>
+      </c>
+      <c r="G10" t="n">
+        <v>624.6447736499999</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>38010</v>
+      </c>
+      <c r="C11" t="n">
+        <v>38010</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38010</v>
+      </c>
+      <c r="E11" t="n">
+        <v>38010</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G11" t="n">
+        <v>624.9147736499999</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37970</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37970</v>
+      </c>
+      <c r="D12" t="n">
+        <v>37970</v>
+      </c>
+      <c r="E12" t="n">
+        <v>37970</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.7839</v>
+      </c>
+      <c r="G12" t="n">
+        <v>622.1308736499999</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37440</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37440</v>
+      </c>
+      <c r="D13" t="n">
+        <v>37440</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37440</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.0019</v>
+      </c>
+      <c r="G13" t="n">
+        <v>621.1289736499999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>37430</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37420</v>
+      </c>
+      <c r="D14" t="n">
+        <v>37430</v>
+      </c>
+      <c r="E14" t="n">
+        <v>37420</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7689</v>
+      </c>
+      <c r="G14" t="n">
+        <v>620.3600736499999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>37420</v>
+      </c>
+      <c r="C15" t="n">
+        <v>37400</v>
+      </c>
+      <c r="D15" t="n">
+        <v>37420</v>
+      </c>
+      <c r="E15" t="n">
+        <v>37400</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.07870000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>620.2813736499999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>37740</v>
+      </c>
+      <c r="C16" t="n">
+        <v>37740</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37740</v>
+      </c>
+      <c r="E16" t="n">
+        <v>37740</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>620.8813736499999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37970</v>
+      </c>
+      <c r="C17" t="n">
+        <v>38140</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38140</v>
+      </c>
+      <c r="E17" t="n">
+        <v>37970</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.04622587</v>
+      </c>
+      <c r="G17" t="n">
+        <v>637.9275995199998</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>37820</v>
+      </c>
+      <c r="C18" t="n">
+        <v>37820</v>
+      </c>
+      <c r="D18" t="n">
+        <v>37820</v>
+      </c>
+      <c r="E18" t="n">
+        <v>37820</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G18" t="n">
+        <v>637.6575995199998</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>37420</v>
+      </c>
+      <c r="C19" t="n">
+        <v>37200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>37420</v>
+      </c>
+      <c r="E19" t="n">
+        <v>37200</v>
+      </c>
+      <c r="F19" t="n">
+        <v>17.0463</v>
+      </c>
+      <c r="G19" t="n">
+        <v>620.6112995199999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>37210</v>
+      </c>
+      <c r="C20" t="n">
+        <v>37210</v>
+      </c>
+      <c r="D20" t="n">
+        <v>37210</v>
+      </c>
+      <c r="E20" t="n">
+        <v>37210</v>
+      </c>
+      <c r="F20" t="n">
+        <v>14.8849</v>
+      </c>
+      <c r="G20" t="n">
+        <v>635.4961995199999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>37520</v>
+      </c>
+      <c r="C21" t="n">
+        <v>37520</v>
+      </c>
+      <c r="D21" t="n">
+        <v>37520</v>
+      </c>
+      <c r="E21" t="n">
+        <v>37520</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.5202</v>
+      </c>
+      <c r="G21" t="n">
+        <v>637.0163995199999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>37420</v>
+      </c>
+      <c r="C22" t="n">
+        <v>37220</v>
+      </c>
+      <c r="D22" t="n">
+        <v>37420</v>
+      </c>
+      <c r="E22" t="n">
+        <v>37220</v>
+      </c>
+      <c r="F22" t="n">
+        <v>38.2422</v>
+      </c>
+      <c r="G22" t="n">
+        <v>598.7741995199999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>37350</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37350</v>
+      </c>
+      <c r="D23" t="n">
+        <v>37350</v>
+      </c>
+      <c r="E23" t="n">
+        <v>37350</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8399</v>
+      </c>
+      <c r="G23" t="n">
+        <v>599.6140995199999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>37350</v>
+      </c>
+      <c r="C24" t="n">
+        <v>37350</v>
+      </c>
+      <c r="D24" t="n">
+        <v>37350</v>
+      </c>
+      <c r="E24" t="n">
+        <v>37350</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.4656</v>
+      </c>
+      <c r="G24" t="n">
+        <v>599.6140995199999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>37350</v>
+      </c>
+      <c r="J24" t="n">
+        <v>37350</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>37910</v>
+      </c>
+      <c r="C25" t="n">
+        <v>37880</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37950</v>
+      </c>
+      <c r="E25" t="n">
+        <v>37740</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.8367</v>
+      </c>
+      <c r="G25" t="n">
+        <v>605.4507995199998</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>37350</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>38460</v>
-      </c>
-      <c r="C5" t="n">
-        <v>38460</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38460</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38460</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.4371</v>
-      </c>
-      <c r="G5" t="n">
-        <v>631.22027365</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>38400</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>38140</v>
+      </c>
+      <c r="C26" t="n">
+        <v>38160</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38160</v>
+      </c>
+      <c r="E26" t="n">
+        <v>38140</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>615.4507995199998</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>37350</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>38460</v>
-      </c>
-      <c r="C6" t="n">
-        <v>38710</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38710</v>
-      </c>
-      <c r="E6" t="n">
-        <v>38460</v>
-      </c>
-      <c r="F6" t="n">
-        <v>20.7682</v>
-      </c>
-      <c r="G6" t="n">
-        <v>651.9884736499999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38460</v>
-      </c>
-      <c r="J6" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>37730</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37730</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37730</v>
-      </c>
-      <c r="E7" t="n">
-        <v>37730</v>
-      </c>
-      <c r="F7" t="n">
-        <v>20.6823</v>
-      </c>
-      <c r="G7" t="n">
-        <v>631.3061736499999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>37730</v>
-      </c>
-      <c r="C8" t="n">
-        <v>37730</v>
-      </c>
-      <c r="D8" t="n">
-        <v>37730</v>
-      </c>
-      <c r="E8" t="n">
-        <v>37730</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.0859</v>
-      </c>
-      <c r="G8" t="n">
-        <v>631.3061736499999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>37820</v>
-      </c>
-      <c r="C9" t="n">
-        <v>37460</v>
-      </c>
-      <c r="D9" t="n">
-        <v>37820</v>
-      </c>
-      <c r="E9" t="n">
-        <v>37460</v>
-      </c>
-      <c r="F9" t="n">
-        <v>9.259</v>
-      </c>
-      <c r="G9" t="n">
-        <v>622.0471736499999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>37770</v>
-      </c>
-      <c r="C10" t="n">
-        <v>37770</v>
-      </c>
-      <c r="D10" t="n">
-        <v>37770</v>
-      </c>
-      <c r="E10" t="n">
-        <v>37770</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2.5976</v>
-      </c>
-      <c r="G10" t="n">
-        <v>624.6447736499999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>38010</v>
-      </c>
-      <c r="C11" t="n">
-        <v>38010</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38010</v>
-      </c>
-      <c r="E11" t="n">
-        <v>38010</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G11" t="n">
-        <v>624.9147736499999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>37970</v>
-      </c>
-      <c r="C12" t="n">
-        <v>37970</v>
-      </c>
-      <c r="D12" t="n">
-        <v>37970</v>
-      </c>
-      <c r="E12" t="n">
-        <v>37970</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.7839</v>
-      </c>
-      <c r="G12" t="n">
-        <v>622.1308736499999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>37440</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37440</v>
-      </c>
-      <c r="D13" t="n">
-        <v>37440</v>
-      </c>
-      <c r="E13" t="n">
-        <v>37440</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1.0019</v>
-      </c>
-      <c r="G13" t="n">
-        <v>621.1289736499999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>37430</v>
-      </c>
-      <c r="C14" t="n">
-        <v>37420</v>
-      </c>
-      <c r="D14" t="n">
-        <v>37430</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37420</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7689</v>
-      </c>
-      <c r="G14" t="n">
-        <v>620.3600736499999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>37420</v>
-      </c>
-      <c r="C15" t="n">
-        <v>37400</v>
-      </c>
-      <c r="D15" t="n">
-        <v>37420</v>
-      </c>
-      <c r="E15" t="n">
-        <v>37400</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.07870000000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>620.2813736499999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>37740</v>
-      </c>
-      <c r="C16" t="n">
-        <v>37740</v>
-      </c>
-      <c r="D16" t="n">
-        <v>37740</v>
-      </c>
-      <c r="E16" t="n">
-        <v>37740</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>620.8813736499999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>37970</v>
-      </c>
-      <c r="C17" t="n">
-        <v>38140</v>
-      </c>
-      <c r="D17" t="n">
-        <v>38140</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37970</v>
-      </c>
-      <c r="F17" t="n">
-        <v>17.04622587</v>
-      </c>
-      <c r="G17" t="n">
-        <v>637.9275995199998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>37820</v>
-      </c>
-      <c r="C18" t="n">
-        <v>37820</v>
-      </c>
-      <c r="D18" t="n">
-        <v>37820</v>
-      </c>
-      <c r="E18" t="n">
-        <v>37820</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G18" t="n">
-        <v>637.6575995199998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>37420</v>
-      </c>
-      <c r="C19" t="n">
-        <v>37200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>37420</v>
-      </c>
-      <c r="E19" t="n">
-        <v>37200</v>
-      </c>
-      <c r="F19" t="n">
-        <v>17.0463</v>
-      </c>
-      <c r="G19" t="n">
-        <v>620.6112995199999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>37210</v>
-      </c>
-      <c r="C20" t="n">
-        <v>37210</v>
-      </c>
-      <c r="D20" t="n">
-        <v>37210</v>
-      </c>
-      <c r="E20" t="n">
-        <v>37210</v>
-      </c>
-      <c r="F20" t="n">
-        <v>14.8849</v>
-      </c>
-      <c r="G20" t="n">
-        <v>635.4961995199999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>37520</v>
-      </c>
-      <c r="C21" t="n">
-        <v>37520</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37520</v>
-      </c>
-      <c r="E21" t="n">
-        <v>37520</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.5202</v>
-      </c>
-      <c r="G21" t="n">
-        <v>637.0163995199999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>37420</v>
-      </c>
-      <c r="C22" t="n">
-        <v>37220</v>
-      </c>
-      <c r="D22" t="n">
-        <v>37420</v>
-      </c>
-      <c r="E22" t="n">
-        <v>37220</v>
-      </c>
-      <c r="F22" t="n">
-        <v>38.2422</v>
-      </c>
-      <c r="G22" t="n">
-        <v>598.7741995199999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>37350</v>
-      </c>
-      <c r="C23" t="n">
-        <v>37350</v>
-      </c>
-      <c r="D23" t="n">
-        <v>37350</v>
-      </c>
-      <c r="E23" t="n">
-        <v>37350</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.8399</v>
-      </c>
-      <c r="G23" t="n">
-        <v>599.6140995199999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>37350</v>
-      </c>
-      <c r="C24" t="n">
-        <v>37350</v>
-      </c>
-      <c r="D24" t="n">
-        <v>37350</v>
-      </c>
-      <c r="E24" t="n">
-        <v>37350</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.4656</v>
-      </c>
-      <c r="G24" t="n">
-        <v>599.6140995199999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>37910</v>
-      </c>
-      <c r="C25" t="n">
-        <v>37880</v>
-      </c>
-      <c r="D25" t="n">
-        <v>37950</v>
-      </c>
-      <c r="E25" t="n">
-        <v>37740</v>
-      </c>
-      <c r="F25" t="n">
-        <v>5.8367</v>
-      </c>
-      <c r="G25" t="n">
-        <v>605.4507995199998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>38140</v>
-      </c>
-      <c r="C26" t="n">
-        <v>38160</v>
-      </c>
-      <c r="D26" t="n">
-        <v>38160</v>
-      </c>
-      <c r="E26" t="n">
-        <v>38140</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" t="n">
-        <v>615.4507995199998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1427,14 +1295,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1466,14 +1328,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1361,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1544,14 +1394,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1583,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1622,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1661,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1700,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1739,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1778,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1817,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1856,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1895,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1970,17 +1754,11 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2009,17 +1787,11 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2051,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2090,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2126,17 +1886,11 @@
         <v>602.91729952</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2165,17 +1919,11 @@
         <v>610.97399952</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2204,17 +1952,11 @@
         <v>608.19009952</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2246,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2282,17 +2018,11 @@
         <v>608.19009952</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2324,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2363,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2402,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2480,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2597,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2318,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2672,17 +2348,11 @@
         <v>641.38429952</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2711,17 +2381,11 @@
         <v>641.35949952</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2750,17 +2414,11 @@
         <v>641.35949952</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2789,17 +2447,11 @@
         <v>641.35949952</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2831,14 +2483,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2516,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2549,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2945,17 +2579,11 @@
         <v>656.7491995199999</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2984,17 +2612,11 @@
         <v>666.8691995199999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3023,17 +2645,11 @@
         <v>689.08049952</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3062,17 +2678,11 @@
         <v>728.72999952</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3101,17 +2711,11 @@
         <v>739.31039952</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2747,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2780,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3299,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3416,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3494,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3881,19 +3371,13 @@
         <v>808.9426479700002</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
-        <v>1.01335824809861</v>
+        <v>1</v>
       </c>
       <c r="M90" t="inlineStr"/>
     </row>
@@ -3920,7 +3404,7 @@
         <v>809.0426479700002</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3953,7 +3437,7 @@
         <v>808.7566479700002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3986,7 +3470,7 @@
         <v>800.3637479700002</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -4019,7 +3503,7 @@
         <v>804.8235479700002</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4052,7 +3536,7 @@
         <v>804.8235479700002</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4085,7 +3569,7 @@
         <v>787.8383479700002</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4118,7 +3602,7 @@
         <v>787.7172479700002</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4151,7 +3635,7 @@
         <v>787.7172479700002</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4184,7 +3668,7 @@
         <v>792.0294479700002</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4217,7 +3701,7 @@
         <v>792.0294479700002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4250,7 +3734,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4283,7 +3767,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4316,7 +3800,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4349,7 +3833,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4382,7 +3866,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4415,7 +3899,7 @@
         <v>792.3691479700002</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4448,7 +3932,7 @@
         <v>792.3991479700002</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4481,7 +3965,7 @@
         <v>787.3991479700002</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4514,7 +3998,7 @@
         <v>787.1266479700001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4547,7 +4031,7 @@
         <v>784.6536479700002</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4580,7 +4064,7 @@
         <v>785.5036479700002</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4613,7 +4097,7 @@
         <v>782.8406479700002</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4646,7 +4130,7 @@
         <v>795.9849479700002</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4679,7 +4163,7 @@
         <v>796.2360479700002</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4712,7 +4196,7 @@
         <v>796.7775479700002</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4745,7 +4229,7 @@
         <v>796.8835479700002</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4778,7 +4262,7 @@
         <v>797.1560479700003</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4811,7 +4295,7 @@
         <v>800.3378479700002</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4844,7 +4328,7 @@
         <v>822.7871479700002</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4877,7 +4361,7 @@
         <v>823.6135479700002</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4910,7 +4394,7 @@
         <v>820.4629479700002</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4943,7 +4427,7 @@
         <v>817.9110479700001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4976,7 +4460,7 @@
         <v>819.9110479700001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5009,7 +4493,7 @@
         <v>819.9110479700001</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5042,7 +4526,7 @@
         <v>822.7701479700002</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5075,7 +4559,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5108,7 +4592,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5141,7 +4625,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5174,7 +4658,7 @@
         <v>829.9382479700001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5207,7 +4691,7 @@
         <v>831.6382479700002</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5240,7 +4724,7 @@
         <v>843.6782479700001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5273,7 +4757,7 @@
         <v>855.7782479700002</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5306,7 +4790,7 @@
         <v>855.7782479700002</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5339,7 +4823,7 @@
         <v>855.7782479700002</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5372,7 +4856,7 @@
         <v>855.8782479700002</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5405,7 +4889,7 @@
         <v>850.9960479700002</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5438,7 +4922,7 @@
         <v>850.3755479700002</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5471,7 +4955,7 @@
         <v>848.3849479700002</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5504,7 +4988,7 @@
         <v>848.3849479700002</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5537,7 +5021,7 @@
         <v>848.3849479700002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5570,7 +5054,7 @@
         <v>845.8239479700002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5603,7 +5087,7 @@
         <v>841.2117479700001</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5636,7 +5120,7 @@
         <v>770.9312479700002</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5669,7 +5153,7 @@
         <v>793.1466479700002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5702,7 +5186,7 @@
         <v>782.2782479700003</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5735,7 +5219,7 @@
         <v>790.7728479700003</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5768,7 +5252,7 @@
         <v>763.1608479700003</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5801,7 +5285,7 @@
         <v>761.4962479700004</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5834,7 +5318,7 @@
         <v>967.6419479700004</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5867,7 +5351,7 @@
         <v>973.1780479700004</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5900,7 +5384,7 @@
         <v>973.8585479700005</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5933,7 +5417,7 @@
         <v>966.1931479700005</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5966,7 +5450,7 @@
         <v>960.1912479700005</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5999,7 +5483,7 @@
         <v>960.1912479700005</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6032,7 +5516,7 @@
         <v>993.6912479700005</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6065,7 +5549,7 @@
         <v>997.2701479700005</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6098,7 +5582,7 @@
         <v>992.7163479700005</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6131,7 +5615,7 @@
         <v>972.7163479700005</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6164,7 +5648,7 @@
         <v>964.2653479700004</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6197,7 +5681,7 @@
         <v>1364.285847970001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6230,7 +5714,7 @@
         <v>1398.287447970001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6263,7 +5747,7 @@
         <v>1407.746447970001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6296,7 +5780,7 @@
         <v>1408.776447970001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6494,7 +5978,7 @@
         <v>1408.061947970001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6527,7 +6011,7 @@
         <v>1342.695447970001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6560,7 +6044,7 @@
         <v>1321.081047970001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6593,7 +6077,7 @@
         <v>1312.275247970001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6626,7 +6110,7 @@
         <v>1348.915747970001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6659,7 +6143,7 @@
         <v>1337.483147970001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6692,7 +6176,7 @@
         <v>1326.70634797</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6725,7 +6209,7 @@
         <v>1275.67044797</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6758,7 +6242,7 @@
         <v>1254.15114797</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6791,7 +6275,7 @@
         <v>1260.70474797</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6824,7 +6308,7 @@
         <v>1272.62354797</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6857,7 +6341,7 @@
         <v>1270.19314797</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6890,7 +6374,7 @@
         <v>1270.19314797</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6923,7 +6407,7 @@
         <v>1271.04844797</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6956,7 +6440,7 @@
         <v>1273.98744797</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6989,7 +6473,7 @@
         <v>1300.57804797</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7022,7 +6506,7 @@
         <v>1312.47804797</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7055,7 +6539,7 @@
         <v>1312.47804797</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7088,7 +6572,7 @@
         <v>1316.384647970001</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7121,7 +6605,7 @@
         <v>1304.804847970001</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7154,7 +6638,7 @@
         <v>1311.25794797</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7187,7 +6671,7 @@
         <v>1311.28794797</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7220,7 +6704,7 @@
         <v>1311.313947970001</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7231,6 +6715,6 @@
       <c r="M191" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -451,7 +451,7 @@
         <v>630.30317365</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>630.78317365</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J3" t="n">
+        <v>38130</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>630.78317365</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38400</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>631.22027365</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38400</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38130</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -649,10 +669,14 @@
         <v>631.3061736499999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37730</v>
+      </c>
+      <c r="J8" t="n">
+        <v>37730</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -682,11 +706,19 @@
         <v>622.0471736499999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>37730</v>
+      </c>
+      <c r="J9" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +747,19 @@
         <v>624.6447736499999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37460</v>
+      </c>
+      <c r="J10" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +788,19 @@
         <v>624.9147736499999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37770</v>
+      </c>
+      <c r="J11" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +829,19 @@
         <v>622.1308736499999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>38010</v>
+      </c>
+      <c r="J12" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +870,19 @@
         <v>621.1289736499999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>37970</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +911,19 @@
         <v>620.3600736499999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>37440</v>
+      </c>
+      <c r="J14" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,19 @@
         <v>620.2813736499999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>37420</v>
+      </c>
+      <c r="J15" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +993,19 @@
         <v>620.8813736499999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>37400</v>
+      </c>
+      <c r="J16" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1034,19 @@
         <v>637.9275995199998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37740</v>
+      </c>
+      <c r="J17" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1075,19 @@
         <v>637.6575995199998</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38140</v>
+      </c>
+      <c r="J18" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1155,19 @@
         <v>635.4961995199999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>37200</v>
+      </c>
+      <c r="J20" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1199,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1238,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1277,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1183,9 +1319,13 @@
         <v>37350</v>
       </c>
       <c r="J24" t="n">
-        <v>37350</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>37730</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1218,11 +1358,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>37350</v>
+        <v>37730</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1257,11 +1397,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>37350</v>
+        <v>37730</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1295,8 +1435,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1328,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1361,8 +1513,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1394,8 +1552,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1427,8 +1591,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1460,8 +1630,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1493,8 +1669,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1526,8 +1708,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1559,8 +1747,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1592,8 +1786,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1625,8 +1825,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1658,8 +1864,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1691,8 +1903,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1721,11 +1939,19 @@
         <v>593.6651995199999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>37700</v>
+      </c>
+      <c r="J40" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1754,11 +1980,17 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1787,11 +2019,19 @@
         <v>593.3452995199999</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>37550</v>
+      </c>
+      <c r="J42" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +2060,19 @@
         <v>597.95289952</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>37550</v>
+      </c>
+      <c r="J43" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1853,11 +2101,19 @@
         <v>602.56049952</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>37630</v>
+      </c>
+      <c r="J44" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1886,11 +2142,19 @@
         <v>602.91729952</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>37770</v>
+      </c>
+      <c r="J45" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1919,11 +2183,19 @@
         <v>610.97399952</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>37820</v>
+      </c>
+      <c r="J46" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1952,11 +2224,19 @@
         <v>608.19009952</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>37920</v>
+      </c>
+      <c r="J47" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1985,11 +2265,19 @@
         <v>608.19009952</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>37610</v>
+      </c>
+      <c r="J48" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2018,11 +2306,19 @@
         <v>608.19009952</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>37610</v>
+      </c>
+      <c r="J49" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2051,11 +2347,19 @@
         <v>608.19009952</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>37610</v>
+      </c>
+      <c r="J50" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2084,11 +2388,19 @@
         <v>630.19009952</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>37610</v>
+      </c>
+      <c r="J51" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2117,11 +2429,19 @@
         <v>641.19009952</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>37870</v>
+      </c>
+      <c r="J52" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2150,11 +2470,19 @@
         <v>653.30959952</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>37880</v>
+      </c>
+      <c r="J53" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2186,8 +2514,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2219,8 +2553,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2589,19 @@
         <v>656.90479952</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>38170</v>
+      </c>
+      <c r="J56" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2285,8 +2633,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2318,8 +2672,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2708,17 @@
         <v>641.38429952</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2747,17 @@
         <v>641.35949952</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2786,17 @@
         <v>641.35949952</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2447,11 +2825,17 @@
         <v>641.35949952</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2483,8 +2867,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2903,19 @@
         <v>633.30279952</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J64" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2546,11 +2944,19 @@
         <v>654.44919952</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>37730</v>
+      </c>
+      <c r="J65" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2985,19 @@
         <v>656.7491995199999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>37820</v>
+      </c>
+      <c r="J66" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +3026,19 @@
         <v>666.8691995199999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>38270</v>
+      </c>
+      <c r="J67" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +3067,17 @@
         <v>689.08049952</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +3106,17 @@
         <v>728.72999952</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +3145,19 @@
         <v>739.31039952</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>38330</v>
+      </c>
+      <c r="J70" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2747,8 +3189,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2780,8 +3228,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2810,11 +3264,19 @@
         <v>818.2865995200001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>38680</v>
+      </c>
+      <c r="J73" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2846,8 +3308,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2879,8 +3347,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2909,13 +3383,19 @@
         <v>856.1195479700002</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>37730</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>1.03502120328651</v>
       </c>
       <c r="M76" t="inlineStr"/>
     </row>
@@ -2942,7 +3422,7 @@
         <v>851.8964479700002</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3008,7 +3488,7 @@
         <v>851.4631479700001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3404,7 +3884,7 @@
         <v>809.0426479700002</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3437,7 +3917,7 @@
         <v>808.7566479700002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4229,10 +4709,14 @@
         <v>796.8835479700002</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>37830</v>
+      </c>
+      <c r="J116" t="n">
+        <v>37830</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4262,11 +4746,19 @@
         <v>797.1560479700003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>37840</v>
+      </c>
+      <c r="J117" t="n">
+        <v>37830</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4787,19 @@
         <v>800.3378479700002</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>37850</v>
+      </c>
+      <c r="J118" t="n">
+        <v>37830</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5318,11 +5818,17 @@
         <v>967.6419479700004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>38010</v>
+      </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5355,7 +5861,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5388,7 +5898,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5421,7 +5935,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5454,7 +5972,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5487,7 +6009,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5520,7 +6046,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5553,7 +6083,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5586,7 +6120,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5619,7 +6157,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5652,7 +6194,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5685,7 +6231,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5718,7 +6268,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5751,7 +6305,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5784,7 +6342,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5817,7 +6379,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5850,7 +6416,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6453,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5916,7 +6490,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5949,7 +6527,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5982,7 +6564,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6015,7 +6601,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6048,7 +6638,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6081,7 +6675,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6114,7 +6712,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6147,7 +6749,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6180,7 +6786,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6213,7 +6823,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6246,7 +6860,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6279,7 +6897,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6312,7 +6934,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6345,7 +6971,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6378,7 +7008,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6411,7 +7045,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6444,7 +7082,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6477,7 +7119,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6506,14 +7152,16 @@
         <v>1312.47804797</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -6572,7 +7220,7 @@
         <v>1316.384647970001</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6605,7 +7253,7 @@
         <v>1304.804847970001</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6638,7 +7286,7 @@
         <v>1311.25794797</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6671,7 +7319,7 @@
         <v>1311.28794797</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6704,7 +7352,7 @@
         <v>1311.313947970001</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-12 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7.0657</v>
       </c>
       <c r="G2" t="n">
-        <v>630.30317365</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>0.48</v>
       </c>
       <c r="G3" t="n">
-        <v>630.78317365</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>38130</v>
       </c>
       <c r="I3" t="n">
         <v>38130</v>
       </c>
-      <c r="J3" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,21 @@
         <v>2.1176</v>
       </c>
       <c r="G4" t="n">
-        <v>630.78317365</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>38400</v>
-      </c>
-      <c r="J4" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>38130</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +543,21 @@
         <v>0.4371</v>
       </c>
       <c r="G5" t="n">
-        <v>631.22027365</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>38400</v>
-      </c>
-      <c r="J5" t="n">
-        <v>38130</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>38130</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +579,23 @@
         <v>20.7682</v>
       </c>
       <c r="G6" t="n">
-        <v>651.9884736499999</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>38460</v>
+      </c>
+      <c r="I6" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,18 +617,21 @@
         <v>20.6823</v>
       </c>
       <c r="G7" t="n">
-        <v>631.3061736499999</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,22 +653,21 @@
         <v>0.0859</v>
       </c>
       <c r="G8" t="n">
-        <v>631.3061736499999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>37730</v>
-      </c>
-      <c r="J8" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,26 +689,21 @@
         <v>9.259</v>
       </c>
       <c r="G9" t="n">
-        <v>622.0471736499999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>37730</v>
-      </c>
-      <c r="J9" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,26 +725,21 @@
         <v>2.5976</v>
       </c>
       <c r="G10" t="n">
-        <v>624.6447736499999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>37460</v>
-      </c>
-      <c r="J10" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -785,26 +761,21 @@
         <v>0.27</v>
       </c>
       <c r="G11" t="n">
-        <v>624.9147736499999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>37770</v>
-      </c>
-      <c r="J11" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -826,26 +797,21 @@
         <v>2.7839</v>
       </c>
       <c r="G12" t="n">
-        <v>622.1308736499999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>38010</v>
-      </c>
-      <c r="J12" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -867,26 +833,21 @@
         <v>1.0019</v>
       </c>
       <c r="G13" t="n">
-        <v>621.1289736499999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>37970</v>
-      </c>
-      <c r="J13" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,26 +869,21 @@
         <v>0.7689</v>
       </c>
       <c r="G14" t="n">
-        <v>620.3600736499999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>37440</v>
-      </c>
-      <c r="J14" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,26 +905,21 @@
         <v>0.07870000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>620.2813736499999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>37420</v>
-      </c>
-      <c r="J15" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -990,26 +941,21 @@
         <v>0.6</v>
       </c>
       <c r="G16" t="n">
-        <v>620.8813736499999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>37400</v>
-      </c>
-      <c r="J16" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,26 +977,21 @@
         <v>17.04622587</v>
       </c>
       <c r="G17" t="n">
-        <v>637.9275995199998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>37740</v>
-      </c>
-      <c r="J17" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1072,26 +1013,21 @@
         <v>0.27</v>
       </c>
       <c r="G18" t="n">
-        <v>637.6575995199998</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>38140</v>
-      </c>
-      <c r="J18" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1113,24 +1049,21 @@
         <v>17.0463</v>
       </c>
       <c r="G19" t="n">
-        <v>620.6112995199999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1152,26 +1085,21 @@
         <v>14.8849</v>
       </c>
       <c r="G20" t="n">
-        <v>635.4961995199999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>37200</v>
-      </c>
-      <c r="J20" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1193,24 +1121,21 @@
         <v>1.5202</v>
       </c>
       <c r="G21" t="n">
-        <v>637.0163995199999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,24 +1157,21 @@
         <v>38.2422</v>
       </c>
       <c r="G22" t="n">
-        <v>598.7741995199999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1271,24 +1193,21 @@
         <v>0.8399</v>
       </c>
       <c r="G23" t="n">
-        <v>599.6140995199999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,26 +1229,21 @@
         <v>1.4656</v>
       </c>
       <c r="G24" t="n">
-        <v>599.6140995199999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>37350</v>
-      </c>
-      <c r="J24" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1351,24 +1265,21 @@
         <v>5.8367</v>
       </c>
       <c r="G25" t="n">
-        <v>605.4507995199998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1390,24 +1301,21 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>615.4507995199998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1429,24 +1337,21 @@
         <v>20</v>
       </c>
       <c r="G27" t="n">
-        <v>615.4507995199998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1468,24 +1373,21 @@
         <v>9.456200000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>605.9945995199998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1507,24 +1409,21 @@
         <v>8.192</v>
       </c>
       <c r="G29" t="n">
-        <v>597.8025995199998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1546,24 +1445,21 @@
         <v>10.5915</v>
       </c>
       <c r="G30" t="n">
-        <v>608.3940995199998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1585,24 +1481,21 @@
         <v>3.2257</v>
       </c>
       <c r="G31" t="n">
-        <v>608.3940995199998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1624,24 +1517,21 @@
         <v>1.1828</v>
       </c>
       <c r="G32" t="n">
-        <v>609.5768995199999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1663,24 +1553,21 @@
         <v>0.02</v>
       </c>
       <c r="G33" t="n">
-        <v>609.5768995199999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1702,24 +1589,21 @@
         <v>1.7118</v>
       </c>
       <c r="G34" t="n">
-        <v>607.8650995199998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1741,24 +1625,21 @@
         <v>0.02</v>
       </c>
       <c r="G35" t="n">
-        <v>607.8450995199998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1780,24 +1661,21 @@
         <v>106.0564</v>
       </c>
       <c r="G36" t="n">
-        <v>501.7886995199999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1819,24 +1697,21 @@
         <v>2.92</v>
       </c>
       <c r="G37" t="n">
-        <v>504.7086995199999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1858,24 +1733,21 @@
         <v>101.2943</v>
       </c>
       <c r="G38" t="n">
-        <v>606.0029995199999</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1897,24 +1769,21 @@
         <v>12.3378</v>
       </c>
       <c r="G39" t="n">
-        <v>593.6651995199999</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1936,26 +1805,21 @@
         <v>0.2676</v>
       </c>
       <c r="G40" t="n">
-        <v>593.6651995199999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>37700</v>
-      </c>
-      <c r="J40" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1977,24 +1841,21 @@
         <v>0.3199</v>
       </c>
       <c r="G41" t="n">
-        <v>593.3452995199999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2016,26 +1877,21 @@
         <v>0.7454</v>
       </c>
       <c r="G42" t="n">
-        <v>593.3452995199999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>37550</v>
-      </c>
-      <c r="J42" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2057,26 +1913,21 @@
         <v>4.6076</v>
       </c>
       <c r="G43" t="n">
-        <v>597.95289952</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>37550</v>
-      </c>
-      <c r="J43" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2098,26 +1949,21 @@
         <v>4.6076</v>
       </c>
       <c r="G44" t="n">
-        <v>602.56049952</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
-        <v>37630</v>
-      </c>
-      <c r="J44" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2139,26 +1985,21 @@
         <v>0.3568</v>
       </c>
       <c r="G45" t="n">
-        <v>602.91729952</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
-        <v>37770</v>
-      </c>
-      <c r="J45" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2180,26 +2021,21 @@
         <v>8.056699999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>610.97399952</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
-        <v>37820</v>
-      </c>
-      <c r="J46" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2221,26 +2057,21 @@
         <v>2.7839</v>
       </c>
       <c r="G47" t="n">
-        <v>608.19009952</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>37920</v>
-      </c>
-      <c r="J47" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2262,26 +2093,21 @@
         <v>8.400499999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>608.19009952</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>37610</v>
-      </c>
-      <c r="J48" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2303,26 +2129,21 @@
         <v>0.0696</v>
       </c>
       <c r="G49" t="n">
-        <v>608.19009952</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>37610</v>
-      </c>
-      <c r="J49" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2344,26 +2165,21 @@
         <v>0.0139</v>
       </c>
       <c r="G50" t="n">
-        <v>608.19009952</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>37610</v>
-      </c>
-      <c r="J50" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2385,26 +2201,21 @@
         <v>22</v>
       </c>
       <c r="G51" t="n">
-        <v>630.19009952</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>37610</v>
-      </c>
-      <c r="J51" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2426,26 +2237,21 @@
         <v>11</v>
       </c>
       <c r="G52" t="n">
-        <v>641.19009952</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>37870</v>
-      </c>
-      <c r="J52" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2467,26 +2273,21 @@
         <v>12.1195</v>
       </c>
       <c r="G53" t="n">
-        <v>653.30959952</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
-        <v>37880</v>
-      </c>
-      <c r="J53" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2508,24 +2309,21 @@
         <v>0.7578</v>
       </c>
       <c r="G54" t="n">
-        <v>654.06739952</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2547,24 +2345,21 @@
         <v>0.4554</v>
       </c>
       <c r="G55" t="n">
-        <v>654.52279952</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2586,26 +2381,21 @@
         <v>2.382</v>
       </c>
       <c r="G56" t="n">
-        <v>656.90479952</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>38170</v>
-      </c>
-      <c r="J56" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2627,24 +2417,21 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>657.90479952</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2666,24 +2453,21 @@
         <v>3.8047</v>
       </c>
       <c r="G58" t="n">
-        <v>654.10009952</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2705,24 +2489,21 @@
         <v>12.7158</v>
       </c>
       <c r="G59" t="n">
-        <v>641.38429952</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2744,24 +2525,21 @@
         <v>0.0248</v>
       </c>
       <c r="G60" t="n">
-        <v>641.35949952</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2783,24 +2561,21 @@
         <v>1.2147</v>
       </c>
       <c r="G61" t="n">
-        <v>641.35949952</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2822,24 +2597,21 @@
         <v>3.0987</v>
       </c>
       <c r="G62" t="n">
-        <v>641.35949952</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2861,24 +2633,21 @@
         <v>0.066</v>
       </c>
       <c r="G63" t="n">
-        <v>641.35949952</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2900,26 +2669,21 @@
         <v>8.056699999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>633.30279952</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
         <v>38130</v>
       </c>
-      <c r="J64" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2941,26 +2705,21 @@
         <v>21.1464</v>
       </c>
       <c r="G65" t="n">
-        <v>654.44919952</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>37730</v>
-      </c>
-      <c r="J65" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2982,26 +2741,23 @@
         <v>2.3</v>
       </c>
       <c r="G66" t="n">
-        <v>656.7491995199999</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>37820</v>
       </c>
       <c r="I66" t="n">
-        <v>37820</v>
-      </c>
-      <c r="J66" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3023,26 +2779,21 @@
         <v>10.12</v>
       </c>
       <c r="G67" t="n">
-        <v>666.8691995199999</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>38270</v>
-      </c>
-      <c r="J67" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3064,24 +2815,21 @@
         <v>22.2113</v>
       </c>
       <c r="G68" t="n">
-        <v>689.08049952</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3103,24 +2851,21 @@
         <v>39.6495</v>
       </c>
       <c r="G69" t="n">
-        <v>728.72999952</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3142,26 +2887,21 @@
         <v>10.5804</v>
       </c>
       <c r="G70" t="n">
-        <v>739.31039952</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>38330</v>
-      </c>
-      <c r="J70" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3183,24 +2923,21 @@
         <v>31.7317</v>
       </c>
       <c r="G71" t="n">
-        <v>771.0420995200001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3222,24 +2959,21 @@
         <v>43.9256</v>
       </c>
       <c r="G72" t="n">
-        <v>814.9676995200001</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3261,26 +2995,21 @@
         <v>3.3189</v>
       </c>
       <c r="G73" t="n">
-        <v>818.2865995200001</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>38680</v>
-      </c>
-      <c r="J73" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3302,24 +3031,21 @@
         <v>3.75624845</v>
       </c>
       <c r="G74" t="n">
-        <v>822.0428479700001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3341,24 +3067,21 @@
         <v>69.06189999999999</v>
       </c>
       <c r="G75" t="n">
-        <v>891.1047479700002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3380,24 +3103,21 @@
         <v>34.9852</v>
       </c>
       <c r="G76" t="n">
-        <v>856.1195479700002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>37730</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1.03502120328651</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3419,18 +3139,21 @@
         <v>4.2231</v>
       </c>
       <c r="G77" t="n">
-        <v>851.8964479700002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3452,18 +3175,21 @@
         <v>3.323</v>
       </c>
       <c r="G78" t="n">
-        <v>855.2194479700001</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3485,18 +3211,21 @@
         <v>3.7563</v>
       </c>
       <c r="G79" t="n">
-        <v>851.4631479700001</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3518,18 +3247,21 @@
         <v>3.323</v>
       </c>
       <c r="G80" t="n">
-        <v>854.7861479700001</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3551,18 +3283,21 @@
         <v>15.5</v>
       </c>
       <c r="G81" t="n">
-        <v>870.2861479700001</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3584,18 +3319,21 @@
         <v>7</v>
       </c>
       <c r="G82" t="n">
-        <v>877.2861479700001</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3617,18 +3355,21 @@
         <v>1.3471</v>
       </c>
       <c r="G83" t="n">
-        <v>875.9390479700002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3650,18 +3391,21 @@
         <v>2.4189</v>
       </c>
       <c r="G84" t="n">
-        <v>875.9390479700002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3683,18 +3427,21 @@
         <v>0.0234</v>
       </c>
       <c r="G85" t="n">
-        <v>875.9390479700002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3716,18 +3463,21 @@
         <v>69.425</v>
       </c>
       <c r="G86" t="n">
-        <v>806.5140479700002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3749,18 +3499,21 @@
         <v>0.7473</v>
       </c>
       <c r="G87" t="n">
-        <v>807.2613479700002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3782,18 +3535,21 @@
         <v>0.8837</v>
       </c>
       <c r="G88" t="n">
-        <v>808.1450479700002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3815,18 +3571,21 @@
         <v>0.7976</v>
       </c>
       <c r="G89" t="n">
-        <v>808.9426479700002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3848,18 +3607,21 @@
         <v>5</v>
       </c>
       <c r="G90" t="n">
-        <v>808.9426479700002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3881,18 +3643,21 @@
         <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>809.0426479700002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3914,18 +3679,21 @@
         <v>0.286</v>
       </c>
       <c r="G92" t="n">
-        <v>808.7566479700002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3947,18 +3715,21 @@
         <v>8.392899999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>800.3637479700002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3980,18 +3751,21 @@
         <v>4.4598</v>
       </c>
       <c r="G94" t="n">
-        <v>804.8235479700002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4013,18 +3787,21 @@
         <v>5.5402</v>
       </c>
       <c r="G95" t="n">
-        <v>804.8235479700002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4046,18 +3823,21 @@
         <v>16.9852</v>
       </c>
       <c r="G96" t="n">
-        <v>787.8383479700002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4079,18 +3859,21 @@
         <v>0.1211</v>
       </c>
       <c r="G97" t="n">
-        <v>787.7172479700002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4112,18 +3895,21 @@
         <v>1.591</v>
       </c>
       <c r="G98" t="n">
-        <v>787.7172479700002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4145,18 +3931,21 @@
         <v>4.3122</v>
       </c>
       <c r="G99" t="n">
-        <v>792.0294479700002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4178,18 +3967,21 @@
         <v>0.7381</v>
       </c>
       <c r="G100" t="n">
-        <v>792.0294479700002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4211,18 +4003,21 @@
         <v>0.3397</v>
       </c>
       <c r="G101" t="n">
-        <v>792.3691479700002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4244,18 +4039,21 @@
         <v>2.4051</v>
       </c>
       <c r="G102" t="n">
-        <v>792.3691479700002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4277,18 +4075,21 @@
         <v>2.6656</v>
       </c>
       <c r="G103" t="n">
-        <v>792.3691479700002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4310,18 +4111,21 @@
         <v>21.7711</v>
       </c>
       <c r="G104" t="n">
-        <v>792.3691479700002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4343,18 +4147,21 @@
         <v>0.5789</v>
       </c>
       <c r="G105" t="n">
-        <v>792.3691479700002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4376,18 +4183,21 @@
         <v>0.0165</v>
       </c>
       <c r="G106" t="n">
-        <v>792.3691479700002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4409,18 +4219,21 @@
         <v>0.03</v>
       </c>
       <c r="G107" t="n">
-        <v>792.3991479700002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4442,18 +4255,21 @@
         <v>5</v>
       </c>
       <c r="G108" t="n">
-        <v>787.3991479700002</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4475,18 +4291,21 @@
         <v>0.2725</v>
       </c>
       <c r="G109" t="n">
-        <v>787.1266479700001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4508,18 +4327,21 @@
         <v>2.473</v>
       </c>
       <c r="G110" t="n">
-        <v>784.6536479700002</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4541,18 +4363,23 @@
         <v>0.85</v>
       </c>
       <c r="G111" t="n">
-        <v>785.5036479700002</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>37900</v>
+      </c>
+      <c r="I111" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4574,18 +4401,23 @@
         <v>2.663</v>
       </c>
       <c r="G112" t="n">
-        <v>782.8406479700002</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>37940</v>
+      </c>
+      <c r="I112" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4607,18 +4439,23 @@
         <v>13.1443</v>
       </c>
       <c r="G113" t="n">
-        <v>795.9849479700002</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>37710</v>
+      </c>
+      <c r="I113" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4640,18 +4477,23 @@
         <v>0.2511</v>
       </c>
       <c r="G114" t="n">
-        <v>796.2360479700002</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>37790</v>
+      </c>
+      <c r="I114" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4673,18 +4515,23 @@
         <v>0.5415</v>
       </c>
       <c r="G115" t="n">
-        <v>796.7775479700002</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>37810</v>
+      </c>
+      <c r="I115" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4706,22 +4553,23 @@
         <v>0.106</v>
       </c>
       <c r="G116" t="n">
-        <v>796.8835479700002</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>37830</v>
       </c>
       <c r="I116" t="n">
-        <v>37830</v>
-      </c>
-      <c r="J116" t="n">
-        <v>37830</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4743,26 +4591,23 @@
         <v>0.2725</v>
       </c>
       <c r="G117" t="n">
-        <v>797.1560479700003</v>
+        <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>37840</v>
       </c>
       <c r="I117" t="n">
-        <v>37840</v>
-      </c>
-      <c r="J117" t="n">
-        <v>37830</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4784,26 +4629,23 @@
         <v>3.1818</v>
       </c>
       <c r="G118" t="n">
-        <v>800.3378479700002</v>
+        <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>37850</v>
       </c>
       <c r="I118" t="n">
-        <v>37850</v>
-      </c>
-      <c r="J118" t="n">
-        <v>37830</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>38130</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4825,18 +4667,21 @@
         <v>22.4493</v>
       </c>
       <c r="G119" t="n">
-        <v>822.7871479700002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4858,18 +4703,21 @@
         <v>0.8264</v>
       </c>
       <c r="G120" t="n">
-        <v>823.6135479700002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4891,18 +4739,21 @@
         <v>3.1506</v>
       </c>
       <c r="G121" t="n">
-        <v>820.4629479700002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4924,18 +4775,21 @@
         <v>2.5519</v>
       </c>
       <c r="G122" t="n">
-        <v>817.9110479700001</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4957,18 +4811,21 @@
         <v>2</v>
       </c>
       <c r="G123" t="n">
-        <v>819.9110479700001</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4990,18 +4847,21 @@
         <v>8</v>
       </c>
       <c r="G124" t="n">
-        <v>819.9110479700001</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5023,18 +4883,21 @@
         <v>2.8591</v>
       </c>
       <c r="G125" t="n">
-        <v>822.7701479700002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5056,18 +4919,21 @@
         <v>7.1681</v>
       </c>
       <c r="G126" t="n">
-        <v>829.9382479700001</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5089,18 +4955,21 @@
         <v>41.6164</v>
       </c>
       <c r="G127" t="n">
-        <v>829.9382479700001</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5122,18 +4991,21 @@
         <v>8.3849</v>
       </c>
       <c r="G128" t="n">
-        <v>829.9382479700001</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5155,18 +5027,21 @@
         <v>1.1212</v>
       </c>
       <c r="G129" t="n">
-        <v>829.9382479700001</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5188,18 +5063,21 @@
         <v>1.7</v>
       </c>
       <c r="G130" t="n">
-        <v>831.6382479700002</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5221,18 +5099,21 @@
         <v>12.04</v>
       </c>
       <c r="G131" t="n">
-        <v>843.6782479700001</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5254,18 +5135,21 @@
         <v>12.1</v>
       </c>
       <c r="G132" t="n">
-        <v>855.7782479700002</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5287,18 +5171,21 @@
         <v>0.1</v>
       </c>
       <c r="G133" t="n">
-        <v>855.7782479700002</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5320,18 +5207,21 @@
         <v>70.2805</v>
       </c>
       <c r="G134" t="n">
-        <v>855.7782479700002</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5353,18 +5243,21 @@
         <v>0.1</v>
       </c>
       <c r="G135" t="n">
-        <v>855.8782479700002</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5386,18 +5279,21 @@
         <v>4.8822</v>
       </c>
       <c r="G136" t="n">
-        <v>850.9960479700002</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5419,18 +5315,21 @@
         <v>0.6205000000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>850.3755479700002</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5452,18 +5351,21 @@
         <v>1.9906</v>
       </c>
       <c r="G138" t="n">
-        <v>848.3849479700002</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5485,18 +5387,21 @@
         <v>0.1103</v>
       </c>
       <c r="G139" t="n">
-        <v>848.3849479700002</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>38130</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>0.998147128245476</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5518,18 +5423,15 @@
         <v>0.0223</v>
       </c>
       <c r="G140" t="n">
-        <v>848.3849479700002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5551,18 +5453,15 @@
         <v>2.561</v>
       </c>
       <c r="G141" t="n">
-        <v>845.8239479700002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5584,18 +5483,15 @@
         <v>4.6122</v>
       </c>
       <c r="G142" t="n">
-        <v>841.2117479700001</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5617,18 +5513,15 @@
         <v>70.2805</v>
       </c>
       <c r="G143" t="n">
-        <v>770.9312479700002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5650,18 +5543,15 @@
         <v>22.2154</v>
       </c>
       <c r="G144" t="n">
-        <v>793.1466479700002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5683,18 +5573,19 @@
         <v>10.8684</v>
       </c>
       <c r="G145" t="n">
-        <v>782.2782479700003</v>
+        <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>38020</v>
+      </c>
+      <c r="I145" t="n">
+        <v>38020</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5716,18 +5607,23 @@
         <v>8.4946</v>
       </c>
       <c r="G146" t="n">
-        <v>790.7728479700003</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>38010</v>
+      </c>
+      <c r="I146" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5749,18 +5645,23 @@
         <v>27.612</v>
       </c>
       <c r="G147" t="n">
-        <v>763.1608479700003</v>
+        <v>1</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>38080</v>
+      </c>
+      <c r="I147" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5782,18 +5683,23 @@
         <v>1.6646</v>
       </c>
       <c r="G148" t="n">
-        <v>761.4962479700004</v>
+        <v>1</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>38020</v>
+      </c>
+      <c r="I148" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5815,24 +5721,23 @@
         <v>206.1457</v>
       </c>
       <c r="G149" t="n">
-        <v>967.6419479700004</v>
+        <v>1</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>38010</v>
       </c>
       <c r="I149" t="n">
-        <v>38010</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>38020</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5854,22 +5759,23 @@
         <v>5.5361</v>
       </c>
       <c r="G150" t="n">
-        <v>973.1780479700004</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>38060</v>
+      </c>
+      <c r="I150" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5891,22 +5797,23 @@
         <v>0.6805</v>
       </c>
       <c r="G151" t="n">
-        <v>973.8585479700005</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>38110</v>
+      </c>
+      <c r="I151" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5928,22 +5835,23 @@
         <v>7.6654</v>
       </c>
       <c r="G152" t="n">
-        <v>966.1931479700005</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>38250</v>
+      </c>
+      <c r="I152" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5965,22 +5873,23 @@
         <v>6.0019</v>
       </c>
       <c r="G153" t="n">
-        <v>960.1912479700005</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>38060</v>
+      </c>
+      <c r="I153" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6002,22 +5911,23 @@
         <v>1.6173</v>
       </c>
       <c r="G154" t="n">
-        <v>960.1912479700005</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>38050</v>
+      </c>
+      <c r="I154" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6039,22 +5949,23 @@
         <v>33.5</v>
       </c>
       <c r="G155" t="n">
-        <v>993.6912479700005</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>38050</v>
+      </c>
+      <c r="I155" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6076,22 +5987,23 @@
         <v>3.5789</v>
       </c>
       <c r="G156" t="n">
-        <v>997.2701479700005</v>
+        <v>1</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>38540</v>
+      </c>
+      <c r="I156" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6113,22 +6025,23 @@
         <v>4.5538</v>
       </c>
       <c r="G157" t="n">
-        <v>992.7163479700005</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>38730</v>
+      </c>
+      <c r="I157" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6150,22 +6063,23 @@
         <v>20</v>
       </c>
       <c r="G158" t="n">
-        <v>972.7163479700005</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>38310</v>
+      </c>
+      <c r="I158" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6187,22 +6101,23 @@
         <v>8.451000000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>964.2653479700004</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>38200</v>
+      </c>
+      <c r="I159" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6224,22 +6139,23 @@
         <v>400.0205</v>
       </c>
       <c r="G160" t="n">
-        <v>1364.285847970001</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>38190</v>
+      </c>
+      <c r="I160" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6261,22 +6177,23 @@
         <v>34.0016</v>
       </c>
       <c r="G161" t="n">
-        <v>1398.287447970001</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>38250</v>
+      </c>
+      <c r="I161" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6298,22 +6215,23 @@
         <v>9.459</v>
       </c>
       <c r="G162" t="n">
-        <v>1407.746447970001</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>38450</v>
+      </c>
+      <c r="I162" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6335,22 +6253,21 @@
         <v>1.03</v>
       </c>
       <c r="G163" t="n">
-        <v>1408.776447970001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6372,22 +6289,21 @@
         <v>28.7112</v>
       </c>
       <c r="G164" t="n">
-        <v>1380.065247970001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6409,22 +6325,21 @@
         <v>8.0769</v>
       </c>
       <c r="G165" t="n">
-        <v>1380.065247970001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6446,22 +6361,21 @@
         <v>6</v>
       </c>
       <c r="G166" t="n">
-        <v>1386.065247970001</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6483,22 +6397,21 @@
         <v>19.6999</v>
       </c>
       <c r="G167" t="n">
-        <v>1405.765147970001</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6520,22 +6433,21 @@
         <v>2.2968</v>
       </c>
       <c r="G168" t="n">
-        <v>1408.061947970001</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6557,22 +6469,21 @@
         <v>8.4421</v>
       </c>
       <c r="G169" t="n">
-        <v>1408.061947970001</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6594,22 +6505,21 @@
         <v>65.3665</v>
       </c>
       <c r="G170" t="n">
-        <v>1342.695447970001</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6631,22 +6541,21 @@
         <v>21.6144</v>
       </c>
       <c r="G171" t="n">
-        <v>1321.081047970001</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6668,22 +6577,21 @@
         <v>8.8058</v>
       </c>
       <c r="G172" t="n">
-        <v>1312.275247970001</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6705,22 +6613,21 @@
         <v>36.6405</v>
       </c>
       <c r="G173" t="n">
-        <v>1348.915747970001</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6742,22 +6649,21 @@
         <v>11.4326</v>
       </c>
       <c r="G174" t="n">
-        <v>1337.483147970001</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6779,22 +6685,21 @@
         <v>10.7768</v>
       </c>
       <c r="G175" t="n">
-        <v>1326.70634797</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6816,22 +6721,21 @@
         <v>51.0359</v>
       </c>
       <c r="G176" t="n">
-        <v>1275.67044797</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6853,22 +6757,21 @@
         <v>21.5193</v>
       </c>
       <c r="G177" t="n">
-        <v>1254.15114797</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6890,22 +6793,21 @@
         <v>6.5536</v>
       </c>
       <c r="G178" t="n">
-        <v>1260.70474797</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6927,22 +6829,21 @@
         <v>11.9188</v>
       </c>
       <c r="G179" t="n">
-        <v>1272.62354797</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6964,22 +6865,21 @@
         <v>2.4304</v>
       </c>
       <c r="G180" t="n">
-        <v>1270.19314797</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7001,22 +6901,21 @@
         <v>0.3773</v>
       </c>
       <c r="G181" t="n">
-        <v>1270.19314797</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7038,22 +6937,21 @@
         <v>0.8552999999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>1271.04844797</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7075,22 +6973,21 @@
         <v>2.939</v>
       </c>
       <c r="G183" t="n">
-        <v>1273.98744797</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7112,22 +7009,21 @@
         <v>26.5906</v>
       </c>
       <c r="G184" t="n">
-        <v>1300.57804797</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7149,20 +7045,21 @@
         <v>11.9</v>
       </c>
       <c r="G185" t="n">
-        <v>1312.47804797</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
       </c>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7184,18 +7081,21 @@
         <v>11.5798</v>
       </c>
       <c r="G186" t="n">
-        <v>1312.47804797</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7217,18 +7117,21 @@
         <v>3.9066</v>
       </c>
       <c r="G187" t="n">
-        <v>1316.384647970001</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7250,18 +7153,21 @@
         <v>11.5798</v>
       </c>
       <c r="G188" t="n">
-        <v>1304.804847970001</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7283,18 +7189,21 @@
         <v>6.4531</v>
       </c>
       <c r="G189" t="n">
-        <v>1311.25794797</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7316,18 +7225,21 @@
         <v>0.03</v>
       </c>
       <c r="G190" t="n">
-        <v>1311.28794797</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>38020</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1.037872172540768</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7349,18 +7261,15 @@
         <v>0.026</v>
       </c>
       <c r="G191" t="n">
-        <v>1311.313947970001</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
